--- a/data_serum labeling mouse ID.xlsx
+++ b/data_serum labeling mouse ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Research/db db mice/Infusion data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FDDE7-F3F6-0045-806F-D1D4E4FD064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F734B68C-8565-3F48-923D-965527406351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
+    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
   </bookViews>
   <sheets>
     <sheet name="infusion rounds" sheetId="1" r:id="rId1"/>
@@ -2997,10 +2997,10 @@
   <dimension ref="A1:T526"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D516" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A527" sqref="A527"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_serum labeling mouse ID.xlsx
+++ b/data_serum labeling mouse ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F734B68C-8565-3F48-923D-965527406351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966DDF2-D41D-D840-9D58-17EF2863EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
+    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
   </bookViews>
   <sheets>
     <sheet name="infusion rounds" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,19 @@
     <author>tc={A8A860E2-8C38-D04B-A2BB-306EEEC48C60}</author>
     <author>tc={1C41A09F-DF7E-424F-9D1E-A3B303C49D9A}</author>
     <author>tc={3CAE6CE7-8CA5-5349-A7FC-EE940E23C38A}</author>
+    <author>tc={755BEF4C-93F2-784C-9E6D-6463D8759844}</author>
+    <author>tc={269A5E30-7C8E-504E-B403-AB6E49338144}</author>
+    <author>tc={E6649E27-C513-484B-BE16-DB99A7418958}</author>
+    <author>tc={5427F9A3-7F7C-2F41-BDCA-3F6AD36B8B9A}</author>
+    <author>tc={C366E340-3CF3-1649-9646-A7D023BB130A}</author>
+    <author>tc={6B06107B-776D-0B42-A954-40DCB3F83979}</author>
+    <author>tc={ABF3EAB6-109B-9947-98A7-2CFC26039B11}</author>
+    <author>tc={F26D6457-F78A-C14D-A11A-A9032E4C9161}</author>
+    <author>tc={870B92F6-FAA5-F844-95A9-4D2A11326CF1}</author>
+    <author>tc={B84D9A8A-FB89-F343-86A4-EC4EC775AD35}</author>
+    <author>tc={35084041-E568-C844-9944-33FC29026438}</author>
+    <author>tc={40476537-A29A-DA46-A24A-EB591CBCD6A9}</author>
+    <author>tc={35BD1755-5D23-674F-A6DC-31EEADD6E583}</author>
   </authors>
   <commentList>
     <comment ref="N8" authorId="0" shapeId="0" xr:uid="{9A1954D0-BA50-8C40-9882-120EF96F2E90}">
@@ -582,12 +595,116 @@
     Can draw blood, but difficult to push through. After infusion, not able to draw blood anymore!</t>
       </text>
     </comment>
+    <comment ref="A526" authorId="33" shapeId="0" xr:uid="{755BEF4C-93F2-784C-9E6D-6463D8759844}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    HFD with body weight matched with ob/ob</t>
+      </text>
+    </comment>
+    <comment ref="A531" authorId="34" shapeId="0" xr:uid="{269A5E30-7C8E-504E-B403-AB6E49338144}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    HFD with matched body weight as ob/ob</t>
+      </text>
+    </comment>
+    <comment ref="B534" authorId="35" shapeId="0" xr:uid="{E6649E27-C513-484B-BE16-DB99A7418958}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file: C</t>
+      </text>
+    </comment>
+    <comment ref="B535" authorId="36" shapeId="0" xr:uid="{5427F9A3-7F7C-2F41-BDCA-3F6AD36B8B9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file:  D</t>
+      </text>
+    </comment>
+    <comment ref="B536" authorId="37" shapeId="0" xr:uid="{C366E340-3CF3-1649-9646-A7D023BB130A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file: OT1</t>
+      </text>
+    </comment>
+    <comment ref="B537" authorId="38" shapeId="0" xr:uid="{6B06107B-776D-0B42-A954-40DCB3F83979}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file: OT2</t>
+      </text>
+    </comment>
+    <comment ref="B538" authorId="39" shapeId="0" xr:uid="{ABF3EAB6-109B-9947-98A7-2CFC26039B11}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file: OT3</t>
+      </text>
+    </comment>
+    <comment ref="B539" authorId="40" shapeId="0" xr:uid="{F26D6457-F78A-C14D-A11A-A9032E4C9161}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file:  OT4</t>
+      </text>
+    </comment>
+    <comment ref="B540" authorId="41" shapeId="0" xr:uid="{870B92F6-FAA5-F844-95A9-4D2A11326CF1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file:  OT5</t>
+      </text>
+    </comment>
+    <comment ref="B541" authorId="42" shapeId="0" xr:uid="{B84D9A8A-FB89-F343-86A4-EC4EC775AD35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file:  WD1</t>
+      </text>
+    </comment>
+    <comment ref="B542" authorId="43" shapeId="0" xr:uid="{35084041-E568-C844-9944-33FC29026438}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file:  WD7</t>
+      </text>
+    </comment>
+    <comment ref="B543" authorId="44" shapeId="0" xr:uid="{40476537-A29A-DA46-A24A-EB591CBCD6A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass spec file:  WD8</t>
+      </text>
+    </comment>
+    <comment ref="E544" authorId="45" shapeId="0" xr:uid="{35BD1755-5D23-674F-A6DC-31EEADD6E583}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    YY’s tracer</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="397">
   <si>
     <r>
       <rPr>
@@ -1893,6 +2010,63 @@
   </si>
   <si>
     <t>3-HB</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>H108</t>
+  </si>
+  <si>
+    <t>H109</t>
+  </si>
+  <si>
+    <t>L141</t>
+  </si>
+  <si>
+    <t>L142</t>
+  </si>
+  <si>
+    <t>H110</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>L150</t>
+  </si>
+  <si>
+    <t>L151</t>
+  </si>
+  <si>
+    <t>L152</t>
+  </si>
+  <si>
+    <t>L153</t>
+  </si>
+  <si>
+    <t>L154</t>
+  </si>
+  <si>
+    <t>L155</t>
+  </si>
+  <si>
+    <t>L156</t>
+  </si>
+  <si>
+    <t>L157</t>
+  </si>
+  <si>
+    <t>L158</t>
+  </si>
+  <si>
+    <t>L159</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>ck</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2560,6 +2734,24 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2567,6 +2759,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2594,9 +2790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2634,7 +2830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2740,7 +2936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2882,7 +3078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2989,18 +3185,57 @@
   <threadedComment ref="B492" dT="2023-07-22T20:23:46.27" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{3CAE6CE7-8CA5-5349-A7FC-EE940E23C38A}">
     <text>Can draw blood, but difficult to push through. After infusion, not able to draw blood anymore!</text>
   </threadedComment>
+  <threadedComment ref="A526" dT="2024-05-27T15:28:04.65" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{755BEF4C-93F2-784C-9E6D-6463D8759844}">
+    <text>HFD with body weight matched with ob/ob</text>
+  </threadedComment>
+  <threadedComment ref="A531" dT="2024-05-27T15:27:02.11" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{269A5E30-7C8E-504E-B403-AB6E49338144}">
+    <text>HFD with matched body weight as ob/ob</text>
+  </threadedComment>
+  <threadedComment ref="B534" dT="2024-05-28T00:26:17.44" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{E6649E27-C513-484B-BE16-DB99A7418958}">
+    <text>Mass spec file: C</text>
+  </threadedComment>
+  <threadedComment ref="B535" dT="2024-05-28T00:26:21.97" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{5427F9A3-7F7C-2F41-BDCA-3F6AD36B8B9A}">
+    <text>Mass spec file:  D</text>
+  </threadedComment>
+  <threadedComment ref="B536" dT="2024-05-28T00:26:29.59" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{C366E340-3CF3-1649-9646-A7D023BB130A}">
+    <text>Mass spec file: OT1</text>
+  </threadedComment>
+  <threadedComment ref="B537" dT="2024-05-28T00:26:35.19" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{6B06107B-776D-0B42-A954-40DCB3F83979}">
+    <text>Mass spec file: OT2</text>
+  </threadedComment>
+  <threadedComment ref="B538" dT="2024-05-28T00:26:50.79" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{ABF3EAB6-109B-9947-98A7-2CFC26039B11}">
+    <text>Mass spec file: OT3</text>
+  </threadedComment>
+  <threadedComment ref="B539" dT="2024-05-28T00:26:55.42" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{F26D6457-F78A-C14D-A11A-A9032E4C9161}">
+    <text>Mass spec file:  OT4</text>
+  </threadedComment>
+  <threadedComment ref="B540" dT="2024-05-28T00:26:59.98" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{870B92F6-FAA5-F844-95A9-4D2A11326CF1}">
+    <text>Mass spec file:  OT5</text>
+  </threadedComment>
+  <threadedComment ref="B541" dT="2024-05-28T00:27:04.91" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{B84D9A8A-FB89-F343-86A4-EC4EC775AD35}">
+    <text>Mass spec file:  WD1</text>
+  </threadedComment>
+  <threadedComment ref="B542" dT="2024-05-28T00:27:09.48" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{35084041-E568-C844-9944-33FC29026438}">
+    <text>Mass spec file:  WD7</text>
+  </threadedComment>
+  <threadedComment ref="B543" dT="2024-05-28T00:27:14.05" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{40476537-A29A-DA46-A24A-EB591CBCD6A9}">
+    <text>Mass spec file:  WD8</text>
+  </threadedComment>
+  <threadedComment ref="E544" dT="2024-05-29T19:30:34.60" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{35BD1755-5D23-674F-A6DC-31EEADD6E583}">
+    <text>YY’s tracer</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}">
-  <dimension ref="A1:T526"/>
+  <dimension ref="A1:T546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D535" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="H549" sqref="H549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3028,43 +3263,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
@@ -3073,25 +3308,25 @@
       <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="56"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="113" t="s">
+      <c r="N7" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="113"/>
+      <c r="O7" s="119"/>
       <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -14701,14 +14936,14 @@
         <v>0.39236111111111099</v>
       </c>
       <c r="K260" s="13">
-        <v>0.45833333333333331</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="L260" s="13">
         <v>0.79166666666666663</v>
       </c>
       <c r="M260" s="7">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>-240.00000000000011</v>
       </c>
       <c r="N260" s="7">
         <v>161</v>
@@ -15761,14 +15996,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K287" s="12">
-        <v>0.11458333333333333</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="L287" s="12">
-        <v>0.22291666666666665</v>
+        <v>0.72291666666666665</v>
       </c>
       <c r="M287" s="1">
         <f t="shared" si="3"/>
-        <v>155.99999999999997</v>
+        <v>155.99999999999991</v>
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
@@ -15797,14 +16032,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K288" s="12">
-        <v>0.1173611111111111</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="L288" s="12">
-        <v>0.22638888888888889</v>
+        <v>0.72638888888888886</v>
       </c>
       <c r="M288" s="1">
         <f t="shared" si="3"/>
-        <v>157.00000000000003</v>
+        <v>156.99999999999991</v>
       </c>
       <c r="N288" s="1">
         <v>141</v>
@@ -15836,14 +16071,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K289" s="12">
-        <v>0.11805555555555557</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="L289" s="12">
-        <v>0.22847222222222222</v>
+        <v>0.72847222222222219</v>
       </c>
       <c r="M289" s="1">
         <f t="shared" si="3"/>
-        <v>158.99999999999997</v>
+        <v>158.99999999999991</v>
       </c>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.2">
@@ -15872,14 +16107,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K290" s="12">
-        <v>0.11944444444444445</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="L290" s="12">
-        <v>0.23055555555555554</v>
+        <v>0.73055555555555551</v>
       </c>
       <c r="M290" s="1">
         <f t="shared" si="3"/>
-        <v>159.99999999999997</v>
+        <v>159.99999999999991</v>
       </c>
     </row>
     <row r="291" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15908,14 +16143,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K291" s="13">
-        <v>0.12152777777777778</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="L291" s="13">
-        <v>0.23194444444444443</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="M291" s="7">
         <f t="shared" si="3"/>
-        <v>158.99999999999997</v>
+        <v>158.99999999999991</v>
       </c>
       <c r="S291" s="92"/>
     </row>
@@ -15945,14 +16180,14 @@
         <v>0.375</v>
       </c>
       <c r="K292" s="12">
-        <v>9.2361111111111116E-2</v>
+        <v>0.59236111111111112</v>
       </c>
       <c r="L292" s="12">
-        <v>0.20486111111111113</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="M292" s="1">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>162.00000000000006</v>
       </c>
       <c r="N292" s="1">
         <v>126</v>
@@ -15984,14 +16219,14 @@
         <v>0.375</v>
       </c>
       <c r="K293" s="12">
-        <v>9.4444444444444442E-2</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="L293" s="12">
-        <v>0.20694444444444446</v>
+        <v>0.70694444444444449</v>
       </c>
       <c r="M293" s="1">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>162.00000000000006</v>
       </c>
       <c r="R293" s="1" t="s">
         <v>50</v>
@@ -16023,14 +16258,14 @@
         <v>0.375</v>
       </c>
       <c r="K294" s="12">
-        <v>9.6527777777777768E-2</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="L294" s="12">
-        <v>0.20902777777777778</v>
+        <v>0.70902777777777781</v>
       </c>
       <c r="M294" s="1">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>162.00000000000006</v>
       </c>
       <c r="R294" s="1" t="s">
         <v>50</v>
@@ -16062,14 +16297,14 @@
         <v>0.375</v>
       </c>
       <c r="K295" s="12">
-        <v>9.930555555555555E-2</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="L295" s="12">
-        <v>0.21041666666666667</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="M295" s="1">
         <f t="shared" si="3"/>
-        <v>160.00000000000003</v>
+        <v>160.00000000000006</v>
       </c>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.2">
@@ -16098,14 +16333,14 @@
         <v>0.375</v>
       </c>
       <c r="K296" s="12">
-        <v>0.10069444444444443</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="L296" s="12">
-        <v>0.21180555555555555</v>
+        <v>0.71180555555555558</v>
       </c>
       <c r="M296" s="1">
         <f t="shared" si="3"/>
-        <v>160.00000000000003</v>
+        <v>160.00000000000006</v>
       </c>
       <c r="N296" s="1">
         <v>137</v>
@@ -16137,14 +16372,14 @@
         <v>0.375</v>
       </c>
       <c r="K297" s="13">
-        <v>0.10208333333333335</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="L297" s="13">
-        <v>0.21319444444444444</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="M297" s="7">
         <f t="shared" si="3"/>
-        <v>159.99999999999997</v>
+        <v>160.00000000000006</v>
       </c>
       <c r="S297" s="92"/>
     </row>
@@ -16174,10 +16409,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="K298" s="12">
-        <v>0.13194444444444445</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="L298" s="12">
-        <v>0.23263888888888887</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="M298" s="1">
         <f t="shared" si="3"/>
@@ -16210,14 +16445,14 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="K299" s="12">
-        <v>0.13472222222222222</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="L299" s="12">
-        <v>0.23402777777777781</v>
+        <v>0.73402777777777772</v>
       </c>
       <c r="M299" s="1">
         <f t="shared" si="3"/>
-        <v>143.00000000000006</v>
+        <v>142.99999999999997</v>
       </c>
       <c r="N299" s="1">
         <v>153</v>
@@ -16249,14 +16484,14 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="K300" s="12">
-        <v>0.1361111111111111</v>
+        <v>0.63611111111111107</v>
       </c>
       <c r="L300" s="12">
-        <v>0.23541666666666669</v>
+        <v>0.73541666666666672</v>
       </c>
       <c r="M300" s="1">
         <f t="shared" si="3"/>
-        <v>143.00000000000006</v>
+        <v>143.00000000000014</v>
       </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.2">
@@ -16285,14 +16520,14 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="K301" s="12">
-        <v>0.13819444444444443</v>
+        <v>0.6381944444444444</v>
       </c>
       <c r="L301" s="12">
-        <v>0.23680555555555557</v>
+        <v>0.7368055555555556</v>
       </c>
       <c r="M301" s="1">
         <f t="shared" si="3"/>
-        <v>142.00000000000006</v>
+        <v>142.00000000000014</v>
       </c>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.2">
@@ -16321,14 +16556,14 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="K302" s="12">
-        <v>0.13958333333333334</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="L302" s="12">
-        <v>0.23819444444444446</v>
+        <v>0.73819444444444449</v>
       </c>
       <c r="M302" s="1">
         <f t="shared" si="3"/>
-        <v>142.00000000000003</v>
+        <v>142.00000000000014</v>
       </c>
       <c r="N302" s="1">
         <v>160</v>
@@ -16360,10 +16595,10 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="K303" s="13">
-        <v>0.14583333333333334</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="L303" s="13">
-        <v>0.24027777777777778</v>
+        <v>0.74027777777777781</v>
       </c>
       <c r="M303" s="7">
         <f t="shared" si="3"/>
@@ -16397,14 +16632,14 @@
         <v>0.375</v>
       </c>
       <c r="K304" s="12">
-        <v>0.1277777777777778</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="L304" s="12">
-        <v>0.19166666666666665</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="M304" s="1">
         <f t="shared" si="3"/>
-        <v>91.999999999999957</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.2">
@@ -16433,14 +16668,14 @@
         <v>0.375</v>
       </c>
       <c r="K305" s="12">
-        <v>0.12847222222222224</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="L305" s="12">
-        <v>0.19305555555555554</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="M305" s="1">
         <f t="shared" si="3"/>
-        <v>92.999999999999943</v>
+        <v>92.999999999999986</v>
       </c>
       <c r="N305" s="1">
         <v>168</v>
@@ -16472,10 +16707,10 @@
         <v>0.375</v>
       </c>
       <c r="K306" s="12">
-        <v>0.12986111111111112</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="L306" s="12">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M306" s="1">
         <f t="shared" si="3"/>
@@ -16508,10 +16743,10 @@
         <v>0.375</v>
       </c>
       <c r="K307" s="12">
-        <v>0.13125000000000001</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="L307" s="12">
-        <v>0.19583333333333333</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="M307" s="1">
         <f t="shared" si="3"/>
@@ -16544,10 +16779,10 @@
         <v>0.375</v>
       </c>
       <c r="K308" s="12">
-        <v>0.13263888888888889</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="L308" s="12">
-        <v>0.19791666666666666</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M308" s="1">
         <f t="shared" si="3"/>
@@ -16583,10 +16818,10 @@
         <v>0.375</v>
       </c>
       <c r="K309" s="13">
-        <v>0.13472222222222222</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="L309" s="13">
-        <v>0.1986111111111111</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="M309" s="7">
         <f t="shared" si="3"/>
@@ -16620,10 +16855,10 @@
         <v>0.375</v>
       </c>
       <c r="K310" s="12">
-        <v>0.14861111111111111</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="L310" s="12">
-        <v>0.20972222222222223</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="M310" s="1">
         <f t="shared" si="3"/>
@@ -16656,10 +16891,10 @@
         <v>0.375</v>
       </c>
       <c r="K311" s="12">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="L311" s="12">
-        <v>0.21111111111111111</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="M311" s="1">
         <f t="shared" si="3"/>
@@ -16692,10 +16927,10 @@
         <v>0.375</v>
       </c>
       <c r="K312" s="12">
-        <v>0.15069444444444444</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="L312" s="12">
-        <v>0.21180555555555555</v>
+        <v>0.71180555555555558</v>
       </c>
       <c r="M312" s="1">
         <f t="shared" si="3"/>
@@ -16731,10 +16966,10 @@
         <v>0.375</v>
       </c>
       <c r="K313" s="12">
-        <v>0.15277777777777776</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="L313" s="12">
-        <v>0.21319444444444444</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="M313" s="1">
         <f t="shared" si="3"/>
@@ -16767,10 +17002,10 @@
         <v>0.375</v>
       </c>
       <c r="K314" s="12">
-        <v>0.15347222222222223</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="L314" s="12">
-        <v>0.21527777777777779</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="M314" s="1">
         <f t="shared" si="3"/>
@@ -16803,10 +17038,10 @@
         <v>0.375</v>
       </c>
       <c r="K315" s="13">
-        <v>0.15555555555555556</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="L315" s="13">
-        <v>0.21666666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="M315" s="7">
         <f t="shared" si="3"/>
@@ -16840,10 +17075,10 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="K316" s="12">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L316" s="12">
-        <v>0.18888888888888888</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="M316" s="1">
         <f t="shared" si="3"/>
@@ -16876,14 +17111,14 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="K317" s="12">
-        <v>0.1277777777777778</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="L317" s="12">
-        <v>0.19097222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="M317" s="1">
         <f t="shared" si="3"/>
-        <v>90.999999999999957</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.2">
@@ -16912,14 +17147,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K318" s="12">
-        <v>0.12916666666666668</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="L318" s="12">
-        <v>0.19166666666666665</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="M318" s="1">
         <f t="shared" si="3"/>
-        <v>89.999999999999957</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.2">
@@ -16948,14 +17183,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K319" s="12">
-        <v>0.13125000000000001</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="L319" s="12">
-        <v>0.19305555555555554</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="M319" s="1">
         <f t="shared" si="3"/>
-        <v>88.999999999999957</v>
+        <v>89</v>
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.2">
@@ -16984,10 +17219,10 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K320" s="12">
-        <v>0.13263888888888889</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="L320" s="12">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M320" s="1">
         <f t="shared" si="3"/>
@@ -17020,10 +17255,10 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K321" s="13">
-        <v>0.13472222222222222</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="L321" s="13">
-        <v>0.19583333333333333</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="M321" s="7">
         <f t="shared" si="3"/>
@@ -17057,10 +17292,10 @@
         <v>0.40625</v>
       </c>
       <c r="K322" s="12">
-        <v>0.14444444444444446</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="L322" s="12">
-        <v>0.21041666666666667</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="M322" s="1">
         <f t="shared" si="3"/>
@@ -17093,10 +17328,10 @@
         <v>0.40625</v>
       </c>
       <c r="K323" s="12">
-        <v>0.1451388888888889</v>
+        <v>0.64513888888888893</v>
       </c>
       <c r="L323" s="12">
-        <v>0.21180555555555555</v>
+        <v>0.71180555555555558</v>
       </c>
       <c r="M323" s="1">
         <f t="shared" si="3"/>
@@ -17129,10 +17364,10 @@
         <v>0.40625</v>
       </c>
       <c r="K324" s="12">
-        <v>0.14652777777777778</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="L324" s="12">
-        <v>0.21319444444444444</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="M324" s="1">
         <f t="shared" si="3"/>
@@ -17165,14 +17400,14 @@
         <v>0.40625</v>
       </c>
       <c r="K325" s="12">
-        <v>0.14861111111111111</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="L325" s="12">
-        <v>0.21458333333333335</v>
+        <v>0.71458333333333335</v>
       </c>
       <c r="M325" s="1">
         <f t="shared" si="3"/>
-        <v>95.000000000000028</v>
+        <v>94.999999999999986</v>
       </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.2">
@@ -17201,14 +17436,14 @@
         <v>0.40625</v>
       </c>
       <c r="K326" s="12">
-        <v>0.14930555555555555</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="L326" s="12">
-        <v>0.21597222222222223</v>
+        <v>0.71597222222222223</v>
       </c>
       <c r="M326" s="1">
         <f t="shared" si="3"/>
-        <v>96.000000000000014</v>
+        <v>95.999999999999972</v>
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.2">
@@ -17237,14 +17472,14 @@
         <v>0.40625</v>
       </c>
       <c r="K327" s="12">
-        <v>0.15069444444444444</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="L327" s="12">
-        <v>0.21805555555555556</v>
+        <v>0.71805555555555556</v>
       </c>
       <c r="M327" s="1">
         <f t="shared" si="3"/>
-        <v>97.000000000000014</v>
+        <v>96.999999999999972</v>
       </c>
     </row>
     <row r="328" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17273,14 +17508,14 @@
         <v>0.40625</v>
       </c>
       <c r="K328" s="13">
-        <v>0.15277777777777776</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="L328" s="13">
-        <v>0.21875</v>
+        <v>0.71875</v>
       </c>
       <c r="M328" s="7">
         <f t="shared" si="3"/>
-        <v>95.000000000000028</v>
+        <v>94.999999999999986</v>
       </c>
       <c r="S328" s="92"/>
     </row>
@@ -17310,14 +17545,14 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="K329" s="12">
-        <v>9.7222222222222224E-2</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="L329" s="12">
-        <v>0.22222222222222221</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="M329" s="1">
         <f t="shared" si="3"/>
-        <v>179.99999999999997</v>
+        <v>180</v>
       </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.2">
@@ -17346,14 +17581,14 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="K330" s="12">
-        <v>9.8611111111111108E-2</v>
+        <v>0.59861111111111109</v>
       </c>
       <c r="L330" s="12">
-        <v>0.22361111111111109</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="M330" s="1">
         <f t="shared" si="3"/>
-        <v>179.99999999999997</v>
+        <v>180</v>
       </c>
       <c r="N330" s="1">
         <v>167</v>
@@ -17388,10 +17623,10 @@
         <v>0.39930555555555602</v>
       </c>
       <c r="K331" s="12">
-        <v>9.9999999999999992E-2</v>
+        <v>0.6</v>
       </c>
       <c r="L331" s="12">
-        <v>0.22569444444444445</v>
+        <v>0.72569444444444442</v>
       </c>
       <c r="M331" s="1">
         <f t="shared" si="3"/>
@@ -17430,10 +17665,10 @@
         <v>0.39930555555555602</v>
       </c>
       <c r="K332" s="12">
-        <v>0.10069444444444443</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="L332" s="12">
-        <v>0.22708333333333333</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="M332" s="1">
         <f t="shared" si="3"/>
@@ -17472,10 +17707,10 @@
         <v>0.39930555555555602</v>
       </c>
       <c r="K333" s="12">
-        <v>0.10277777777777779</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="L333" s="12">
-        <v>0.2298611111111111</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="M333" s="1">
         <f t="shared" si="3"/>
@@ -17514,10 +17749,10 @@
         <v>0.39930555555555602</v>
       </c>
       <c r="K334" s="12">
-        <v>0.10486111111111111</v>
+        <v>0.60486111111111107</v>
       </c>
       <c r="L334" s="12">
-        <v>0.23124999999999998</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="M334" s="1">
         <f t="shared" si="3"/>
@@ -17550,10 +17785,10 @@
         <v>0.39930555555555602</v>
       </c>
       <c r="K335" s="13">
-        <v>0.10694444444444444</v>
+        <v>0.6069444444444444</v>
       </c>
       <c r="L335" s="13">
-        <v>0.23333333333333331</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="M335" s="7">
         <f t="shared" si="3"/>
@@ -17593,14 +17828,14 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="K336" s="12">
-        <v>0.12569444444444444</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="L336" s="12">
-        <v>0.20902777777777778</v>
+        <v>0.70902777777777781</v>
       </c>
       <c r="M336" s="1">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>120.00000000000006</v>
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.2">
@@ -17629,14 +17864,14 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="K337" s="12">
-        <v>0.1277777777777778</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="L337" s="12">
-        <v>0.21111111111111111</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="M337" s="1">
         <f t="shared" si="3"/>
-        <v>119.99999999999997</v>
+        <v>120.00000000000006</v>
       </c>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.2">
@@ -17665,14 +17900,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K338" s="12">
-        <v>0.12847222222222224</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="L338" s="12">
-        <v>0.21249999999999999</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="M338" s="1">
         <f t="shared" si="3"/>
-        <v>120.99999999999997</v>
+        <v>121.00000000000006</v>
       </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.2">
@@ -17701,14 +17936,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K339" s="12">
-        <v>0.12986111111111112</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="L339" s="12">
-        <v>0.21527777777777779</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="M339" s="1">
         <f t="shared" si="3"/>
-        <v>122.99999999999999</v>
+        <v>123.00000000000004</v>
       </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.2">
@@ -17737,14 +17972,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K340" s="12">
-        <v>0.13194444444444445</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="L340" s="12">
-        <v>0.21597222222222223</v>
+        <v>0.71597222222222223</v>
       </c>
       <c r="M340" s="1">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>121.00000000000006</v>
       </c>
     </row>
     <row r="341" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17773,14 +18008,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K341" s="13">
-        <v>0.13263888888888889</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="L341" s="13">
-        <v>0.21805555555555556</v>
+        <v>0.71805555555555556</v>
       </c>
       <c r="M341" s="7">
         <f t="shared" si="3"/>
-        <v>122.99999999999999</v>
+        <v>123.00000000000004</v>
       </c>
       <c r="S341" s="92"/>
     </row>
@@ -17810,14 +18045,14 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="K342" s="12">
-        <v>0.13194444444444445</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="L342" s="12">
-        <v>0.23680555555555557</v>
+        <v>0.7368055555555556</v>
       </c>
       <c r="M342" s="1">
         <f t="shared" si="3"/>
-        <v>151.00000000000003</v>
+        <v>151.00000000000011</v>
       </c>
       <c r="N342" s="1">
         <v>189</v>
@@ -17852,14 +18087,14 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="K343" s="12">
-        <v>0.13333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L343" s="12">
-        <v>0.23958333333333334</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="M343" s="1">
         <f t="shared" si="3"/>
-        <v>153.00000000000003</v>
+        <v>153.00000000000009</v>
       </c>
       <c r="N343" s="1">
         <v>140</v>
@@ -17891,14 +18126,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K344" s="12">
-        <v>0.13541666666666666</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="L344" s="12">
-        <v>0.24097222222222223</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="M344" s="1">
         <f t="shared" si="3"/>
-        <v>152.00000000000003</v>
+        <v>152.00000000000011</v>
       </c>
       <c r="N344" s="1">
         <v>183</v>
@@ -17930,14 +18165,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K345" s="12">
-        <v>0.13680555555555554</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="L345" s="12">
-        <v>0.24305555555555555</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="M345" s="1">
         <f t="shared" si="3"/>
-        <v>153.00000000000003</v>
+        <v>153.00000000000009</v>
       </c>
       <c r="N345" s="1">
         <v>153</v>
@@ -17969,14 +18204,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K346" s="12">
-        <v>0.13819444444444443</v>
+        <v>0.6381944444444444</v>
       </c>
       <c r="L346" s="12">
-        <v>0.24583333333333335</v>
+        <v>0.74583333333333335</v>
       </c>
       <c r="M346" s="1">
         <f t="shared" si="3"/>
-        <v>155.00000000000003</v>
+        <v>155.00000000000009</v>
       </c>
       <c r="N346" s="1">
         <v>160</v>
@@ -18008,14 +18243,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K347" s="12">
-        <v>0.1388888888888889</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="L347" s="12">
-        <v>0.24722222222222223</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="M347" s="1">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>156.00000000000009</v>
       </c>
       <c r="N347" s="1">
         <v>117</v>
@@ -18050,14 +18285,14 @@
         <v>0.38194444444444398</v>
       </c>
       <c r="K348" s="13">
-        <v>0.14166666666666666</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="L348" s="13">
-        <v>0.24930555555555556</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="M348" s="7">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>154.99999999999994</v>
       </c>
       <c r="N348" s="7">
         <v>157</v>
@@ -18090,14 +18325,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K349" s="12">
-        <v>0.16805555555555554</v>
+        <v>0.66805555555555551</v>
       </c>
       <c r="L349" s="12">
-        <v>0.23402777777777781</v>
+        <v>0.73402777777777772</v>
       </c>
       <c r="M349" s="1">
         <f t="shared" ref="M349:M358" si="4" xml:space="preserve"> (L349-K349)*24 * 60</f>
-        <v>95.000000000000057</v>
+        <v>94.999999999999986</v>
       </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.2">
@@ -18126,14 +18361,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K350" s="12">
-        <v>0.17152777777777775</v>
+        <v>0.67152777777777772</v>
       </c>
       <c r="L350" s="12">
-        <v>0.23680555555555557</v>
+        <v>0.7368055555555556</v>
       </c>
       <c r="M350" s="1">
         <f t="shared" si="4"/>
-        <v>94.000000000000071</v>
+        <v>94.000000000000142</v>
       </c>
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.2">
@@ -18162,10 +18397,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K351" s="12">
-        <v>0.17361111111111113</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="L351" s="12">
-        <v>0.2388888888888889</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="M351" s="1">
         <f t="shared" si="4"/>
@@ -18198,10 +18433,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K352" s="12">
-        <v>0.17430555555555557</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="L352" s="12">
-        <v>0.23958333333333334</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="M352" s="1">
         <f t="shared" si="4"/>
@@ -18234,10 +18469,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K353" s="13">
-        <v>0.1763888888888889</v>
+        <v>0.67638888888888893</v>
       </c>
       <c r="L353" s="13">
-        <v>0.23541666666666669</v>
+        <v>0.73541666666666672</v>
       </c>
       <c r="M353" s="7">
         <f t="shared" si="4"/>
@@ -18271,14 +18506,14 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="K354" s="13">
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L354" s="12">
-        <v>0.22222222222222221</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="M354" s="1">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>199.99999999999994</v>
       </c>
     </row>
     <row r="355" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -18307,10 +18542,10 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="K355" s="13">
-        <v>8.7500000000000008E-2</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="L355" s="12">
-        <v>0.22361111111111109</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="M355" s="1">
         <f t="shared" si="4"/>
@@ -18343,14 +18578,14 @@
         <v>0.36111111111111099</v>
       </c>
       <c r="K356" s="13">
-        <v>9.5138888888888884E-2</v>
+        <v>0.59513888888888888</v>
       </c>
       <c r="L356" s="12">
-        <v>0.22569444444444445</v>
+        <v>0.72569444444444442</v>
       </c>
       <c r="M356" s="1">
         <f t="shared" si="4"/>
-        <v>188.00000000000003</v>
+        <v>187.99999999999997</v>
       </c>
     </row>
     <row r="357" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -18379,10 +18614,10 @@
         <v>0.36111111111111099</v>
       </c>
       <c r="K357" s="13">
-        <v>9.7222222222222224E-2</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="L357" s="13">
-        <v>0.22569444444444445</v>
+        <v>0.72569444444444442</v>
       </c>
       <c r="M357" s="7">
         <f t="shared" si="4"/>
@@ -18416,14 +18651,14 @@
         <v>0.375</v>
       </c>
       <c r="K358" s="12">
-        <v>9.375E-2</v>
+        <v>0.59375</v>
       </c>
       <c r="L358" s="12">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M358" s="1">
         <f t="shared" si="4"/>
-        <v>145.00000000000003</v>
+        <v>144.99999999999997</v>
       </c>
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.2">
@@ -18452,14 +18687,14 @@
         <v>0.375</v>
       </c>
       <c r="K359" s="12">
-        <v>9.4444444444444442E-2</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="L359" s="12">
-        <v>0.19722222222222222</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="M359" s="1">
         <f t="shared" ref="M359:M386" si="5" xml:space="preserve"> (L359-K359)*24 * 60</f>
-        <v>148</v>
+        <v>147.99999999999994</v>
       </c>
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.2">
@@ -18488,14 +18723,14 @@
         <v>0.375</v>
       </c>
       <c r="K360" s="12">
-        <v>9.6527777777777768E-2</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="L360" s="12">
-        <v>0.19791666666666666</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M360" s="1">
         <f t="shared" si="5"/>
-        <v>146</v>
+        <v>145.99999999999997</v>
       </c>
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.2">
@@ -18524,14 +18759,14 @@
         <v>0.375</v>
       </c>
       <c r="K361" s="12">
-        <v>9.7916666666666666E-2</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="L361" s="12">
-        <v>0.1986111111111111</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="M361" s="1">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>144.99999999999997</v>
       </c>
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.2">
@@ -18560,14 +18795,14 @@
         <v>0.375</v>
       </c>
       <c r="K362" s="12">
-        <v>9.930555555555555E-2</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="L362" s="12">
-        <v>0.20069444444444443</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="M362" s="1">
         <f t="shared" si="5"/>
-        <v>146</v>
+        <v>145.99999999999997</v>
       </c>
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.2">
@@ -18596,14 +18831,14 @@
         <v>0.375</v>
       </c>
       <c r="K363" s="12">
-        <v>0.10069444444444443</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="L363" s="12">
-        <v>0.20138888888888887</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="M363" s="1">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>144.99999999999997</v>
       </c>
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.2">
@@ -18632,14 +18867,14 @@
         <v>0.375</v>
       </c>
       <c r="K364" s="12">
-        <v>0.10208333333333335</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="L364" s="12">
-        <v>0.20277777777777781</v>
+        <v>0.70277777777777772</v>
       </c>
       <c r="M364" s="1">
         <f t="shared" si="5"/>
-        <v>145.00000000000003</v>
+        <v>144.99999999999997</v>
       </c>
     </row>
     <row r="365" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -18668,14 +18903,14 @@
         <v>0.375</v>
       </c>
       <c r="K365" s="13">
-        <v>0.10416666666666667</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="L365" s="13">
-        <v>0.20486111111111113</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="M365" s="7">
         <f t="shared" si="5"/>
-        <v>145.00000000000003</v>
+        <v>145.00000000000011</v>
       </c>
       <c r="S365" s="92"/>
     </row>
@@ -18705,14 +18940,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K366" s="12">
-        <v>0.12152777777777778</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="L366" s="12">
-        <v>0.22708333333333333</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="M366" s="1">
         <f t="shared" si="5"/>
-        <v>152</v>
+        <v>151.99999999999994</v>
       </c>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.2">
@@ -18741,14 +18976,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K367" s="12">
-        <v>0.12291666666666667</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="L367" s="12">
-        <v>0.22916666666666666</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="M367" s="1">
         <f t="shared" si="5"/>
-        <v>153</v>
+        <v>152.99999999999994</v>
       </c>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.2">
@@ -18777,14 +19012,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K368" s="12">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="L368" s="12">
-        <v>0.2298611111111111</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="M368" s="1">
         <f t="shared" si="5"/>
-        <v>151</v>
+        <v>150.99999999999994</v>
       </c>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
@@ -18813,14 +19048,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K369" s="12">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L369" s="12">
-        <v>0.23194444444444443</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="M369" s="1">
         <f t="shared" si="5"/>
-        <v>152</v>
+        <v>151.99999999999994</v>
       </c>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
@@ -18849,10 +19084,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K370" s="12">
-        <v>0.12847222222222224</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="L370" s="12">
-        <v>0.19236111111111112</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="M370" s="1">
         <f t="shared" si="5"/>
@@ -18885,10 +19120,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K371" s="12">
-        <v>0.12986111111111112</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="L371" s="12">
-        <v>0.19375000000000001</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="M371" s="1">
         <f t="shared" si="5"/>
@@ -18921,10 +19156,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K372" s="13">
-        <v>0.13194444444444445</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="L372" s="13">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M372" s="7">
         <f t="shared" si="5"/>
@@ -18958,14 +19193,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K373" s="12">
-        <v>0.13541666666666666</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="L373" s="12">
-        <v>0.24305555555555555</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="M373" s="1">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>155.00000000000009</v>
       </c>
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.2">
@@ -18994,14 +19229,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K374" s="12">
-        <v>0.13958333333333334</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="L374" s="12">
-        <v>0.24652777777777779</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="M374" s="1">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>154.00000000000009</v>
       </c>
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
@@ -19030,14 +19265,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K375" s="12">
-        <v>0.14305555555555557</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="L375" s="12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="M375" s="1">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>153.99999999999994</v>
       </c>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
@@ -19066,14 +19301,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K376" s="12">
-        <v>0.1451388888888889</v>
+        <v>0.64513888888888893</v>
       </c>
       <c r="L376" s="12">
-        <v>0.25277777777777777</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="M376" s="1">
         <f t="shared" si="5"/>
-        <v>154.99999999999997</v>
+        <v>154.99999999999994</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -19108,14 +19343,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K377" s="12">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="L377" s="12">
-        <v>0.25694444444444448</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="M377" s="1">
         <f t="shared" si="5"/>
-        <v>154.00000000000003</v>
+        <v>153.99999999999994</v>
       </c>
       <c r="S377" s="90" t="s">
         <v>279</v>
@@ -19153,14 +19388,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K378" s="12">
-        <v>0.15277777777777776</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="L378" s="12">
-        <v>0.26041666666666669</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="M378" s="1">
         <f t="shared" si="5"/>
-        <v>155.00000000000003</v>
+        <v>154.99999999999994</v>
       </c>
       <c r="S378" s="90" t="s">
         <v>279</v>
@@ -19198,14 +19433,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K379" s="13">
-        <v>0.15625</v>
+        <v>0.65625</v>
       </c>
       <c r="L379" s="13">
-        <v>0.26250000000000001</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="M379" s="7">
         <f t="shared" si="5"/>
-        <v>153.00000000000003</v>
+        <v>152.99999999999994</v>
       </c>
       <c r="S379" s="92" t="s">
         <v>279</v>
@@ -19237,14 +19472,14 @@
         <v>281</v>
       </c>
       <c r="K380" s="12">
-        <v>0.12152777777777778</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="L380" s="12">
-        <v>0.23055555555555554</v>
+        <v>0.73055555555555551</v>
       </c>
       <c r="M380" s="1">
         <f t="shared" si="5"/>
-        <v>156.99999999999997</v>
+        <v>156.99999999999991</v>
       </c>
       <c r="R380" s="1" t="s">
         <v>50</v>
@@ -19276,14 +19511,14 @@
         <v>281</v>
       </c>
       <c r="K381" s="12">
-        <v>0.12361111111111112</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="L381" s="12">
-        <v>0.23263888888888887</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="M381" s="1">
         <f t="shared" si="5"/>
-        <v>156.99999999999997</v>
+        <v>156.99999999999991</v>
       </c>
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.2">
@@ -19312,14 +19547,14 @@
         <v>281</v>
       </c>
       <c r="K382" s="12">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="L382" s="12">
-        <v>0.23402777777777781</v>
+        <v>0.73402777777777772</v>
       </c>
       <c r="M382" s="1">
         <f t="shared" si="5"/>
-        <v>157.00000000000003</v>
+        <v>156.99999999999991</v>
       </c>
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.2">
@@ -19348,14 +19583,14 @@
         <v>281</v>
       </c>
       <c r="K383" s="12">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L383" s="12">
-        <v>0.23611111111111113</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="M383" s="1">
         <f t="shared" si="5"/>
-        <v>158.00000000000003</v>
+        <v>158.00000000000009</v>
       </c>
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.2">
@@ -19390,14 +19625,14 @@
         <v>281</v>
       </c>
       <c r="K384" s="12">
-        <v>0.12916666666666668</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="L384" s="12">
-        <v>0.23750000000000002</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="M384" s="1">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>156.00000000000009</v>
       </c>
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.2">
@@ -19432,14 +19667,14 @@
         <v>281</v>
       </c>
       <c r="K385" s="12">
-        <v>0.13194444444444445</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="L385" s="12">
-        <v>0.23958333333333334</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="M385" s="1">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>155.00000000000009</v>
       </c>
       <c r="S385" s="90" t="s">
         <v>285</v>
@@ -19477,14 +19712,14 @@
         <v>281</v>
       </c>
       <c r="K386" s="13">
-        <v>0.13541666666666666</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="L386" s="13">
-        <v>0.24305555555555555</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="M386" s="7">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>155.00000000000009</v>
       </c>
       <c r="S386" s="92"/>
     </row>
@@ -19514,7 +19749,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K387" s="12">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.2">
@@ -19543,7 +19778,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K388" s="12">
-        <v>0.1277777777777778</v>
+        <v>0.62777777777777777</v>
       </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.2">
@@ -19572,7 +19807,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K389" s="12">
-        <v>0.13055555555555556</v>
+        <v>0.63055555555555554</v>
       </c>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.2">
@@ -19601,7 +19836,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K390" s="12">
-        <v>0.13263888888888889</v>
+        <v>0.63263888888888886</v>
       </c>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.2">
@@ -19630,7 +19865,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K391" s="12">
-        <v>0.13472222222222222</v>
+        <v>0.63472222222222219</v>
       </c>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.2">
@@ -19659,7 +19894,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K392" s="12">
-        <v>0.13680555555555554</v>
+        <v>0.63680555555555551</v>
       </c>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.2">
@@ -19688,7 +19923,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K393" s="12">
-        <v>0.1388888888888889</v>
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.2">
@@ -19717,7 +19952,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K394" s="12">
-        <v>0.14027777777777778</v>
+        <v>0.64027777777777772</v>
       </c>
     </row>
     <row r="395" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -19747,7 +19982,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K395" s="13">
-        <v>0.1423611111111111</v>
+        <v>0.64236111111111116</v>
       </c>
       <c r="L395" s="13"/>
       <c r="S395" s="92"/>
@@ -19778,14 +20013,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K396" s="12">
-        <v>0.11666666666666665</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L396" s="12">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="M396" s="1">
         <f t="shared" ref="M396:M494" si="6" xml:space="preserve"> (L396-K396)*24 * 60</f>
-        <v>102.00000000000001</v>
+        <v>101.99999999999996</v>
       </c>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.2">
@@ -19814,14 +20049,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K397" s="12">
-        <v>0.11805555555555557</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="L397" s="12">
-        <v>0.18888888888888888</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="M397" s="1">
         <f t="shared" si="6"/>
-        <v>101.99999999999999</v>
+        <v>101.99999999999996</v>
       </c>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
@@ -19850,14 +20085,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K398" s="12">
-        <v>0.12083333333333333</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="L398" s="12">
-        <v>0.19097222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="M398" s="1">
         <f t="shared" si="6"/>
-        <v>100.99999999999999</v>
+        <v>100.99999999999996</v>
       </c>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
@@ -19886,14 +20121,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K399" s="12">
-        <v>0.12291666666666667</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="L399" s="12">
-        <v>0.19375000000000001</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="M399" s="1">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>101.99999999999996</v>
       </c>
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.2">
@@ -19922,14 +20157,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K400" s="12">
-        <v>0.12430555555555556</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="L400" s="12">
-        <v>0.19513888888888889</v>
+        <v>0.69513888888888886</v>
       </c>
       <c r="M400" s="1">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>101.99999999999996</v>
       </c>
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.2">
@@ -19958,14 +20193,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K401" s="12">
-        <v>0.12569444444444444</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="L401" s="12">
-        <v>0.19722222222222222</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="M401" s="1">
         <f t="shared" si="6"/>
-        <v>103</v>
+        <v>102.99999999999996</v>
       </c>
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.2">
@@ -19994,10 +20229,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K402" s="12">
-        <v>0.1277777777777778</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="L402" s="12">
-        <v>0.19791666666666666</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M402" s="1">
         <f t="shared" si="6"/>
@@ -20030,14 +20265,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K403" s="12">
-        <v>0.13055555555555556</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="L403" s="12">
-        <v>0.23402777777777781</v>
+        <v>0.73402777777777772</v>
       </c>
       <c r="M403" s="1">
         <f t="shared" si="6"/>
-        <v>149.00000000000003</v>
+        <v>148.99999999999994</v>
       </c>
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.2">
@@ -20066,14 +20301,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K404" s="12">
-        <v>0.13263888888888889</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="L404" s="12">
-        <v>0.23611111111111113</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="M404" s="1">
         <f t="shared" si="6"/>
-        <v>149.00000000000003</v>
+        <v>149.00000000000011</v>
       </c>
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.2">
@@ -20102,14 +20337,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K405" s="12">
-        <v>0.13472222222222222</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="L405" s="12">
-        <v>0.23750000000000002</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="M405" s="1">
         <f t="shared" si="6"/>
-        <v>148.00000000000003</v>
+        <v>148.00000000000011</v>
       </c>
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.2">
@@ -20138,14 +20373,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K406" s="12">
-        <v>0.1361111111111111</v>
+        <v>0.63611111111111107</v>
       </c>
       <c r="L406" s="12">
-        <v>0.23958333333333334</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="M406" s="1">
         <f t="shared" si="6"/>
-        <v>149.00000000000003</v>
+        <v>149.00000000000011</v>
       </c>
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.2">
@@ -20174,14 +20409,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K407" s="12">
-        <v>0.13958333333333334</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="L407" s="12">
-        <v>0.24236111111111111</v>
+        <v>0.74236111111111114</v>
       </c>
       <c r="M407" s="1">
         <f t="shared" si="6"/>
-        <v>148</v>
+        <v>148.00000000000011</v>
       </c>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.2">
@@ -20210,14 +20445,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K408" s="12">
-        <v>0.14166666666666666</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="L408" s="12">
-        <v>0.24374999999999999</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="M408" s="1">
         <f t="shared" si="6"/>
-        <v>147</v>
+        <v>146.99999999999994</v>
       </c>
     </row>
     <row r="409" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -20246,10 +20481,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K409" s="13">
-        <v>0.14375000000000002</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="L409" s="13">
-        <v>0.24513888888888888</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="M409" s="7">
         <f t="shared" si="6"/>
@@ -20283,14 +20518,14 @@
         <v>0.375</v>
       </c>
       <c r="K410" s="12">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L410" s="12">
-        <v>0.14652777777777778</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="M410" s="1">
         <f t="shared" si="6"/>
-        <v>29.000000000000018</v>
+        <v>29.000000000000057</v>
       </c>
       <c r="S410" s="90" t="s">
         <v>303</v>
@@ -20322,14 +20557,14 @@
         <v>0.375</v>
       </c>
       <c r="K411" s="12">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L411" s="12">
-        <v>0.14652777777777778</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="M411" s="1">
         <f t="shared" si="6"/>
-        <v>29.000000000000018</v>
+        <v>29.000000000000057</v>
       </c>
       <c r="S411" s="90" t="s">
         <v>303</v>
@@ -20361,14 +20596,14 @@
         <v>0.375</v>
       </c>
       <c r="K412" s="13">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L412" s="13">
-        <v>0.14652777777777778</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="M412" s="7">
         <f t="shared" si="6"/>
-        <v>29.000000000000018</v>
+        <v>29.000000000000057</v>
       </c>
       <c r="S412" s="90" t="s">
         <v>303</v>
@@ -20400,14 +20635,14 @@
         <v>0.375</v>
       </c>
       <c r="K413" s="12">
-        <v>0.18263888888888891</v>
+        <v>0.68263888888888891</v>
       </c>
       <c r="L413" s="12">
-        <v>0.20277777777777781</v>
+        <v>0.70277777777777772</v>
       </c>
       <c r="M413" s="1">
         <f t="shared" si="6"/>
-        <v>29.000000000000018</v>
+        <v>28.999999999999897</v>
       </c>
       <c r="S413" s="90" t="s">
         <v>299</v>
@@ -20439,14 +20674,14 @@
         <v>0.375</v>
       </c>
       <c r="K414" s="12">
-        <v>0.18263888888888891</v>
+        <v>0.68263888888888891</v>
       </c>
       <c r="L414" s="12">
-        <v>0.20416666666666669</v>
+        <v>0.70416666666666672</v>
       </c>
       <c r="M414" s="1">
         <f t="shared" si="6"/>
-        <v>31.000000000000011</v>
+        <v>31.00000000000005</v>
       </c>
       <c r="S414" s="90" t="s">
         <v>300</v>
@@ -20478,14 +20713,14 @@
         <v>0.375</v>
       </c>
       <c r="K415" s="12">
-        <v>0.18541666666666667</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="L415" s="12">
-        <v>0.20486111111111113</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="M415" s="1">
         <f t="shared" si="6"/>
-        <v>28.000000000000021</v>
+        <v>28.00000000000006</v>
       </c>
       <c r="S415" s="90" t="s">
         <v>301</v>
@@ -20517,14 +20752,14 @@
         <v>0.375</v>
       </c>
       <c r="K416" s="13">
-        <v>0.18541666666666667</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="L416" s="13">
-        <v>0.20555555555555557</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="M416" s="7">
         <f t="shared" si="6"/>
-        <v>29.000000000000018</v>
+        <v>29.000000000000057</v>
       </c>
       <c r="S416" s="92" t="s">
         <v>302</v>
@@ -20556,14 +20791,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K417" s="12">
-        <v>0.16805555555555554</v>
+        <v>0.66805555555555551</v>
       </c>
       <c r="L417" s="12">
-        <v>0.19097222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="M417" s="1">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>33.000000000000043</v>
       </c>
       <c r="S417" s="12" t="s">
         <v>307</v>
@@ -20595,14 +20830,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K418" s="12">
-        <v>0.16805555555555554</v>
+        <v>0.66805555555555551</v>
       </c>
       <c r="L418" s="12">
-        <v>0.19166666666666665</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="M418" s="1">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>34.000000000000043</v>
       </c>
       <c r="S418" s="12" t="s">
         <v>308</v>
@@ -20634,10 +20869,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K419" s="12">
-        <v>0.16944444444444443</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="L419" s="12">
-        <v>0.19236111111111112</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="M419" s="1">
         <f t="shared" si="6"/>
@@ -20673,10 +20908,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K420" s="12">
-        <v>0.17013888888888887</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="L420" s="12">
-        <v>0.19375000000000001</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="M420" s="1">
         <f t="shared" si="6"/>
@@ -20712,10 +20947,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K421" s="12">
-        <v>0.17083333333333331</v>
+        <v>0.67083333333333328</v>
       </c>
       <c r="L421" s="12">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M421" s="1">
         <f t="shared" si="6"/>
@@ -20751,14 +20986,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K422" s="13">
-        <v>0.17222222222222225</v>
+        <v>0.67222222222222228</v>
       </c>
       <c r="L422" s="13">
-        <v>0.19583333333333333</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="M422" s="7">
         <f t="shared" si="6"/>
-        <v>33.999999999999957</v>
+        <v>33.999999999999879</v>
       </c>
       <c r="S422" s="13" t="s">
         <v>312</v>
@@ -20790,14 +21025,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K423" s="12">
-        <v>0.16319444444444445</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="L423" s="12">
-        <v>0.18819444444444444</v>
+        <v>0.68819444444444444</v>
       </c>
       <c r="M423" s="1">
         <f t="shared" si="6"/>
-        <v>35.999999999999993</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N423" s="5"/>
       <c r="S423" s="90" t="s">
@@ -20830,14 +21065,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K424" s="12">
-        <v>0.16458333333333333</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="L424" s="12">
-        <v>0.19027777777777777</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="M424" s="1">
         <f t="shared" si="6"/>
-        <v>36.999999999999986</v>
+        <v>37.000000000000028</v>
       </c>
       <c r="N424" s="5"/>
       <c r="S424" s="90" t="s">
@@ -20870,14 +21105,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K425" s="12">
-        <v>0.16597222222222222</v>
+        <v>0.66597222222222219</v>
       </c>
       <c r="L425" s="12">
-        <v>0.19097222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="M425" s="1">
         <f t="shared" si="6"/>
-        <v>35.999999999999993</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N425" s="5"/>
       <c r="S425" s="90" t="s">
@@ -20910,14 +21145,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K426" s="12">
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L426" s="12">
-        <v>0.19166666666666665</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="M426" s="1">
         <f t="shared" si="6"/>
-        <v>35.999999999999993</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N426" s="5"/>
       <c r="S426" s="90" t="s">
@@ -20950,14 +21185,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K427" s="12">
-        <v>0.1673611111111111</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="L427" s="12">
-        <v>0.19305555555555554</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="M427" s="1">
         <f t="shared" si="6"/>
-        <v>36.999999999999986</v>
+        <v>37.000000000000028</v>
       </c>
       <c r="N427" s="5"/>
       <c r="S427" s="90" t="s">
@@ -20990,10 +21225,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K428" s="12">
-        <v>0.16874999999999998</v>
+        <v>0.66874999999999996</v>
       </c>
       <c r="L428" s="12">
-        <v>0.19375000000000001</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="M428" s="1">
         <f t="shared" si="6"/>
@@ -21030,10 +21265,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K429" s="13">
-        <v>0.16944444444444443</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="L429" s="13">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M429" s="7">
         <f t="shared" si="6"/>
@@ -21070,14 +21305,14 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="K430" s="12">
-        <v>0.1451388888888889</v>
+        <v>0.64513888888888893</v>
       </c>
       <c r="L430" s="12">
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M430" s="1">
         <f t="shared" si="6"/>
-        <v>30.999999999999972</v>
+        <v>30.99999999999989</v>
       </c>
       <c r="N430" s="5"/>
       <c r="S430" s="90" t="s">
@@ -21110,14 +21345,14 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="K431" s="12">
-        <v>0.14583333333333334</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="L431" s="12">
-        <v>0.1673611111111111</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="M431" s="1">
         <f t="shared" si="6"/>
-        <v>30.999999999999972</v>
+        <v>30.99999999999989</v>
       </c>
       <c r="N431" s="5"/>
       <c r="S431" s="90" t="s">
@@ -21150,14 +21385,14 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="K432" s="12">
-        <v>0.14722222222222223</v>
+        <v>0.64722222222222225</v>
       </c>
       <c r="L432" s="12">
-        <v>0.16944444444444443</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="M432" s="1">
         <f t="shared" si="6"/>
-        <v>31.999999999999964</v>
+        <v>31.999999999999886</v>
       </c>
       <c r="N432" s="5"/>
       <c r="S432" s="90" t="s">
@@ -21190,14 +21425,14 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="K433" s="13">
-        <v>0.14791666666666667</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="L433" s="13">
-        <v>0.17013888888888887</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="M433" s="7">
         <f t="shared" si="6"/>
-        <v>31.999999999999964</v>
+        <v>31.999999999999886</v>
       </c>
       <c r="N433" s="5"/>
       <c r="S433" s="92" t="s">
@@ -21230,14 +21465,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K434" s="12">
-        <v>0.17361111111111113</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="L434" s="12">
-        <v>0.19236111111111112</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="M434" s="1">
         <f t="shared" si="6"/>
-        <v>26.999999999999986</v>
+        <v>26.999999999999904</v>
       </c>
       <c r="N434" s="5"/>
       <c r="S434" s="90" t="s">
@@ -21270,14 +21505,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K435" s="12">
-        <v>0.17430555555555557</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="L435" s="12">
-        <v>0.19375000000000001</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="M435" s="1">
         <f t="shared" si="6"/>
-        <v>27.999999999999979</v>
+        <v>27.999999999999901</v>
       </c>
       <c r="N435" s="5"/>
       <c r="S435" s="90" t="s">
@@ -21310,14 +21545,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K436" s="12">
-        <v>0.17569444444444446</v>
+        <v>0.67569444444444449</v>
       </c>
       <c r="L436" s="12">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M436" s="1">
         <f t="shared" si="6"/>
-        <v>26.999999999999986</v>
+        <v>26.999999999999904</v>
       </c>
       <c r="N436" s="5"/>
       <c r="S436" s="90" t="s">
@@ -21350,14 +21585,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K437" s="12">
-        <v>0.1763888888888889</v>
+        <v>0.67638888888888893</v>
       </c>
       <c r="L437" s="12">
-        <v>0.19583333333333333</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="M437" s="1">
         <f t="shared" si="6"/>
-        <v>27.999999999999979</v>
+        <v>27.999999999999901</v>
       </c>
       <c r="N437" s="5"/>
       <c r="S437" s="90" t="s">
@@ -21390,14 +21625,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K438" s="12">
-        <v>0.17708333333333334</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="L438" s="12">
-        <v>0.19722222222222222</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="M438" s="1">
         <f t="shared" si="6"/>
-        <v>28.999999999999979</v>
+        <v>28.999999999999897</v>
       </c>
       <c r="N438" s="5"/>
       <c r="S438" s="90" t="s">
@@ -21430,14 +21665,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K439" s="12">
-        <v>0.17777777777777778</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="L439" s="12">
-        <v>0.19791666666666666</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M439" s="1">
         <f t="shared" si="6"/>
-        <v>28.999999999999979</v>
+        <v>28.999999999999897</v>
       </c>
       <c r="N439" s="5"/>
       <c r="S439" s="90" t="s">
@@ -21470,14 +21705,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K440" s="13">
-        <v>0.17916666666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="L440" s="13">
-        <v>0.1986111111111111</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="M440" s="7">
         <f t="shared" si="6"/>
-        <v>27.999999999999979</v>
+        <v>27.999999999999901</v>
       </c>
       <c r="N440" s="5"/>
       <c r="S440" s="92" t="s">
@@ -21510,14 +21745,14 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="K441" s="12">
-        <v>0.19375000000000001</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="L441" s="12">
-        <v>0.20486111111111113</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="M441" s="1">
         <f t="shared" si="6"/>
-        <v>16.000000000000021</v>
+        <v>16.000000000000103</v>
       </c>
       <c r="N441" s="5"/>
     </row>
@@ -21547,14 +21782,14 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="K442" s="12">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="L442" s="12">
-        <v>0.20555555555555557</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="M442" s="1">
         <f t="shared" si="6"/>
-        <v>16.000000000000021</v>
+        <v>16.000000000000103</v>
       </c>
       <c r="N442" s="5"/>
     </row>
@@ -21584,14 +21819,14 @@
         <v>0.43055555555555602</v>
       </c>
       <c r="K443" s="12">
-        <v>0.19583333333333333</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="L443" s="12">
-        <v>0.20694444444444446</v>
+        <v>0.70694444444444449</v>
       </c>
       <c r="M443" s="1">
         <f t="shared" si="6"/>
-        <v>16.000000000000021</v>
+        <v>16.000000000000103</v>
       </c>
       <c r="N443" s="5"/>
     </row>
@@ -21621,14 +21856,14 @@
         <v>0.43055555555555602</v>
       </c>
       <c r="K444" s="12">
-        <v>0.19722222222222222</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="L444" s="12">
-        <v>0.2076388888888889</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="M444" s="1">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
+        <v>15.000000000000107</v>
       </c>
       <c r="N444" s="5"/>
     </row>
@@ -21658,14 +21893,14 @@
         <v>0.43055555555555602</v>
       </c>
       <c r="K445" s="12">
-        <v>0.19791666666666666</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="L445" s="12">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="M445" s="1">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
+        <v>15.000000000000107</v>
       </c>
       <c r="N445" s="5"/>
     </row>
@@ -21695,14 +21930,14 @@
         <v>0.43055555555555602</v>
       </c>
       <c r="K446" s="12">
-        <v>0.1986111111111111</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="L446" s="12">
-        <v>0.20972222222222223</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="M446" s="1">
         <f t="shared" si="6"/>
-        <v>16.000000000000021</v>
+        <v>16.000000000000103</v>
       </c>
       <c r="N446" s="5"/>
     </row>
@@ -21732,14 +21967,14 @@
         <v>0.43055555555555602</v>
       </c>
       <c r="K447" s="13">
-        <v>0.19999999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="L447" s="13">
-        <v>0.21111111111111111</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="M447" s="7">
         <f t="shared" si="6"/>
-        <v>16.000000000000021</v>
+        <v>16.000000000000103</v>
       </c>
       <c r="N447" s="5"/>
       <c r="S447" s="92"/>
@@ -21767,14 +22002,14 @@
         <v>44969</v>
       </c>
       <c r="K448" s="12">
-        <v>0.20069444444444443</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="L448" s="12">
-        <v>0.21111111111111111</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="M448" s="1">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
+        <v>15.000000000000107</v>
       </c>
       <c r="N448" s="5"/>
     </row>
@@ -21801,14 +22036,14 @@
         <v>44969</v>
       </c>
       <c r="K449" s="12">
-        <v>0.20138888888888887</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="L449" s="12">
-        <v>0.21180555555555555</v>
+        <v>0.71180555555555558</v>
       </c>
       <c r="M449" s="1">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
+        <v>15.000000000000107</v>
       </c>
       <c r="N449" s="5"/>
     </row>
@@ -21835,14 +22070,14 @@
         <v>44969</v>
       </c>
       <c r="K450" s="12">
-        <v>0.20277777777777781</v>
+        <v>0.70277777777777772</v>
       </c>
       <c r="L450" s="12">
-        <v>0.21388888888888891</v>
+        <v>0.71388888888888891</v>
       </c>
       <c r="M450" s="1">
         <f t="shared" si="6"/>
-        <v>15.999999999999982</v>
+        <v>16.000000000000103</v>
       </c>
       <c r="N450" s="5"/>
     </row>
@@ -21869,14 +22104,14 @@
         <v>44969</v>
       </c>
       <c r="K451" s="12">
-        <v>0.20347222222222219</v>
+        <v>0.70347222222222228</v>
       </c>
       <c r="L451" s="12">
-        <v>0.21388888888888891</v>
+        <v>0.71388888888888891</v>
       </c>
       <c r="M451" s="1">
         <f t="shared" si="6"/>
-        <v>15.000000000000068</v>
+        <v>14.999999999999947</v>
       </c>
       <c r="N451" s="5"/>
     </row>
@@ -21903,14 +22138,14 @@
         <v>44969</v>
       </c>
       <c r="K452" s="12">
-        <v>0.20486111111111113</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="L452" s="12">
-        <v>0.21527777777777779</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="M452" s="1">
         <f t="shared" si="6"/>
-        <v>14.999999999999986</v>
+        <v>14.999999999999947</v>
       </c>
       <c r="N452" s="5"/>
     </row>
@@ -21940,14 +22175,14 @@
       </c>
       <c r="J453" s="22"/>
       <c r="K453" s="22">
-        <v>0.20625000000000002</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="L453" s="22">
-        <v>0.21666666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="M453" s="20">
         <f t="shared" si="6"/>
-        <v>14.999999999999986</v>
+        <v>14.999999999999947</v>
       </c>
       <c r="N453" s="5"/>
     </row>
@@ -21974,14 +22209,14 @@
         <v>44969</v>
       </c>
       <c r="K454" s="12">
-        <v>0.17708333333333334</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="L454" s="12">
-        <v>0.18541666666666667</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="M454" s="1">
         <f t="shared" si="6"/>
-        <v>11.999999999999996</v>
+        <v>11.999999999999957</v>
       </c>
       <c r="N454" s="5"/>
       <c r="S454" s="90" t="s">
@@ -22011,14 +22246,14 @@
         <v>44969</v>
       </c>
       <c r="K455" s="12">
-        <v>0.17847222222222223</v>
+        <v>0.67847222222222225</v>
       </c>
       <c r="L455" s="12">
-        <v>0.18680555555555556</v>
+        <v>0.68680555555555556</v>
       </c>
       <c r="M455" s="1">
         <f t="shared" si="6"/>
-        <v>11.999999999999996</v>
+        <v>11.999999999999957</v>
       </c>
       <c r="N455" s="5"/>
       <c r="S455" s="90" t="s">
@@ -22048,14 +22283,14 @@
         <v>44969</v>
       </c>
       <c r="K456" s="12">
-        <v>0.17986111111111111</v>
+        <v>0.67986111111111114</v>
       </c>
       <c r="L456" s="12">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="M456" s="1">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10.999999999999961</v>
       </c>
       <c r="N456" s="5"/>
       <c r="S456" s="90" t="s">
@@ -22085,14 +22320,14 @@
         <v>44969</v>
       </c>
       <c r="K457" s="12">
-        <v>0.18055555555555555</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="L457" s="12">
-        <v>0.18888888888888888</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="M457" s="1">
         <f t="shared" si="6"/>
-        <v>11.999999999999996</v>
+        <v>11.999999999999957</v>
       </c>
       <c r="N457" s="5"/>
       <c r="S457" s="90" t="s">
@@ -22122,14 +22357,14 @@
         <v>44969</v>
       </c>
       <c r="K458" s="12">
-        <v>0.18124999999999999</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="L458" s="12">
-        <v>0.19097222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="M458" s="1">
         <f t="shared" si="6"/>
-        <v>13.999999999999989</v>
+        <v>13.99999999999995</v>
       </c>
       <c r="N458" s="5"/>
       <c r="S458" s="90" t="s">
@@ -22159,10 +22394,10 @@
         <v>44969</v>
       </c>
       <c r="K459" s="12">
-        <v>0.18263888888888891</v>
+        <v>0.68263888888888891</v>
       </c>
       <c r="L459" s="12">
-        <v>0.19166666666666665</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="M459" s="1">
         <f t="shared" si="6"/>
@@ -22192,19 +22427,20 @@
       <c r="F460" s="7">
         <v>13</v>
       </c>
+      <c r="G460" s="1"/>
       <c r="I460" s="8">
         <v>44969</v>
       </c>
       <c r="J460" s="13"/>
       <c r="K460" s="13">
-        <v>0.18333333333333335</v>
+        <v>0.68333333333333335</v>
       </c>
       <c r="L460" s="13">
-        <v>0.19236111111111112</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="M460" s="7">
         <f t="shared" si="6"/>
-        <v>12.999999999999993</v>
+        <v>12.999999999999954</v>
       </c>
       <c r="N460" s="5"/>
       <c r="S460" s="92" t="s">
@@ -22237,14 +22473,14 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="K461" s="12">
-        <v>0.17152777777777775</v>
+        <v>0.67152777777777772</v>
       </c>
       <c r="L461" s="12">
-        <v>0.18541666666666667</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="M461" s="1">
         <f t="shared" si="6"/>
-        <v>20.00000000000005</v>
+        <v>20.000000000000089</v>
       </c>
       <c r="N461" s="5"/>
     </row>
@@ -22274,14 +22510,14 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="K462" s="12">
-        <v>0.17291666666666669</v>
+        <v>0.67291666666666672</v>
       </c>
       <c r="L462" s="12">
-        <v>0.18680555555555556</v>
+        <v>0.68680555555555556</v>
       </c>
       <c r="M462" s="1">
         <f t="shared" si="6"/>
-        <v>19.999999999999968</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="N462" s="5"/>
     </row>
@@ -22311,14 +22547,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K463" s="12">
-        <v>0.17361111111111113</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="L463" s="12">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="M463" s="1">
         <f t="shared" si="6"/>
-        <v>19.999999999999968</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="N463" s="5"/>
     </row>
@@ -22348,14 +22584,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K464" s="12">
-        <v>0.17430555555555557</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="L464" s="12">
-        <v>0.18888888888888888</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="M464" s="1">
         <f t="shared" si="6"/>
-        <v>20.999999999999964</v>
+        <v>20.999999999999925</v>
       </c>
       <c r="N464" s="5"/>
     </row>
@@ -22385,14 +22621,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K465" s="12">
-        <v>0.17500000000000002</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L465" s="12">
-        <v>0.19027777777777777</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="M465" s="1">
         <f t="shared" si="6"/>
-        <v>21.999999999999961</v>
+        <v>21.999999999999922</v>
       </c>
       <c r="N465" s="5"/>
     </row>
@@ -22422,14 +22658,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K466" s="12">
-        <v>0.17569444444444446</v>
+        <v>0.67569444444444449</v>
       </c>
       <c r="L466" s="12">
-        <v>0.19097222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="M466" s="1">
         <f t="shared" si="6"/>
-        <v>21.999999999999961</v>
+        <v>21.999999999999922</v>
       </c>
       <c r="N466" s="5"/>
     </row>
@@ -22459,14 +22695,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K467" s="12">
-        <v>0.17708333333333334</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="L467" s="12">
-        <v>0.19236111111111112</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="M467" s="1">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21.999999999999922</v>
       </c>
       <c r="N467" s="5"/>
     </row>
@@ -22496,14 +22732,14 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="K468" s="13">
-        <v>0.17916666666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="L468" s="13">
-        <v>0.19444444444444445</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="M468" s="7">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21.999999999999922</v>
       </c>
       <c r="N468" s="9"/>
       <c r="S468" s="92"/>
@@ -22534,14 +22770,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K469" s="12">
-        <v>0.1125</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="L469" s="12">
-        <v>0.13472222222222222</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="M469" s="1">
         <f t="shared" si="6"/>
-        <v>31.999999999999986</v>
+        <v>31.999999999999886</v>
       </c>
       <c r="N469" s="27"/>
     </row>
@@ -22571,14 +22807,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K470" s="12">
-        <v>0.11458333333333333</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="L470" s="12">
-        <v>0.13541666666666666</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="M470" s="1">
         <f t="shared" si="6"/>
-        <v>29.999999999999993</v>
+        <v>29.999999999999893</v>
       </c>
       <c r="N470" s="27"/>
     </row>
@@ -22608,14 +22844,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K471" s="12">
-        <v>0.1173611111111111</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="L471" s="12">
-        <v>0.13749999999999998</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="M471" s="1">
         <f t="shared" si="6"/>
-        <v>28.999999999999996</v>
+        <v>28.999999999999897</v>
       </c>
       <c r="N471" s="27"/>
     </row>
@@ -22645,14 +22881,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K472" s="12">
-        <v>0.11875000000000001</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L472" s="12">
-        <v>0.14375000000000002</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="M472" s="1">
         <f t="shared" si="6"/>
-        <v>36.000000000000014</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N472" s="27"/>
     </row>
@@ -22682,14 +22918,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K473" s="12">
-        <v>0.12083333333333333</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="L473" s="12">
-        <v>0.14444444444444446</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="M473" s="1">
         <f t="shared" si="6"/>
-        <v>34.000000000000021</v>
+        <v>34.000000000000043</v>
       </c>
       <c r="N473" s="27"/>
     </row>
@@ -22719,14 +22955,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K474" s="12">
-        <v>0.12291666666666667</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="L474" s="12">
-        <v>0.14791666666666667</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="M474" s="1">
         <f t="shared" si="6"/>
-        <v>35.999999999999993</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N474" s="27"/>
     </row>
@@ -22756,14 +22992,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K475" s="12">
-        <v>0.12430555555555556</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="L475" s="12">
-        <v>0.14930555555555555</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="M475" s="1">
         <f t="shared" si="6"/>
-        <v>35.999999999999993</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N475" s="27"/>
     </row>
@@ -22793,35 +23029,35 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K476" s="13">
-        <v>0.12569444444444444</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="L476" s="13">
-        <v>0.15069444444444444</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="M476" s="7">
         <f t="shared" si="6"/>
-        <v>35.999999999999993</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N476" s="27"/>
       <c r="S476" s="92"/>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="B477" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="C477" s="58">
+      <c r="C477" s="114">
         <v>27.3</v>
       </c>
-      <c r="D477" s="1" t="s">
+      <c r="D477" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E477" s="1">
+      <c r="E477" s="6">
         <v>11.45</v>
       </c>
-      <c r="F477" s="1">
+      <c r="F477" s="6">
         <v>9.6</v>
       </c>
       <c r="H477" s="1" t="s">
@@ -22834,14 +23070,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K477" s="12">
-        <v>0.12361111111111112</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="L477" s="12">
-        <v>0.14791666666666667</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="M477" s="1">
         <f t="shared" si="6"/>
-        <v>34.999999999999993</v>
+        <v>35.000000000000036</v>
       </c>
       <c r="N477" s="27"/>
     </row>
@@ -22874,14 +23110,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K478" s="12">
-        <v>0.12569444444444444</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="L478" s="12">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="M478" s="1">
         <f t="shared" si="6"/>
-        <v>34.999999999999993</v>
+        <v>35.000000000000036</v>
       </c>
       <c r="N478" s="27"/>
     </row>
@@ -22914,34 +23150,34 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K479" s="12">
-        <v>0.12708333333333333</v>
+        <v>0.62708333333333333</v>
       </c>
       <c r="L479" s="12">
-        <v>0.15138888888888888</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="M479" s="1">
         <f t="shared" si="6"/>
-        <v>34.999999999999993</v>
+        <v>35.000000000000036</v>
       </c>
       <c r="N479" s="27"/>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B480" s="4" t="s">
+      <c r="B480" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="C480" s="58">
+      <c r="C480" s="114">
         <v>30.1</v>
       </c>
-      <c r="D480" s="1" t="s">
+      <c r="D480" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E480" s="1">
+      <c r="E480" s="6">
         <v>11.45</v>
       </c>
-      <c r="F480" s="1">
+      <c r="F480" s="6">
         <v>10.5</v>
       </c>
       <c r="H480" s="1" t="s">
@@ -22954,14 +23190,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K480" s="12">
-        <v>0.12916666666666668</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="L480" s="12">
-        <v>0.15277777777777776</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="M480" s="1">
         <f t="shared" si="6"/>
-        <v>33.999999999999957</v>
+        <v>34.000000000000043</v>
       </c>
       <c r="N480" s="27"/>
     </row>
@@ -22994,14 +23230,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K481" s="12">
-        <v>0.13125000000000001</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="L481" s="12">
-        <v>0.15486111111111112</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="M481" s="1">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>34.000000000000043</v>
       </c>
       <c r="N481" s="27"/>
     </row>
@@ -23034,14 +23270,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K482" s="12">
-        <v>0.13333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L482" s="12">
-        <v>0.15625</v>
+        <v>0.65625</v>
       </c>
       <c r="M482" s="1">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>33.000000000000043</v>
       </c>
       <c r="N482" s="27"/>
     </row>
@@ -23074,14 +23310,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K483" s="12">
-        <v>0.13541666666666666</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="L483" s="12">
-        <v>0.15902777777777777</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="M483" s="1">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>34.000000000000043</v>
       </c>
       <c r="N483" s="27"/>
     </row>
@@ -23114,10 +23350,10 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K484" s="13">
-        <v>0.13819444444444443</v>
+        <v>0.6381944444444444</v>
       </c>
       <c r="L484" s="13">
-        <v>0.16319444444444445</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="M484" s="7">
         <f t="shared" si="6"/>
@@ -23155,34 +23391,34 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K485" s="12">
-        <v>0.1173611111111111</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="L485" s="12">
-        <v>0.14305555555555557</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="M485" s="1">
         <f t="shared" si="6"/>
-        <v>37.00000000000005</v>
+        <v>37.000000000000028</v>
       </c>
       <c r="N485" s="27"/>
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B486" s="4" t="s">
+      <c r="B486" s="113" t="s">
         <v>362</v>
       </c>
-      <c r="C486" s="58">
+      <c r="C486" s="114">
         <v>29.3</v>
       </c>
-      <c r="D486" s="1" t="s">
+      <c r="D486" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E486" s="1">
+      <c r="E486" s="6">
         <v>11.45</v>
       </c>
-      <c r="F486" s="1">
+      <c r="F486" s="6">
         <v>10.3</v>
       </c>
       <c r="H486" s="1" t="s">
@@ -23195,14 +23431,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K486" s="12">
-        <v>0.11875000000000001</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L486" s="12">
-        <v>0.14375000000000002</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="M486" s="1">
         <f t="shared" si="6"/>
-        <v>36.000000000000014</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N486" s="27"/>
     </row>
@@ -23235,34 +23471,34 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K487" s="12">
-        <v>0.12083333333333333</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="L487" s="12">
-        <v>0.1451388888888889</v>
+        <v>0.64513888888888893</v>
       </c>
       <c r="M487" s="1">
         <f t="shared" si="6"/>
-        <v>35.000000000000014</v>
+        <v>35.000000000000036</v>
       </c>
       <c r="N487" s="27"/>
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B488" s="4" t="s">
+      <c r="B488" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="C488" s="58">
+      <c r="C488" s="114">
         <v>28.5</v>
       </c>
-      <c r="D488" s="1" t="s">
+      <c r="D488" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E488" s="1">
+      <c r="E488" s="6">
         <v>11.45</v>
       </c>
-      <c r="F488" s="1">
+      <c r="F488" s="6">
         <v>10</v>
       </c>
       <c r="H488" s="1" t="s">
@@ -23275,14 +23511,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K488" s="12">
-        <v>0.12291666666666667</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="L488" s="12">
-        <v>0.14652777777777778</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="M488" s="1">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>34.000000000000043</v>
       </c>
       <c r="N488" s="27"/>
     </row>
@@ -23315,14 +23551,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K489" s="12">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="L489" s="12">
-        <v>0.14791666666666667</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="M489" s="1">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>33.000000000000043</v>
       </c>
       <c r="N489" s="27"/>
     </row>
@@ -23355,14 +23591,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K490" s="12">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L490" s="12">
-        <v>0.14930555555555555</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="M490" s="1">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>33.000000000000043</v>
       </c>
       <c r="N490" s="27"/>
     </row>
@@ -23395,14 +23631,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K491" s="12">
-        <v>0.12986111111111112</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="L491" s="12">
-        <v>0.15069444444444444</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="M491" s="1">
         <f t="shared" si="6"/>
-        <v>29.999999999999972</v>
+        <v>30.000000000000053</v>
       </c>
       <c r="N491" s="27"/>
     </row>
@@ -23435,7 +23671,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K492" s="13">
-        <v>0.13263888888888889</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="L492" s="13"/>
       <c r="N492" s="27"/>
@@ -23470,14 +23706,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K493" s="12">
-        <v>0.10625</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="L493" s="12">
-        <v>0.18958333333333333</v>
+        <v>0.68958333333333333</v>
       </c>
       <c r="M493" s="1">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>120.00000000000006</v>
       </c>
       <c r="N493" s="5"/>
     </row>
@@ -23510,14 +23746,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K494" s="12">
-        <v>0.10833333333333334</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="L494" s="12">
-        <v>0.19236111111111112</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="M494" s="1">
         <f t="shared" si="6"/>
-        <v>121</v>
+        <v>121.00000000000006</v>
       </c>
       <c r="N494" s="5"/>
     </row>
@@ -23550,14 +23786,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K495" s="12">
-        <v>0.11041666666666666</v>
+        <v>0.61041666666666672</v>
       </c>
       <c r="L495" s="12">
-        <v>0.19513888888888889</v>
+        <v>0.69513888888888886</v>
       </c>
       <c r="M495" s="1">
-        <f t="shared" ref="M495:M525" si="7" xml:space="preserve"> (L495-K495)*24 * 60</f>
-        <v>122</v>
+        <f t="shared" ref="M495:M530" si="7" xml:space="preserve"> (L495-K495)*24 * 60</f>
+        <v>121.99999999999989</v>
       </c>
       <c r="O495" s="5"/>
     </row>
@@ -23590,14 +23826,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K496" s="12">
-        <v>0.1125</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="L496" s="12">
-        <v>0.1986111111111111</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="M496" s="1">
         <f t="shared" si="7"/>
-        <v>123.99999999999999</v>
+        <v>123.99999999999989</v>
       </c>
       <c r="N496" s="5"/>
     </row>
@@ -23630,14 +23866,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K497" s="12">
-        <v>0.11458333333333333</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="L497" s="12">
-        <v>0.19999999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="M497" s="1">
         <f t="shared" si="7"/>
-        <v>122.99999999999999</v>
+        <v>122.99999999999989</v>
       </c>
       <c r="O497" s="5"/>
     </row>
@@ -23670,14 +23906,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K498" s="12">
-        <v>0.11666666666666665</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L498" s="12">
-        <v>0.20069444444444443</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="M498" s="1">
         <f t="shared" si="7"/>
-        <v>121</v>
+        <v>120.99999999999989</v>
       </c>
       <c r="N498" s="5"/>
     </row>
@@ -23710,14 +23946,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K499" s="12">
-        <v>0.11875000000000001</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L499" s="12">
-        <v>0.20416666666666669</v>
+        <v>0.70416666666666672</v>
       </c>
       <c r="M499" s="1">
         <f t="shared" si="7"/>
-        <v>123.00000000000001</v>
+        <v>123.00000000000004</v>
       </c>
       <c r="N499" s="5"/>
     </row>
@@ -23750,14 +23986,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K500" s="12">
-        <v>0.12152777777777778</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="L500" s="12">
-        <v>0.20625000000000002</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="M500" s="1">
         <f t="shared" si="7"/>
-        <v>122.00000000000001</v>
+        <v>122.00000000000004</v>
       </c>
       <c r="O500" s="5"/>
     </row>
@@ -23790,14 +24026,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K501" s="13">
-        <v>0.12430555555555556</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="L501" s="13">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="M501" s="7">
         <f t="shared" si="7"/>
-        <v>121</v>
+        <v>121.00000000000006</v>
       </c>
       <c r="S501" s="92"/>
     </row>
@@ -23830,14 +24066,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K502" s="12">
-        <v>0.1076388888888889</v>
+        <v>0.60763888888888884</v>
       </c>
       <c r="L502" s="12">
-        <v>0.19583333333333333</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="M502" s="1">
         <f t="shared" si="7"/>
-        <v>126.99999999999997</v>
+        <v>127.00000000000003</v>
       </c>
       <c r="O502" s="5"/>
     </row>
@@ -23870,14 +24106,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K503" s="12">
-        <v>0.11041666666666666</v>
+        <v>0.61041666666666672</v>
       </c>
       <c r="L503" s="12">
-        <v>0.19375000000000001</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="M503" s="1">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>119.99999999999989</v>
       </c>
       <c r="N503" s="5"/>
     </row>
@@ -23910,14 +24146,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K504" s="12">
-        <v>0.11388888888888889</v>
+        <v>0.61388888888888893</v>
       </c>
       <c r="L504" s="12">
-        <v>0.19930555555555554</v>
+        <v>0.69930555555555551</v>
       </c>
       <c r="M504" s="1">
         <f t="shared" si="7"/>
-        <v>122.99999999999999</v>
+        <v>122.99999999999989</v>
       </c>
       <c r="N504" s="5"/>
     </row>
@@ -23950,14 +24186,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K505" s="12">
-        <v>0.11666666666666665</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L505" s="12">
-        <v>0.20208333333333331</v>
+        <v>0.70208333333333328</v>
       </c>
       <c r="M505" s="1">
         <f t="shared" si="7"/>
-        <v>122.99999999999999</v>
+        <v>122.99999999999989</v>
       </c>
       <c r="O505" s="5"/>
     </row>
@@ -23990,14 +24226,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K506" s="12">
-        <v>0.11875000000000001</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L506" s="12">
-        <v>0.20347222222222219</v>
+        <v>0.70347222222222228</v>
       </c>
       <c r="M506" s="1">
         <f t="shared" si="7"/>
-        <v>121.99999999999994</v>
+        <v>122.00000000000004</v>
       </c>
       <c r="N506" s="5"/>
     </row>
@@ -24030,14 +24266,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K507" s="12">
-        <v>0.12083333333333333</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="L507" s="12">
-        <v>0.20625000000000002</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="M507" s="1">
         <f t="shared" si="7"/>
-        <v>123.00000000000001</v>
+        <v>123.00000000000004</v>
       </c>
       <c r="N507" s="5"/>
     </row>
@@ -24070,14 +24306,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K508" s="12">
-        <v>0.12291666666666667</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="L508" s="12">
-        <v>0.2076388888888889</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="M508" s="1">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>122.00000000000004</v>
       </c>
       <c r="N508" s="5"/>
     </row>
@@ -24110,14 +24346,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K509" s="12">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="L509" s="12">
-        <v>0.20972222222222223</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="M509" s="1">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>122.00000000000004</v>
       </c>
       <c r="N509" s="5"/>
     </row>
@@ -24150,14 +24386,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K510" s="13">
-        <v>0.12638888888888888</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="L510" s="13">
-        <v>0.21111111111111111</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="M510" s="7">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>122.00000000000004</v>
       </c>
       <c r="O510" s="5"/>
       <c r="S510" s="92"/>
@@ -24191,36 +24427,37 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K511" s="12">
-        <v>0.11875000000000001</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L511" s="12">
-        <v>0.14305555555555557</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="M511" s="1">
         <f t="shared" si="7"/>
-        <v>35.000000000000014</v>
+        <v>35.000000000000036</v>
       </c>
       <c r="N511" s="27"/>
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B512" s="4" t="s">
+      <c r="B512" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="C512" s="58">
+      <c r="C512" s="114">
         <v>29.3</v>
       </c>
-      <c r="D512" s="1" t="s">
+      <c r="D512" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E512" s="1">
+      <c r="E512" s="6">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F512" s="1">
+      <c r="F512" s="6">
         <v>10.3</v>
       </c>
+      <c r="G512" s="6"/>
       <c r="H512" s="1" t="s">
         <v>27</v>
       </c>
@@ -24231,14 +24468,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K512" s="12">
-        <v>0.11875000000000001</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L512" s="12">
-        <v>0.14375000000000002</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="M512" s="1">
         <f t="shared" si="7"/>
-        <v>36.000000000000014</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N512" s="27"/>
     </row>
@@ -24271,57 +24508,59 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K513" s="12">
-        <v>0.12083333333333333</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="L513" s="12">
-        <v>0.14583333333333334</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M513" s="1">
         <f t="shared" si="7"/>
-        <v>36.000000000000014</v>
+        <v>36.000000000000028</v>
       </c>
       <c r="N513" s="27"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A514" s="1" t="s">
+    <row r="514" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B514" s="4" t="s">
+      <c r="B514" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="C514" s="58">
+      <c r="C514" s="114">
         <v>45.5</v>
       </c>
-      <c r="D514" s="1" t="s">
+      <c r="D514" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E514" s="1">
+      <c r="E514" s="6">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F514" s="1">
+      <c r="F514" s="6">
         <v>15.9</v>
       </c>
-      <c r="H514" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I514" s="4">
+      <c r="G514" s="1"/>
+      <c r="H514" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I514" s="113">
         <v>45162</v>
       </c>
-      <c r="J514" s="12">
+      <c r="J514" s="115">
         <v>0.41666666666666702</v>
       </c>
-      <c r="K514" s="12">
-        <v>0.12708333333333333</v>
-      </c>
-      <c r="L514" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="M514" s="1">
+      <c r="K514" s="115">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="L514" s="115">
+        <v>0.65</v>
+      </c>
+      <c r="M514" s="6">
         <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="N514" s="27"/>
-      <c r="O514" s="27"/>
+        <v>33.000000000000043</v>
+      </c>
+      <c r="N514" s="116"/>
+      <c r="O514" s="116"/>
+      <c r="S514" s="117"/>
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
@@ -24352,14 +24591,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K515" s="12">
-        <v>0.12916666666666668</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="L515" s="12">
-        <v>0.15208333333333332</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="M515" s="1">
         <f t="shared" si="7"/>
-        <v>32.999999999999964</v>
+        <v>33.000000000000043</v>
       </c>
       <c r="N515" s="27"/>
       <c r="O515" s="27"/>
@@ -24393,56 +24632,58 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K516" s="12">
-        <v>0.13125000000000001</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="L516" s="12">
-        <v>0.15416666666666667</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="M516" s="1">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>33.000000000000043</v>
       </c>
       <c r="N516" s="27"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A517" s="1" t="s">
+    <row r="517" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B517" s="4" t="s">
+      <c r="B517" s="113" t="s">
         <v>375</v>
       </c>
-      <c r="C517" s="58">
+      <c r="C517" s="114">
         <v>51.2</v>
       </c>
-      <c r="D517" s="1" t="s">
+      <c r="D517" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E517" s="1">
+      <c r="E517" s="6">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F517" s="1">
+      <c r="F517" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="H517" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I517" s="4">
+      <c r="G517" s="1"/>
+      <c r="H517" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I517" s="113">
         <v>45162</v>
       </c>
-      <c r="J517" s="12">
+      <c r="J517" s="115">
         <v>0.41666666666666702</v>
       </c>
-      <c r="K517" s="12">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="L517" s="12">
-        <v>0.16041666666666668</v>
-      </c>
-      <c r="M517" s="1">
+      <c r="K517" s="115">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="L517" s="115">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="M517" s="6">
         <f t="shared" si="7"/>
         <v>36.000000000000028</v>
       </c>
-      <c r="O517" s="27"/>
+      <c r="O517" s="116"/>
+      <c r="S517" s="117"/>
     </row>
     <row r="518" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
@@ -24463,6 +24704,7 @@
       <c r="F518" s="7">
         <v>19</v>
       </c>
+      <c r="G518" s="1"/>
       <c r="H518" s="7" t="s">
         <v>27</v>
       </c>
@@ -24473,14 +24715,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K518" s="13">
-        <v>0.14027777777777778</v>
+        <v>0.64027777777777772</v>
       </c>
       <c r="L518" s="13">
-        <v>0.16319444444444445</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="M518" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>33.000000000000043</v>
       </c>
       <c r="S518" s="92"/>
     </row>
@@ -24513,136 +24755,142 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K519" s="12">
-        <v>0.1076388888888889</v>
+        <v>0.60763888888888884</v>
       </c>
       <c r="L519" s="12">
-        <v>0.13125000000000001</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="M519" s="1">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>34.000000000000043</v>
       </c>
       <c r="N519" s="27"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A520" s="1" t="s">
+    <row r="520" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B520" s="4" t="s">
+      <c r="B520" s="113" t="s">
         <v>375</v>
       </c>
-      <c r="C520" s="58">
+      <c r="C520" s="114">
         <v>46.5</v>
       </c>
-      <c r="D520" s="1" t="s">
+      <c r="D520" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E520" s="1">
+      <c r="E520" s="6">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F520" s="1">
+      <c r="F520" s="6">
         <v>16</v>
       </c>
-      <c r="H520" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I520" s="4">
+      <c r="G520" s="1"/>
+      <c r="H520" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I520" s="113">
         <v>45167</v>
       </c>
-      <c r="J520" s="12">
+      <c r="J520" s="115">
         <v>0.41666666666666702</v>
       </c>
-      <c r="K520" s="12">
-        <v>0.10972222222222222</v>
-      </c>
-      <c r="L520" s="12">
-        <v>0.13263888888888889</v>
-      </c>
-      <c r="M520" s="1">
+      <c r="K520" s="115">
+        <v>0.60972222222222228</v>
+      </c>
+      <c r="L520" s="115">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="M520" s="6">
         <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="O520" s="27"/>
-    </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A521" s="1" t="s">
+        <v>32.999999999999886</v>
+      </c>
+      <c r="O520" s="116"/>
+      <c r="S520" s="117"/>
+    </row>
+    <row r="521" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B521" s="4" t="s">
+      <c r="B521" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="C521" s="58">
+      <c r="C521" s="114">
         <v>47.4</v>
       </c>
-      <c r="D521" s="1" t="s">
+      <c r="D521" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E521" s="1">
+      <c r="E521" s="6">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F521" s="1">
+      <c r="F521" s="6">
         <v>17</v>
       </c>
-      <c r="H521" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I521" s="4">
+      <c r="G521" s="1"/>
+      <c r="H521" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I521" s="113">
         <v>45167</v>
       </c>
-      <c r="J521" s="12">
+      <c r="J521" s="115">
         <v>0.41666666666666702</v>
       </c>
-      <c r="K521" s="12">
-        <v>0.11319444444444444</v>
-      </c>
-      <c r="L521" s="12">
-        <v>0.13680555555555554</v>
-      </c>
-      <c r="M521" s="1">
+      <c r="K521" s="115">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="L521" s="115">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="M521" s="6">
         <f t="shared" si="7"/>
-        <v>33.999999999999979</v>
-      </c>
-      <c r="O521" s="27"/>
-    </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A522" s="1" t="s">
+        <v>33.999999999999879</v>
+      </c>
+      <c r="O521" s="116"/>
+      <c r="S521" s="117"/>
+    </row>
+    <row r="522" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B522" s="4" t="s">
+      <c r="B522" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="C522" s="58">
+      <c r="C522" s="114">
         <v>53</v>
       </c>
-      <c r="D522" s="1" t="s">
+      <c r="D522" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E522" s="1">
+      <c r="E522" s="6">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F522" s="1">
+      <c r="F522" s="6">
         <v>19</v>
       </c>
-      <c r="H522" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I522" s="4">
+      <c r="G522" s="1"/>
+      <c r="H522" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I522" s="113">
         <v>45167</v>
       </c>
-      <c r="J522" s="12">
+      <c r="J522" s="115">
         <v>0.41666666666666702</v>
       </c>
-      <c r="K522" s="12">
-        <v>0.11527777777777777</v>
-      </c>
-      <c r="L522" s="12">
-        <v>0.13819444444444443</v>
-      </c>
-      <c r="M522" s="1">
+      <c r="K522" s="115">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="L522" s="115">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="M522" s="6">
         <f t="shared" si="7"/>
-        <v>32.999999999999986</v>
-      </c>
-      <c r="O522" s="27"/>
+        <v>32.999999999999886</v>
+      </c>
+      <c r="O522" s="116"/>
+      <c r="S522" s="117"/>
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
@@ -24673,14 +24921,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K523" s="12">
-        <v>0.1173611111111111</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="L523" s="12">
-        <v>0.14027777777777778</v>
+        <v>0.64027777777777772</v>
       </c>
       <c r="M523" s="1">
         <f t="shared" si="7"/>
-        <v>33.000000000000021</v>
+        <v>32.999999999999886</v>
       </c>
       <c r="O523" s="27"/>
     </row>
@@ -24713,60 +24961,699 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K524" s="12">
-        <v>0.11875000000000001</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L524" s="12">
-        <v>0.14166666666666666</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="M524" s="1">
         <f t="shared" si="7"/>
-        <v>32.999999999999986</v>
-      </c>
-    </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A525" s="1" t="s">
+        <v>33.000000000000043</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B525" s="4" t="s">
+      <c r="B525" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C525" s="58">
+      <c r="C525" s="59">
         <v>38.200000000000003</v>
       </c>
-      <c r="D525" s="1" t="s">
+      <c r="D525" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E525" s="1">
+      <c r="E525" s="7">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F525" s="1">
+      <c r="F525" s="7">
         <v>13</v>
       </c>
-      <c r="H525" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I525" s="4">
+      <c r="G525" s="1"/>
+      <c r="H525" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I525" s="8">
         <v>45167</v>
       </c>
-      <c r="J525" s="12">
+      <c r="J525" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="K525" s="12">
-        <v>0.12083333333333333</v>
-      </c>
-      <c r="L525" s="12">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="M525" s="1">
+      <c r="K525" s="13">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="L525" s="13">
+        <v>0.64375000000000004</v>
+      </c>
+      <c r="M525" s="7">
         <f t="shared" si="7"/>
-        <v>33.000000000000021</v>
-      </c>
-      <c r="N525" s="27"/>
+        <v>33.000000000000043</v>
+      </c>
+      <c r="N525" s="28"/>
+      <c r="S525" s="92"/>
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B526" s="1"/>
-      <c r="C526" s="1"/>
-      <c r="I526" s="1"/>
+      <c r="A526" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C526" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E526" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F526" s="1">
+        <v>4</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I526" s="4">
+        <v>45429</v>
+      </c>
+      <c r="K526" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L526" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M526" s="1">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C527" s="58">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E527" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F527" s="1">
+        <v>4</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I527" s="4">
+        <v>45429</v>
+      </c>
+      <c r="K527" s="12">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="L527" s="12">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="M527" s="1">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C528" s="58">
+        <v>30</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E528" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F528" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I528" s="4">
+        <v>45429</v>
+      </c>
+      <c r="K528" s="12">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="L528" s="12">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="M528" s="1">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C529" s="58">
+        <v>29</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E529" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F529" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I529" s="4">
+        <v>45429</v>
+      </c>
+      <c r="K529" s="12">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="L529" s="12">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="M529" s="1">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="530" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B530" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C530" s="59">
+        <v>60</v>
+      </c>
+      <c r="D530" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E530" s="7">
+        <v>206.5</v>
+      </c>
+      <c r="F530" s="7">
+        <v>4</v>
+      </c>
+      <c r="H530" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I530" s="8">
+        <v>45429</v>
+      </c>
+      <c r="J530" s="13"/>
+      <c r="K530" s="13">
+        <v>0.59375</v>
+      </c>
+      <c r="L530" s="13">
+        <v>0.71875</v>
+      </c>
+      <c r="M530" s="7">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="S530" s="92"/>
+    </row>
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C531" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E531" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F531" s="1">
+        <v>13</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I531" s="4">
+        <v>45432</v>
+      </c>
+      <c r="M531" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C532" s="58">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E532" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F532" s="1">
+        <v>13</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I532" s="4">
+        <v>45432</v>
+      </c>
+      <c r="M532" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="533" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C533" s="59">
+        <v>60</v>
+      </c>
+      <c r="D533" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E533" s="7">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F533" s="7">
+        <v>13</v>
+      </c>
+      <c r="H533" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I533" s="8">
+        <v>45432</v>
+      </c>
+      <c r="J533" s="13"/>
+      <c r="K533" s="13"/>
+      <c r="L533" s="13"/>
+      <c r="M533" s="1">
+        <v>30</v>
+      </c>
+      <c r="S533" s="92"/>
+    </row>
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B534" t="s">
+        <v>385</v>
+      </c>
+      <c r="C534" s="118">
+        <v>30</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E534" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F534" s="1">
+        <v>6</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I534" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B535" t="s">
+        <v>386</v>
+      </c>
+      <c r="C535" s="118">
+        <v>29</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E535" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F535" s="1">
+        <v>6</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I535" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B536" t="s">
+        <v>387</v>
+      </c>
+      <c r="C536" s="118">
+        <v>28.5</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E536" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F536" s="1">
+        <v>6</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I536" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B537" t="s">
+        <v>388</v>
+      </c>
+      <c r="C537" s="118">
+        <v>25</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E537" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F537" s="1">
+        <v>6</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I537" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B538" t="s">
+        <v>389</v>
+      </c>
+      <c r="C538" s="118">
+        <v>28.4</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E538" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F538" s="1">
+        <v>6</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I538" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B539" t="s">
+        <v>390</v>
+      </c>
+      <c r="C539" s="118">
+        <v>25.1</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E539" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F539" s="1">
+        <v>6</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I539" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B540" t="s">
+        <v>391</v>
+      </c>
+      <c r="C540" s="118">
+        <v>25.5</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E540" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F540" s="1">
+        <v>6</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I540" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B541" t="s">
+        <v>392</v>
+      </c>
+      <c r="C541" s="118">
+        <v>25</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E541" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F541" s="1">
+        <v>6</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I541" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B542" t="s">
+        <v>393</v>
+      </c>
+      <c r="C542" s="118">
+        <v>26.3</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E542" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F542" s="1">
+        <v>6</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I542" s="4">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="543" spans="1:19" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B543" s="122" t="s">
+        <v>394</v>
+      </c>
+      <c r="C543" s="123">
+        <v>24.8</v>
+      </c>
+      <c r="D543" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E543" s="20">
+        <v>9.27</v>
+      </c>
+      <c r="F543" s="20">
+        <v>6</v>
+      </c>
+      <c r="H543" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I543" s="21">
+        <v>45437</v>
+      </c>
+      <c r="J543" s="22"/>
+      <c r="K543" s="22"/>
+      <c r="L543" s="22"/>
+      <c r="S543" s="93"/>
+    </row>
+    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C544" s="58">
+        <v>63.2</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E544" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F544" s="1">
+        <v>6</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I544" s="4">
+        <v>45440</v>
+      </c>
+      <c r="K544" s="12">
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="L544" s="12">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="M544" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C545" s="58">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E545" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F545" s="1">
+        <v>6</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I545" s="4">
+        <v>45440</v>
+      </c>
+      <c r="K545" s="12">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="L545" s="12">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="M545" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C546" s="58">
+        <v>69.5</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E546" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F546" s="1">
+        <v>6</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I546" s="4">
+        <v>45440</v>
+      </c>
+      <c r="K546" s="12">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="L546" s="12">
+        <v>0.15625</v>
+      </c>
+      <c r="M546" s="1">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -24788,8 +25675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D15078-4959-3E40-9E50-427EA9D5AE17}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="162" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A38" zoomScale="162" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_serum labeling mouse ID.xlsx
+++ b/data_serum labeling mouse ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966DDF2-D41D-D840-9D58-17EF2863EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2E6C3-B5A6-E745-90D6-7DB34EC28922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
+    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
   </bookViews>
   <sheets>
     <sheet name="infusion rounds" sheetId="1" r:id="rId1"/>
@@ -2752,6 +2752,10 @@
     <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2759,10 +2763,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3231,11 +3231,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}">
   <dimension ref="A1:T546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D535" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H549" sqref="H549"/>
+      <selection pane="bottomRight" activeCell="F541" sqref="F541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3263,43 +3263,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
@@ -3308,25 +3308,25 @@
       <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="56"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="119" t="s">
+      <c r="N7" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="119"/>
+      <c r="O7" s="121"/>
       <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -25524,10 +25524,10 @@
       <c r="A543" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="B543" s="122" t="s">
+      <c r="B543" s="119" t="s">
         <v>394</v>
       </c>
-      <c r="C543" s="123">
+      <c r="C543" s="120">
         <v>24.8</v>
       </c>
       <c r="D543" s="20" t="s">

--- a/data_serum labeling mouse ID.xlsx
+++ b/data_serum labeling mouse ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2E6C3-B5A6-E745-90D6-7DB34EC28922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282127EE-DF03-7A47-B769-C1A5EB8152FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
   </bookViews>
@@ -3232,10 +3232,10 @@
   <dimension ref="A1:T546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D526" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D535" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F541" sqref="F541"/>
+      <selection pane="bottomRight" activeCell="E549" sqref="E549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25585,7 +25585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>396</v>
       </c>
@@ -25620,40 +25620,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A546" s="1" t="s">
+    <row r="546" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B546" s="4" t="s">
+      <c r="B546" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C546" s="58">
+      <c r="C546" s="59">
         <v>69.5</v>
       </c>
-      <c r="D546" s="1" t="s">
+      <c r="D546" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E546" s="1">
+      <c r="E546" s="7">
         <v>9.5</v>
       </c>
-      <c r="F546" s="1">
+      <c r="F546" s="7">
         <v>6</v>
       </c>
-      <c r="H546" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I546" s="4">
+      <c r="H546" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I546" s="8">
         <v>45440</v>
       </c>
-      <c r="K546" s="12">
+      <c r="J546" s="13"/>
+      <c r="K546" s="13">
         <v>0.13402777777777777</v>
       </c>
-      <c r="L546" s="12">
+      <c r="L546" s="13">
         <v>0.15625</v>
       </c>
-      <c r="M546" s="1">
+      <c r="M546" s="7">
         <v>30</v>
       </c>
+      <c r="S546" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26465,7 +26467,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_serum labeling mouse ID.xlsx
+++ b/data_serum labeling mouse ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282127EE-DF03-7A47-B769-C1A5EB8152FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139C9B5-7E85-D449-A21F-88259895983A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
+    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
   </bookViews>
   <sheets>
     <sheet name="infusion rounds" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,10 @@
     <author>tc={35084041-E568-C844-9944-33FC29026438}</author>
     <author>tc={40476537-A29A-DA46-A24A-EB591CBCD6A9}</author>
     <author>tc={35BD1755-5D23-674F-A6DC-31EEADD6E583}</author>
+    <author>tc={91FF3FF5-C180-DE40-AC5C-CDA40EAF5369}</author>
+    <author>tc={D1B0B7C5-23E2-D649-89EF-0C9B700EFBA7}</author>
+    <author>tc={2736CAA4-79EB-654F-BE72-F24418177392}</author>
+    <author>tc={18630C31-9C0E-C74A-8730-F1FA3885160F}</author>
   </authors>
   <commentList>
     <comment ref="N8" authorId="0" shapeId="0" xr:uid="{9A1954D0-BA50-8C40-9882-120EF96F2E90}">
@@ -699,12 +703,46 @@
     YY’s tracer</t>
       </text>
     </comment>
+    <comment ref="A565" authorId="46" shapeId="0" xr:uid="{91FF3FF5-C180-DE40-AC5C-CDA40EAF5369}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In this round, the same HFD mice of H4, H6, and H9 and L1 and L8 (noted as M9) are also infused to ensure the repeatability of the experiment. Data is consistent. These HFD and lean mice data are included in the round of da; the repeated data in dd round is therefore not included. All data refers to the file: Desktop/Harvard/Research/db db mice/Infusion data/palmitate infusion Fcirc reproducability .xlsx </t>
+      </text>
+    </comment>
+    <comment ref="B565" authorId="47" shapeId="0" xr:uid="{D1B0B7C5-23E2-D649-89EF-0C9B700EFBA7}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The O5, O6, O7 mice in dd round are different mice from those in the da round. </t>
+      </text>
+    </comment>
+    <comment ref="B566" authorId="48" shapeId="0" xr:uid="{2736CAA4-79EB-654F-BE72-F24418177392}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The O5, O6, O7 mice in dd round are different mice from those in the da round. 
+</t>
+      </text>
+    </comment>
+    <comment ref="B567" authorId="49" shapeId="0" xr:uid="{18630C31-9C0E-C74A-8730-F1FA3885160F}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The O5, O6, O7 mice in dd round are different mice from those in the da round. 
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="403">
   <si>
     <r>
       <rPr>
@@ -2068,6 +2106,24 @@
   <si>
     <t>ck</t>
   </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
 </sst>
 </file>
 
@@ -2078,7 +2134,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2214,6 +2270,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2410,7 +2472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2763,6 +2825,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3224,18 +3291,32 @@
   <threadedComment ref="E544" dT="2024-05-29T19:30:34.60" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{35BD1755-5D23-674F-A6DC-31EEADD6E583}">
     <text>YY’s tracer</text>
   </threadedComment>
+  <threadedComment ref="A565" dT="2024-08-31T16:57:35.78" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{91FF3FF5-C180-DE40-AC5C-CDA40EAF5369}">
+    <text xml:space="preserve">In this round, the same HFD mice of H4, H6, and H9 and L1 and L8 (noted as M9) are also infused to ensure the repeatability of the experiment. Data is consistent. These HFD and lean mice data are included in the round of da; the repeated data in dd round is therefore not included. All data refers to the file: Desktop/Harvard/Research/db db mice/Infusion data/palmitate infusion Fcirc reproducability .xlsx </text>
+  </threadedComment>
+  <threadedComment ref="B565" dT="2024-08-31T12:59:38.84" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{D1B0B7C5-23E2-D649-89EF-0C9B700EFBA7}">
+    <text xml:space="preserve">The O5, O6, O7 mice in dd round are different mice from those in the da round. </text>
+  </threadedComment>
+  <threadedComment ref="B566" dT="2024-08-31T12:59:51.70" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{2736CAA4-79EB-654F-BE72-F24418177392}">
+    <text xml:space="preserve">The O5, O6, O7 mice in dd round are different mice from those in the da round. 
+</text>
+  </threadedComment>
+  <threadedComment ref="B567" dT="2024-08-31T12:59:58.59" personId="{BD05C489-C691-C94F-BE22-F46AD27399CC}" id="{18630C31-9C0E-C74A-8730-F1FA3885160F}">
+    <text xml:space="preserve">The O5, O6, O7 mice in dd round are different mice from those in the da round. 
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}">
-  <dimension ref="A1:T546"/>
+  <dimension ref="A1:T567"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D535" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E549" sqref="E549"/>
+      <selection pane="bottomRight" activeCell="C563" sqref="C563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25657,6 +25738,726 @@
       </c>
       <c r="S546" s="92"/>
     </row>
+    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C547" s="58">
+        <v>52.7</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E547" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F547" s="1">
+        <v>6</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I547" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K547" s="12">
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="L547" s="12">
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="M547" s="1">
+        <f t="shared" ref="M547:M555" si="8" xml:space="preserve"> (L547-K547)*24 * 60</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C548" s="58">
+        <v>57.8</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E548" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F548" s="1">
+        <v>6</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I548" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K548" s="12">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="L548" s="12">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="M548" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C549" s="58">
+        <v>61.5</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E549" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F549" s="1">
+        <v>6</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I549" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K549" s="12">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="L549" s="12">
+        <v>0.1701388888888889</v>
+      </c>
+      <c r="M549" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C550" s="58">
+        <v>42.1</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E550" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F550" s="1">
+        <v>6</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I550" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K550" s="12">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="L550" s="12">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="M550" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C551" s="58">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E551" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F551" s="1">
+        <v>6</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I551" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K551" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="L551" s="12">
+        <v>0.15625</v>
+      </c>
+      <c r="M551" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C552" s="58">
+        <v>30.5</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E552" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F552" s="1">
+        <v>6</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I552" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K552" s="12">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="L552" s="12">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="M552" s="1">
+        <f t="shared" si="8"/>
+        <v>49.000000000000028</v>
+      </c>
+    </row>
+    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C553" s="58">
+        <v>58</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E553" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F553" s="1">
+        <v>6</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I553" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K553" s="12">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="L553" s="12">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="M553" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C554" s="58">
+        <v>57.2</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E554" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F554" s="1">
+        <v>6</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I554" s="4">
+        <v>45513</v>
+      </c>
+      <c r="K554" s="12">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="L554" s="12">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M554" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="555" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C555" s="59">
+        <v>56.8</v>
+      </c>
+      <c r="D555" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E555" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F555" s="7">
+        <v>6</v>
+      </c>
+      <c r="H555" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I555" s="8">
+        <v>45513</v>
+      </c>
+      <c r="J555" s="13"/>
+      <c r="K555" s="13">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="L555" s="13">
+        <v>0.17222222222222222</v>
+      </c>
+      <c r="M555" s="7">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="S555" s="92"/>
+    </row>
+    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A556" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C556" s="58">
+        <v>55.5</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E556" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F556" s="1">
+        <v>3</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I556" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K556" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L556" s="12">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="M556" s="1">
+        <f t="shared" ref="M556:M564" si="9" xml:space="preserve"> (L556-K556)*24 * 60</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A557" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C557" s="58">
+        <v>59.3</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E557" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F557" s="1">
+        <v>3</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I557" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K557" s="12">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="L557" s="12">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="M557" s="1">
+        <f t="shared" si="9"/>
+        <v>188.00000000000003</v>
+      </c>
+    </row>
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A558" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C558" s="58">
+        <v>66.7</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E558" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F558" s="1">
+        <v>3</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I558" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K558" s="12">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="L558" s="12">
+        <v>0.20347222222222222</v>
+      </c>
+      <c r="M558" s="1">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A559" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C559" s="58">
+        <v>42.3</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E559" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F559" s="1">
+        <v>3</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I559" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K559" s="12">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="L559" s="12">
+        <v>0.20208333333333334</v>
+      </c>
+      <c r="M559" s="1">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A560" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C560" s="58">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E560" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F560" s="1">
+        <v>3</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I560" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K560" s="12">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="L560" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A561" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C561" s="58">
+        <v>33.5</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E561" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F561" s="1">
+        <v>3</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I561" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K561" s="12">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="L561" s="12">
+        <v>0.20069444444444445</v>
+      </c>
+      <c r="M561" s="1">
+        <f t="shared" si="9"/>
+        <v>192.00000000000003</v>
+      </c>
+    </row>
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A562" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C562" s="58">
+        <v>63.4</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E562" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F562" s="1">
+        <v>3</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I562" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K562" s="12">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="L562" s="12">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="M562" s="1">
+        <f t="shared" si="9"/>
+        <v>189.99999999999997</v>
+      </c>
+    </row>
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A563" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C563" s="58">
+        <v>60.5</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E563" s="1">
+        <v>206.5</v>
+      </c>
+      <c r="F563" s="1">
+        <v>3</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I563" s="4">
+        <v>45522</v>
+      </c>
+      <c r="K563" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L563" s="12">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="M563" s="1">
+        <f t="shared" si="9"/>
+        <v>188.99999999999997</v>
+      </c>
+    </row>
+    <row r="564" spans="1:19" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="125" t="s">
+        <v>400</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C564" s="59">
+        <v>60.5</v>
+      </c>
+      <c r="D564" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E564" s="7">
+        <v>206.5</v>
+      </c>
+      <c r="F564" s="7">
+        <v>3</v>
+      </c>
+      <c r="H564" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I564" s="8">
+        <v>45522</v>
+      </c>
+      <c r="J564" s="13"/>
+      <c r="K564" s="13">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="L564" s="13">
+        <v>0.19930555555555557</v>
+      </c>
+      <c r="M564" s="7">
+        <f t="shared" si="9"/>
+        <v>192.00000000000003</v>
+      </c>
+      <c r="S564" s="92"/>
+    </row>
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B565" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="C565" s="58">
+        <v>42</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E565" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F565" s="1">
+        <v>6</v>
+      </c>
+      <c r="I565" s="4">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B566" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C566" s="58">
+        <v>45</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E566" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F566" s="1">
+        <v>6</v>
+      </c>
+      <c r="I566" s="4">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="567" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B567" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="C567" s="58">
+        <v>43</v>
+      </c>
+      <c r="D567" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E567" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F567" s="7">
+        <v>6</v>
+      </c>
+      <c r="I567" s="4">
+        <v>45524</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="N7:O7"/>
@@ -25677,8 +26478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D15078-4959-3E40-9E50-427EA9D5AE17}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="162" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:F53"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26634,7 +27435,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C72" sqref="C72"/>

--- a/data_serum labeling mouse ID.xlsx
+++ b/data_serum labeling mouse ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139C9B5-7E85-D449-A21F-88259895983A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4211B-CDF4-C344-A88E-1C0EBB35911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
+    <workbookView xWindow="-4060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
   </bookViews>
   <sheets>
     <sheet name="infusion rounds" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="mouse data" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'infusion rounds'!$A$8:$R$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'infusion rounds'!$A$8:$T$567</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2818,6 +2818,11 @@
     <xf numFmtId="166" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2825,11 +2830,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3310,13 +3310,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C563" sqref="C563"/>
+      <selection pane="bottomRight" activeCell="G375" sqref="G375:G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,43 +3345,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
     </row>
     <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
@@ -3389,25 +3390,25 @@
       <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="56"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="121"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3472,7 +3473,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>158.99999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>151.00000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -3613,7 +3614,8 @@
         <v>64</v>
       </c>
       <c r="E12" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F12" s="1">
         <v>2.63</v>
@@ -3658,7 +3660,8 @@
         <v>64</v>
       </c>
       <c r="E13" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F13" s="1">
         <v>3.464</v>
@@ -3702,8 +3705,9 @@
       <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="7">
-        <v>380.4</v>
+      <c r="E14" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F14" s="7">
         <v>2.34</v>
@@ -3748,7 +3752,8 @@
         <v>64</v>
       </c>
       <c r="E15" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F15" s="1">
         <v>3.4159999999999999</v>
@@ -3793,7 +3798,8 @@
         <v>64</v>
       </c>
       <c r="E16" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F16" s="1">
         <v>3.8639999999999999</v>
@@ -3838,7 +3844,8 @@
         <v>64</v>
       </c>
       <c r="E17" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F17" s="1">
         <v>2.4300000000000002</v>
@@ -3885,8 +3892,9 @@
       <c r="D18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="14">
-        <v>380.4</v>
+      <c r="E18" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F18" s="14">
         <v>3.8239999999999998</v>
@@ -3937,7 +3945,8 @@
         <v>64</v>
       </c>
       <c r="E19" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F19" s="1">
         <v>3.7440000000000002</v>
@@ -3984,8 +3993,9 @@
       <c r="D20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="7">
-        <v>380.4</v>
+      <c r="E20" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F20" s="7">
         <v>3.6720000000000002</v>
@@ -4034,7 +4044,8 @@
         <v>64</v>
       </c>
       <c r="E21" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F21" s="1">
         <v>2.72</v>
@@ -4085,7 +4096,8 @@
         <v>64</v>
       </c>
       <c r="E22" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F22" s="1">
         <v>3.504</v>
@@ -4139,7 +4151,8 @@
         <v>64</v>
       </c>
       <c r="E23" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F23" s="1">
         <v>3.8319999999999999</v>
@@ -4187,7 +4200,8 @@
         <v>64</v>
       </c>
       <c r="E24" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F24" s="1">
         <v>3.9359999999999999</v>
@@ -4235,7 +4249,8 @@
         <v>64</v>
       </c>
       <c r="E25" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F25" s="1">
         <v>3.8639999999999999</v>
@@ -4285,8 +4300,9 @@
       <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="7">
-        <v>380.4</v>
+      <c r="E26" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F26" s="7">
         <v>2.66</v>
@@ -4335,7 +4351,8 @@
         <v>64</v>
       </c>
       <c r="E27" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F27" s="1">
         <v>3.8239999999999998</v>
@@ -4383,7 +4400,8 @@
         <v>64</v>
       </c>
       <c r="E28" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F28" s="1">
         <v>3.472</v>
@@ -4431,7 +4449,8 @@
         <v>64</v>
       </c>
       <c r="E29" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F29" s="1">
         <v>2.41</v>
@@ -4479,7 +4498,8 @@
         <v>64</v>
       </c>
       <c r="E30" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F30" s="1">
         <v>4.056</v>
@@ -4527,7 +4547,8 @@
         <v>64</v>
       </c>
       <c r="E31" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F31" s="1">
         <v>3.8239999999999998</v>
@@ -4577,8 +4598,9 @@
       <c r="D32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="7">
-        <v>380.4</v>
+      <c r="E32" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F32" s="7">
         <v>3.5</v>
@@ -4627,7 +4649,8 @@
         <v>64</v>
       </c>
       <c r="E33" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F33" s="1">
         <v>3.504</v>
@@ -4675,7 +4698,8 @@
         <v>64</v>
       </c>
       <c r="E34" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F34" s="1">
         <v>2.66</v>
@@ -4726,7 +4750,8 @@
         <v>64</v>
       </c>
       <c r="E35" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F35" s="1">
         <v>3.8239999999999998</v>
@@ -4774,7 +4799,8 @@
         <v>64</v>
       </c>
       <c r="E36" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F36" s="1">
         <v>3.9359999999999999</v>
@@ -4825,7 +4851,8 @@
         <v>64</v>
       </c>
       <c r="E37" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F37" s="1">
         <v>2.72</v>
@@ -4875,8 +4902,9 @@
       <c r="D38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="7">
-        <v>380.4</v>
+      <c r="E38" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F38" s="7">
         <v>3.8639999999999999</v>
@@ -4911,7 +4939,7 @@
       </c>
       <c r="S38" s="92"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>54</v>
       </c>
@@ -4959,7 +4987,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
@@ -5007,7 +5035,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>54</v>
       </c>
@@ -5055,7 +5083,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>54</v>
       </c>
@@ -5103,7 +5131,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>54</v>
       </c>
@@ -5151,7 +5179,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>54</v>
       </c>
@@ -5199,7 +5227,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>54</v>
       </c>
@@ -5248,7 +5276,7 @@
       </c>
       <c r="S45" s="92"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>56</v>
       </c>
@@ -5296,7 +5324,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>56</v>
       </c>
@@ -5344,7 +5372,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>56</v>
       </c>
@@ -5395,7 +5423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>56</v>
       </c>
@@ -5446,7 +5474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>56</v>
       </c>
@@ -5494,7 +5522,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>56</v>
       </c>
@@ -5543,7 +5571,7 @@
       </c>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>57</v>
       </c>
@@ -5591,7 +5619,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>57</v>
       </c>
@@ -5639,7 +5667,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
         <v>57</v>
       </c>
@@ -5688,7 +5716,7 @@
       </c>
       <c r="P54" s="18"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
         <v>57</v>
       </c>
@@ -5739,7 +5767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
         <v>57</v>
       </c>
@@ -5787,7 +5815,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>57</v>
       </c>
@@ -5838,7 +5866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>57</v>
       </c>
@@ -5890,7 +5918,7 @@
       </c>
       <c r="S58" s="92"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
         <v>58</v>
       </c>
@@ -5938,7 +5966,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
         <v>58</v>
       </c>
@@ -5986,7 +6014,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
         <v>58</v>
       </c>
@@ -6037,7 +6065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
         <v>58</v>
       </c>
@@ -6085,7 +6113,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
         <v>58</v>
       </c>
@@ -6133,7 +6161,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>58</v>
       </c>
@@ -6184,7 +6212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
         <v>21</v>
       </c>
@@ -6235,7 +6263,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
         <v>21</v>
       </c>
@@ -6283,7 +6311,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
         <v>21</v>
       </c>
@@ -6331,7 +6359,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
         <v>21</v>
       </c>
@@ -6379,7 +6407,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
         <v>21</v>
       </c>
@@ -6430,7 +6458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
         <v>21</v>
       </c>
@@ -6479,7 +6507,7 @@
       </c>
       <c r="P70" s="18"/>
     </row>
-    <row r="71" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
         <v>21</v>
       </c>
@@ -6528,7 +6556,7 @@
       </c>
       <c r="S71" s="92"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>62</v>
       </c>
@@ -6573,7 +6601,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
         <v>62</v>
       </c>
@@ -6618,7 +6646,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
         <v>62</v>
       </c>
@@ -6666,7 +6694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
         <v>62</v>
       </c>
@@ -6711,7 +6739,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
         <v>62</v>
       </c>
@@ -6756,7 +6784,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
         <v>62</v>
       </c>
@@ -6802,7 +6830,7 @@
       </c>
       <c r="S77" s="92"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
         <v>68</v>
       </c>
@@ -6847,7 +6875,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
         <v>68</v>
       </c>
@@ -6892,7 +6920,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
         <v>68</v>
       </c>
@@ -6940,7 +6968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
         <v>68</v>
       </c>
@@ -6985,7 +7013,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
         <v>68</v>
       </c>
@@ -7030,7 +7058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
         <v>68</v>
       </c>
@@ -7075,7 +7103,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>68</v>
       </c>
@@ -7121,7 +7149,7 @@
       </c>
       <c r="S84" s="92"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41" t="s">
         <v>69</v>
       </c>
@@ -7166,7 +7194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="41" t="s">
         <v>69</v>
       </c>
@@ -7208,7 +7236,7 @@
         <v>159.99999999999991</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="41" t="s">
         <v>69</v>
       </c>
@@ -7250,7 +7278,7 @@
         <v>163.99999999999989</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41" t="s">
         <v>69</v>
       </c>
@@ -7295,7 +7323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
         <v>69</v>
       </c>
@@ -7341,7 +7369,7 @@
       </c>
       <c r="S89" s="92"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="41" t="s">
         <v>90</v>
       </c>
@@ -7389,7 +7417,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="41" t="s">
         <v>90</v>
       </c>
@@ -7437,7 +7465,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="41" t="s">
         <v>90</v>
       </c>
@@ -7485,7 +7513,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="41" t="s">
         <v>90</v>
       </c>
@@ -7533,7 +7561,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="41" t="s">
         <v>90</v>
       </c>
@@ -7581,7 +7609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="41" t="s">
         <v>90</v>
       </c>
@@ -7629,7 +7657,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
         <v>90</v>
       </c>
@@ -7678,7 +7706,7 @@
       </c>
       <c r="S96" s="92"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -7726,7 +7754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -7774,7 +7802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -7822,7 +7850,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>95</v>
       </c>
@@ -7870,7 +7898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>95</v>
       </c>
@@ -7933,7 +7961,8 @@
         <v>64</v>
       </c>
       <c r="E102" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F102" s="1">
         <v>2.4</v>
@@ -7981,7 +8010,8 @@
         <v>64</v>
       </c>
       <c r="E103" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F103" s="1">
         <v>3.5840000000000001</v>
@@ -8028,8 +8058,9 @@
       <c r="D104" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="7">
-        <v>380.4</v>
+      <c r="E104" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F104" s="7">
         <v>3.6080000000000001</v>
@@ -8064,7 +8095,7 @@
       </c>
       <c r="S104" s="92"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="45" t="s">
         <v>50</v>
       </c>
@@ -8112,7 +8143,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="41" t="s">
         <v>50</v>
       </c>
@@ -8160,7 +8191,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="41" t="s">
         <v>50</v>
       </c>
@@ -8211,7 +8242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="41" t="s">
         <v>50</v>
       </c>
@@ -8259,7 +8290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="41" t="s">
         <v>50</v>
       </c>
@@ -8307,7 +8338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="41" t="s">
         <v>50</v>
       </c>
@@ -8355,7 +8386,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
         <v>50</v>
       </c>
@@ -8404,7 +8435,7 @@
       </c>
       <c r="S111" s="92"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="41" t="s">
         <v>99</v>
       </c>
@@ -8455,7 +8486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="41" t="s">
         <v>99</v>
       </c>
@@ -8503,7 +8534,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="41" t="s">
         <v>99</v>
       </c>
@@ -8551,7 +8582,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="41" t="s">
         <v>99</v>
       </c>
@@ -8599,7 +8630,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="41" t="s">
         <v>99</v>
       </c>
@@ -8647,7 +8678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="41" t="s">
         <v>99</v>
       </c>
@@ -8695,7 +8726,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="42" t="s">
         <v>99</v>
       </c>
@@ -8744,7 +8775,7 @@
       </c>
       <c r="S118" s="92"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="43" t="s">
         <v>100</v>
       </c>
@@ -8792,7 +8823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="43" t="s">
         <v>100</v>
       </c>
@@ -8840,7 +8871,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="43" t="s">
         <v>100</v>
       </c>
@@ -8888,7 +8919,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="43" t="s">
         <v>100</v>
       </c>
@@ -8936,7 +8967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="43" t="s">
         <v>100</v>
       </c>
@@ -8984,7 +9015,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="43" t="s">
         <v>100</v>
       </c>
@@ -9032,7 +9063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="43" t="s">
         <v>100</v>
       </c>
@@ -9083,7 +9114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="s">
         <v>100</v>
       </c>
@@ -9132,7 +9163,7 @@
       </c>
       <c r="S126" s="92"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="43" t="s">
         <v>101</v>
       </c>
@@ -9180,7 +9211,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="43" t="s">
         <v>101</v>
       </c>
@@ -9228,7 +9259,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="43" t="s">
         <v>101</v>
       </c>
@@ -9276,7 +9307,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="43" t="s">
         <v>101</v>
       </c>
@@ -9324,7 +9355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="43" t="s">
         <v>101</v>
       </c>
@@ -9372,7 +9403,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="43" t="s">
         <v>101</v>
       </c>
@@ -9426,7 +9457,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="s">
         <v>101</v>
       </c>
@@ -9477,7 +9508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="43" t="s">
         <v>104</v>
       </c>
@@ -9525,7 +9556,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="43" t="s">
         <v>104</v>
       </c>
@@ -9573,7 +9604,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="43" t="s">
         <v>104</v>
       </c>
@@ -9621,7 +9652,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="43" t="s">
         <v>104</v>
       </c>
@@ -9669,7 +9700,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="43" t="s">
         <v>104</v>
       </c>
@@ -9717,7 +9748,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="43" t="s">
         <v>104</v>
       </c>
@@ -9765,7 +9796,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
         <v>104</v>
       </c>
@@ -9814,7 +9845,7 @@
       </c>
       <c r="S140" s="92"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="34" t="s">
         <v>105</v>
       </c>
@@ -9862,7 +9893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="34" t="s">
         <v>105</v>
       </c>
@@ -9910,7 +9941,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="34" t="s">
         <v>105</v>
       </c>
@@ -9955,7 +9986,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="34" t="s">
         <v>105</v>
       </c>
@@ -10000,7 +10031,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="34" t="s">
         <v>105</v>
       </c>
@@ -10045,7 +10076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="34" t="s">
         <v>105</v>
       </c>
@@ -10093,7 +10124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="34" t="s">
         <v>105</v>
       </c>
@@ -10138,7 +10169,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="35" t="s">
         <v>105</v>
       </c>
@@ -10181,7 +10212,7 @@
       </c>
       <c r="S148" s="92"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="34" t="s">
         <v>106</v>
       </c>
@@ -10232,7 +10263,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="34" t="s">
         <v>106</v>
       </c>
@@ -10283,7 +10314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="34" t="s">
         <v>106</v>
       </c>
@@ -10331,7 +10362,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="34" t="s">
         <v>106</v>
       </c>
@@ -10379,7 +10410,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="34" t="s">
         <v>106</v>
       </c>
@@ -10427,7 +10458,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="34" t="s">
         <v>106</v>
       </c>
@@ -10475,7 +10506,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="34" t="s">
         <v>106</v>
       </c>
@@ -10526,7 +10557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35" t="s">
         <v>106</v>
       </c>
@@ -10575,7 +10606,7 @@
       </c>
       <c r="S156" s="92"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="34" t="s">
         <v>108</v>
       </c>
@@ -10626,7 +10657,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="34" t="s">
         <v>108</v>
       </c>
@@ -10674,7 +10705,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="34" t="s">
         <v>108</v>
       </c>
@@ -10722,7 +10753,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="34" t="s">
         <v>108</v>
       </c>
@@ -10770,7 +10801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="34" t="s">
         <v>108</v>
       </c>
@@ -10818,7 +10849,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="162" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="35" t="s">
         <v>108</v>
       </c>
@@ -10867,7 +10898,7 @@
       </c>
       <c r="S162" s="92"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="34" t="s">
         <v>110</v>
       </c>
@@ -10915,7 +10946,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="34" t="s">
         <v>110</v>
       </c>
@@ -10963,7 +10994,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="34" t="s">
         <v>110</v>
       </c>
@@ -11011,7 +11042,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="34" t="s">
         <v>110</v>
       </c>
@@ -11059,7 +11090,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="34" t="s">
         <v>110</v>
       </c>
@@ -11107,7 +11138,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="34" t="s">
         <v>110</v>
       </c>
@@ -11155,7 +11186,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="35" t="s">
         <v>110</v>
       </c>
@@ -11218,7 +11249,8 @@
         <v>64</v>
       </c>
       <c r="E170" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F170" s="1">
         <v>4.4320000000000004</v>
@@ -11263,7 +11295,8 @@
         <v>64</v>
       </c>
       <c r="E171" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F171" s="1">
         <v>2.63</v>
@@ -11311,7 +11344,8 @@
         <v>64</v>
       </c>
       <c r="E172" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F172" s="1">
         <v>4.04</v>
@@ -11359,7 +11393,8 @@
         <v>64</v>
       </c>
       <c r="E173" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F173" s="1">
         <v>4.4400000000000004</v>
@@ -11407,7 +11442,8 @@
         <v>64</v>
       </c>
       <c r="E174" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F174" s="1">
         <v>4.4640000000000004</v>
@@ -11455,7 +11491,8 @@
         <v>64</v>
       </c>
       <c r="E175" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F175" s="1">
         <v>4.8159999999999998</v>
@@ -11506,7 +11543,8 @@
         <v>64</v>
       </c>
       <c r="E176" s="1">
-        <v>380.4</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F176" s="1">
         <v>4.4320000000000004</v>
@@ -11556,8 +11594,9 @@
       <c r="D177" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E177" s="7">
-        <v>380.4</v>
+      <c r="E177" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F177" s="7">
         <v>4.4880000000000004</v>
@@ -11592,7 +11631,7 @@
       </c>
       <c r="S177" s="92"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>112</v>
       </c>
@@ -11640,7 +11679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>112</v>
       </c>
@@ -11688,7 +11727,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>112</v>
       </c>
@@ -11736,7 +11775,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>112</v>
       </c>
@@ -11787,7 +11826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>112</v>
       </c>
@@ -11835,7 +11874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>112</v>
       </c>
@@ -11898,7 +11937,8 @@
         <v>64</v>
       </c>
       <c r="E184" s="1">
-        <v>380.3</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F184" s="1">
         <v>2.96</v>
@@ -11946,7 +11986,8 @@
         <v>64</v>
       </c>
       <c r="E185" s="1">
-        <v>380.3</v>
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F185" s="1">
         <v>3.6880000000000002</v>
@@ -11990,8 +12031,9 @@
       <c r="D186" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E186" s="20">
-        <v>380.3</v>
+      <c r="E186" s="1">
+        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <v>403.22399999999999</v>
       </c>
       <c r="F186" s="20">
         <v>2.1240000000000001</v>
@@ -12037,7 +12079,8 @@
         <v>64</v>
       </c>
       <c r="E187" s="1">
-        <v>421.7</v>
+        <f xml:space="preserve"> 421.7 * 1.06</f>
+        <v>447.00200000000001</v>
       </c>
       <c r="F187" s="1">
         <v>3.6640000000000001</v>
@@ -12082,7 +12125,8 @@
         <v>64</v>
       </c>
       <c r="E188" s="1">
-        <v>421.7</v>
+        <f xml:space="preserve"> 421.7 * 1.06</f>
+        <v>447.00200000000001</v>
       </c>
       <c r="F188" s="1">
         <v>2.1160000000000001</v>
@@ -12126,8 +12170,9 @@
       <c r="D189" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E189" s="29">
-        <v>421.7</v>
+      <c r="E189" s="1">
+        <f xml:space="preserve"> 421.7 * 1.06</f>
+        <v>447.00200000000001</v>
       </c>
       <c r="I189" s="31">
         <v>44550</v>
@@ -12153,7 +12198,8 @@
         <v>64</v>
       </c>
       <c r="E190" s="1">
-        <v>421.7</v>
+        <f xml:space="preserve"> 421.7 * 1.06</f>
+        <v>447.00200000000001</v>
       </c>
       <c r="F190" s="1">
         <v>4.2880000000000003</v>
@@ -12197,8 +12243,9 @@
       <c r="D191" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E191" s="7">
-        <v>421.7</v>
+      <c r="E191" s="1">
+        <f xml:space="preserve"> 421.7 * 1.06</f>
+        <v>447.00200000000001</v>
       </c>
       <c r="F191" s="28">
         <v>3.32</v>
@@ -12230,7 +12277,7 @@
       </c>
       <c r="S191" s="92"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>121</v>
       </c>
@@ -12275,7 +12322,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>121</v>
       </c>
@@ -12320,7 +12367,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>121</v>
       </c>
@@ -12365,7 +12412,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>121</v>
       </c>
@@ -12410,7 +12457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>121</v>
       </c>
@@ -12455,7 +12502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>121</v>
       </c>
@@ -12500,7 +12547,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>121</v>
       </c>
@@ -12545,7 +12592,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="199" spans="1:19" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>121</v>
       </c>
@@ -12591,7 +12638,7 @@
       </c>
       <c r="S199" s="92"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="43" t="s">
         <v>184</v>
       </c>
@@ -12633,7 +12680,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="43" t="s">
         <v>184</v>
       </c>
@@ -12675,7 +12722,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="43" t="s">
         <v>184</v>
       </c>
@@ -12717,7 +12764,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="43" t="s">
         <v>184</v>
       </c>
@@ -12759,7 +12806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="43" t="s">
         <v>184</v>
       </c>
@@ -12801,7 +12848,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="43" t="s">
         <v>184</v>
       </c>
@@ -12843,7 +12890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="206" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="43" t="s">
         <v>184</v>
       </c>
@@ -12885,7 +12932,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="43" t="s">
         <v>124</v>
       </c>
@@ -12927,7 +12974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="43" t="s">
         <v>124</v>
       </c>
@@ -12969,7 +13016,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="43" t="s">
         <v>124</v>
       </c>
@@ -13011,7 +13058,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="43" t="s">
         <v>124</v>
       </c>
@@ -13053,7 +13100,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="43" t="s">
         <v>124</v>
       </c>
@@ -13095,7 +13142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="43" t="s">
         <v>124</v>
       </c>
@@ -13137,7 +13184,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="213" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
         <v>124</v>
       </c>
@@ -13179,7 +13226,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="43" t="s">
         <v>133</v>
       </c>
@@ -13221,7 +13268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="43" t="s">
         <v>133</v>
       </c>
@@ -13263,7 +13310,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="43" t="s">
         <v>133</v>
       </c>
@@ -13305,7 +13352,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="43" t="s">
         <v>133</v>
       </c>
@@ -13347,7 +13394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="43" t="s">
         <v>133</v>
       </c>
@@ -13389,7 +13436,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="43" t="s">
         <v>133</v>
       </c>
@@ -13431,7 +13478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="220" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="s">
         <v>133</v>
       </c>
@@ -13473,7 +13520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="43" t="s">
         <v>141</v>
       </c>
@@ -13515,7 +13562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="43" t="s">
         <v>141</v>
       </c>
@@ -13557,7 +13604,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="43" t="s">
         <v>141</v>
       </c>
@@ -13599,7 +13646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="43" t="s">
         <v>141</v>
       </c>
@@ -13641,7 +13688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="43" t="s">
         <v>141</v>
       </c>
@@ -13683,7 +13730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="43" t="s">
         <v>141</v>
       </c>
@@ -13725,7 +13772,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="s">
         <v>141</v>
       </c>
@@ -13767,7 +13814,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="49" t="s">
         <v>148</v>
       </c>
@@ -13809,7 +13856,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="49" t="s">
         <v>148</v>
       </c>
@@ -13851,7 +13898,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="49" t="s">
         <v>148</v>
       </c>
@@ -13893,7 +13940,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="49" t="s">
         <v>148</v>
       </c>
@@ -13935,7 +13982,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="49" t="s">
         <v>148</v>
       </c>
@@ -13977,7 +14024,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="49" t="s">
         <v>148</v>
       </c>
@@ -14019,7 +14066,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="49" t="s">
         <v>148</v>
       </c>
@@ -14061,7 +14108,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="50" t="s">
         <v>148</v>
       </c>
@@ -14103,7 +14150,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="49" t="s">
         <v>150</v>
       </c>
@@ -14145,7 +14192,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="49" t="s">
         <v>150</v>
       </c>
@@ -14187,7 +14234,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="49" t="s">
         <v>150</v>
       </c>
@@ -14229,7 +14276,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="49" t="s">
         <v>150</v>
       </c>
@@ -14271,7 +14318,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="49" t="s">
         <v>150</v>
       </c>
@@ -14313,7 +14360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="49" t="s">
         <v>150</v>
       </c>
@@ -14355,7 +14402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="49" t="s">
         <v>150</v>
       </c>
@@ -14397,7 +14444,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="243" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="50" t="s">
         <v>150</v>
       </c>
@@ -14439,7 +14486,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>183</v>
       </c>
@@ -14468,7 +14515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>183</v>
       </c>
@@ -14497,7 +14544,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>183</v>
       </c>
@@ -14526,7 +14573,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>183</v>
       </c>
@@ -14555,7 +14602,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>183</v>
       </c>
@@ -14584,7 +14631,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>183</v>
       </c>
@@ -14613,7 +14660,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>183</v>
       </c>
@@ -14642,7 +14689,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="251" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>183</v>
       </c>
@@ -14673,7 +14720,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>186</v>
       </c>
@@ -14715,7 +14762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>186</v>
       </c>
@@ -14754,7 +14801,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>186</v>
       </c>
@@ -14793,7 +14840,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>186</v>
       </c>
@@ -14832,7 +14879,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>186</v>
       </c>
@@ -14871,7 +14918,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>186</v>
       </c>
@@ -14913,7 +14960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>186</v>
       </c>
@@ -14952,7 +14999,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>186</v>
       </c>
@@ -14991,7 +15038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>186</v>
       </c>
@@ -15031,7 +15078,7 @@
       </c>
       <c r="S260" s="92"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>193</v>
       </c>
@@ -15070,7 +15117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>193</v>
       </c>
@@ -15109,7 +15156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>193</v>
       </c>
@@ -15148,7 +15195,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>193</v>
       </c>
@@ -15187,7 +15234,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>193</v>
       </c>
@@ -15226,7 +15273,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>193</v>
       </c>
@@ -15265,7 +15312,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="267" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>193</v>
       </c>
@@ -15305,7 +15352,7 @@
       </c>
       <c r="S267" s="92"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>194</v>
       </c>
@@ -15344,7 +15391,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>194</v>
       </c>
@@ -15383,7 +15430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>194</v>
       </c>
@@ -15422,7 +15469,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>194</v>
       </c>
@@ -15461,7 +15508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>194</v>
       </c>
@@ -15500,7 +15547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>194</v>
       </c>
@@ -15539,7 +15586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>194</v>
       </c>
@@ -15578,7 +15625,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>194</v>
       </c>
@@ -15617,7 +15664,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="276" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>194</v>
       </c>
@@ -15657,7 +15704,7 @@
       </c>
       <c r="S276" s="92"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>201</v>
       </c>
@@ -15696,7 +15743,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>201</v>
       </c>
@@ -15735,7 +15782,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>201</v>
       </c>
@@ -15774,7 +15821,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>201</v>
       </c>
@@ -15816,7 +15863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>201</v>
       </c>
@@ -15855,7 +15902,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>201</v>
       </c>
@@ -15894,7 +15941,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>201</v>
       </c>
@@ -15933,7 +15980,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>201</v>
       </c>
@@ -15972,7 +16019,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>201</v>
       </c>
@@ -16011,7 +16058,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>201</v>
       </c>
@@ -16051,7 +16098,7 @@
       </c>
       <c r="S286" s="92"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>213</v>
       </c>
@@ -16087,7 +16134,7 @@
         <v>155.99999999999991</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>213</v>
       </c>
@@ -16126,7 +16173,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>213</v>
       </c>
@@ -16162,7 +16209,7 @@
         <v>158.99999999999991</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>213</v>
       </c>
@@ -16198,7 +16245,7 @@
         <v>159.99999999999991</v>
       </c>
     </row>
-    <row r="291" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>213</v>
       </c>
@@ -16235,7 +16282,7 @@
       </c>
       <c r="S291" s="92"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>219</v>
       </c>
@@ -16274,7 +16321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>219</v>
       </c>
@@ -16313,7 +16360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>219</v>
       </c>
@@ -16352,7 +16399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>219</v>
       </c>
@@ -16388,7 +16435,7 @@
         <v>160.00000000000006</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>219</v>
       </c>
@@ -16427,7 +16474,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="297" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>219</v>
       </c>
@@ -16464,7 +16511,7 @@
       </c>
       <c r="S297" s="92"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>226</v>
       </c>
@@ -16500,7 +16547,7 @@
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>226</v>
       </c>
@@ -16539,7 +16586,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>226</v>
       </c>
@@ -16575,7 +16622,7 @@
         <v>143.00000000000014</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>226</v>
       </c>
@@ -16611,7 +16658,7 @@
         <v>142.00000000000014</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>226</v>
       </c>
@@ -16650,7 +16697,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="303" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>226</v>
       </c>
@@ -16687,7 +16734,7 @@
       </c>
       <c r="S303" s="92"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>231</v>
       </c>
@@ -16723,7 +16770,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>231</v>
       </c>
@@ -16762,7 +16809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>231</v>
       </c>
@@ -16798,7 +16845,7 @@
         <v>92.999999999999986</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>231</v>
       </c>
@@ -16834,7 +16881,7 @@
         <v>92.999999999999986</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>231</v>
       </c>
@@ -16873,7 +16920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="309" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>231</v>
       </c>
@@ -16910,7 +16957,7 @@
       </c>
       <c r="S309" s="92"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="14" t="s">
         <v>235</v>
       </c>
@@ -16946,7 +16993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="14" t="s">
         <v>235</v>
       </c>
@@ -16982,7 +17029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="14" t="s">
         <v>235</v>
       </c>
@@ -17021,7 +17068,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="14" t="s">
         <v>235</v>
       </c>
@@ -17057,7 +17104,7 @@
         <v>87.000000000000014</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="14" t="s">
         <v>235</v>
       </c>
@@ -17093,7 +17140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="315" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="66" t="s">
         <v>235</v>
       </c>
@@ -17130,7 +17177,7 @@
       </c>
       <c r="S315" s="92"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>237</v>
       </c>
@@ -17166,7 +17213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>237</v>
       </c>
@@ -17202,7 +17249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>237</v>
       </c>
@@ -17238,7 +17285,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>237</v>
       </c>
@@ -17274,7 +17321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>237</v>
       </c>
@@ -17310,7 +17357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="321" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>237</v>
       </c>
@@ -17347,7 +17394,7 @@
       </c>
       <c r="S321" s="92"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>241</v>
       </c>
@@ -17383,7 +17430,7 @@
         <v>94.999999999999986</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>241</v>
       </c>
@@ -17419,7 +17466,7 @@
         <v>95.999999999999972</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>241</v>
       </c>
@@ -17455,7 +17502,7 @@
         <v>95.999999999999972</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>241</v>
       </c>
@@ -17491,7 +17538,7 @@
         <v>94.999999999999986</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>241</v>
       </c>
@@ -17527,7 +17574,7 @@
         <v>95.999999999999972</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>241</v>
       </c>
@@ -17563,7 +17610,7 @@
         <v>96.999999999999972</v>
       </c>
     </row>
-    <row r="328" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>241</v>
       </c>
@@ -17600,7 +17647,7 @@
       </c>
       <c r="S328" s="92"/>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>242</v>
       </c>
@@ -17636,7 +17683,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>242</v>
       </c>
@@ -17678,7 +17725,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>242</v>
       </c>
@@ -17720,7 +17767,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>242</v>
       </c>
@@ -17762,7 +17809,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>242</v>
       </c>
@@ -17804,7 +17851,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>242</v>
       </c>
@@ -17840,7 +17887,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="335" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>242</v>
       </c>
@@ -17883,7 +17930,7 @@
       </c>
       <c r="S335" s="92"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>248</v>
       </c>
@@ -17919,7 +17966,7 @@
         <v>120.00000000000006</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>248</v>
       </c>
@@ -17955,7 +18002,7 @@
         <v>120.00000000000006</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>248</v>
       </c>
@@ -17991,7 +18038,7 @@
         <v>121.00000000000006</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>248</v>
       </c>
@@ -18027,7 +18074,7 @@
         <v>123.00000000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>248</v>
       </c>
@@ -18063,7 +18110,7 @@
         <v>121.00000000000006</v>
       </c>
     </row>
-    <row r="341" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>248</v>
       </c>
@@ -18100,7 +18147,7 @@
       </c>
       <c r="S341" s="92"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>253</v>
       </c>
@@ -18142,7 +18189,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>253</v>
       </c>
@@ -18181,7 +18228,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>253</v>
       </c>
@@ -18220,7 +18267,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>253</v>
       </c>
@@ -18259,7 +18306,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>253</v>
       </c>
@@ -18298,7 +18345,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>253</v>
       </c>
@@ -18340,7 +18387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="348" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>253</v>
       </c>
@@ -18380,7 +18427,7 @@
       </c>
       <c r="S348" s="92"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>249</v>
       </c>
@@ -18416,7 +18463,7 @@
         <v>94.999999999999986</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>249</v>
       </c>
@@ -18452,7 +18499,7 @@
         <v>94.000000000000142</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>249</v>
       </c>
@@ -18488,7 +18535,7 @@
         <v>93.999999999999986</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>249</v>
       </c>
@@ -18524,7 +18571,7 @@
         <v>93.999999999999986</v>
       </c>
     </row>
-    <row r="353" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>249</v>
       </c>
@@ -18561,7 +18608,7 @@
       </c>
       <c r="S353" s="92"/>
     </row>
-    <row r="354" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>256</v>
       </c>
@@ -18597,7 +18644,7 @@
         <v>199.99999999999994</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>256</v>
       </c>
@@ -18633,7 +18680,7 @@
         <v>195.99999999999994</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>256</v>
       </c>
@@ -18669,7 +18716,7 @@
         <v>187.99999999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>256</v>
       </c>
@@ -18706,7 +18753,7 @@
       </c>
       <c r="S357" s="92"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>258</v>
       </c>
@@ -18742,7 +18789,7 @@
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>258</v>
       </c>
@@ -18778,7 +18825,7 @@
         <v>147.99999999999994</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>258</v>
       </c>
@@ -18814,7 +18861,7 @@
         <v>145.99999999999997</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>258</v>
       </c>
@@ -18850,7 +18897,7 @@
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>258</v>
       </c>
@@ -18886,7 +18933,7 @@
         <v>145.99999999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>258</v>
       </c>
@@ -18922,7 +18969,7 @@
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>258</v>
       </c>
@@ -18958,7 +19005,7 @@
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>258</v>
       </c>
@@ -18995,7 +19042,7 @@
       </c>
       <c r="S365" s="92"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>261</v>
       </c>
@@ -19031,7 +19078,7 @@
         <v>151.99999999999994</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>261</v>
       </c>
@@ -19067,7 +19114,7 @@
         <v>152.99999999999994</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>261</v>
       </c>
@@ -19103,7 +19150,7 @@
         <v>150.99999999999994</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>261</v>
       </c>
@@ -19139,7 +19186,7 @@
         <v>151.99999999999994</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>261</v>
       </c>
@@ -19175,7 +19222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>261</v>
       </c>
@@ -19211,7 +19258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="372" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>261</v>
       </c>
@@ -19262,7 +19309,8 @@
         <v>64</v>
       </c>
       <c r="E373" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F373" s="1">
         <v>5</v>
@@ -19298,7 +19346,8 @@
         <v>64</v>
       </c>
       <c r="E374" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F374" s="1">
         <v>5</v>
@@ -19334,7 +19383,8 @@
         <v>64</v>
       </c>
       <c r="E375" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F375" s="1">
         <v>5</v>
@@ -19370,7 +19420,8 @@
         <v>64</v>
       </c>
       <c r="E376" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F376" s="1">
         <v>4.5</v>
@@ -19406,7 +19457,8 @@
         <v>64</v>
       </c>
       <c r="E377" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F377" s="1">
         <v>4</v>
@@ -19451,7 +19503,8 @@
         <v>64</v>
       </c>
       <c r="E378" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F378" s="1">
         <v>3.69</v>
@@ -19495,8 +19548,9 @@
       <c r="D379" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E379" s="7">
-        <v>325.5</v>
+      <c r="E379" s="1">
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F379" s="7">
         <v>3.47</v>
@@ -19527,7 +19581,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>280</v>
       </c>
@@ -19566,7 +19620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>280</v>
       </c>
@@ -19602,7 +19656,7 @@
         <v>156.99999999999991</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>280</v>
       </c>
@@ -19638,7 +19692,7 @@
         <v>156.99999999999991</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>280</v>
       </c>
@@ -19688,7 +19742,8 @@
         <v>64</v>
       </c>
       <c r="E384" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F384" s="1">
         <v>3.5</v>
@@ -19730,7 +19785,8 @@
         <v>64</v>
       </c>
       <c r="E385" s="1">
-        <v>325.5</v>
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F385" s="1">
         <v>3.5</v>
@@ -19774,8 +19830,9 @@
       <c r="D386" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E386" s="7">
-        <v>325.5</v>
+      <c r="E386" s="1">
+        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <v>345.03000000000003</v>
       </c>
       <c r="F386" s="7">
         <v>3.5</v>
@@ -19804,7 +19861,7 @@
       </c>
       <c r="S386" s="92"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>286</v>
       </c>
@@ -19833,7 +19890,7 @@
         <v>0.62638888888888888</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>286</v>
       </c>
@@ -19862,7 +19919,7 @@
         <v>0.62777777777777777</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>286</v>
       </c>
@@ -19891,7 +19948,7 @@
         <v>0.63055555555555554</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>286</v>
       </c>
@@ -19920,7 +19977,7 @@
         <v>0.63263888888888886</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>286</v>
       </c>
@@ -19949,7 +20006,7 @@
         <v>0.63472222222222219</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>286</v>
       </c>
@@ -19978,7 +20035,7 @@
         <v>0.63680555555555551</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>286</v>
       </c>
@@ -20007,7 +20064,7 @@
         <v>0.63888888888888884</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>286</v>
       </c>
@@ -20036,7 +20093,7 @@
         <v>0.64027777777777772</v>
       </c>
     </row>
-    <row r="395" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>286</v>
       </c>
@@ -20068,7 +20125,7 @@
       <c r="L395" s="13"/>
       <c r="S395" s="92"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>294</v>
       </c>
@@ -20104,7 +20161,7 @@
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>294</v>
       </c>
@@ -20140,7 +20197,7 @@
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>294</v>
       </c>
@@ -20176,7 +20233,7 @@
         <v>100.99999999999996</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>294</v>
       </c>
@@ -20212,7 +20269,7 @@
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>294</v>
       </c>
@@ -20248,7 +20305,7 @@
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>294</v>
       </c>
@@ -20284,7 +20341,7 @@
         <v>102.99999999999996</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>294</v>
       </c>
@@ -20320,7 +20377,7 @@
         <v>100.99999999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>294</v>
       </c>
@@ -20356,7 +20413,7 @@
         <v>148.99999999999994</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>294</v>
       </c>
@@ -20392,7 +20449,7 @@
         <v>149.00000000000011</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>294</v>
       </c>
@@ -20428,7 +20485,7 @@
         <v>148.00000000000011</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>294</v>
       </c>
@@ -20464,7 +20521,7 @@
         <v>149.00000000000011</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>294</v>
       </c>
@@ -20500,7 +20557,7 @@
         <v>148.00000000000011</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>294</v>
       </c>
@@ -20536,7 +20593,7 @@
         <v>146.99999999999994</v>
       </c>
     </row>
-    <row r="409" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>294</v>
       </c>
@@ -20573,7 +20630,7 @@
       </c>
       <c r="S409" s="92"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>295</v>
       </c>
@@ -20612,7 +20669,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>295</v>
       </c>
@@ -20651,7 +20708,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="412" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>295</v>
       </c>
@@ -20690,7 +20747,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>295</v>
       </c>
@@ -20729,7 +20786,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>295</v>
       </c>
@@ -20768,7 +20825,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>295</v>
       </c>
@@ -20807,7 +20864,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="416" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>295</v>
       </c>
@@ -20846,7 +20903,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>304</v>
       </c>
@@ -20885,7 +20942,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>304</v>
       </c>
@@ -20924,7 +20981,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>304</v>
       </c>
@@ -20963,7 +21020,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>304</v>
       </c>
@@ -21002,7 +21059,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>304</v>
       </c>
@@ -21041,7 +21098,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="422" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>304</v>
       </c>
@@ -21080,7 +21137,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>313</v>
       </c>
@@ -21120,7 +21177,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>313</v>
       </c>
@@ -21160,7 +21217,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>313</v>
       </c>
@@ -21200,7 +21257,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>313</v>
       </c>
@@ -21240,7 +21297,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>313</v>
       </c>
@@ -21280,7 +21337,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>313</v>
       </c>
@@ -21320,7 +21377,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="429" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>313</v>
       </c>
@@ -21360,7 +21417,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>323</v>
       </c>
@@ -21400,7 +21457,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>323</v>
       </c>
@@ -21440,7 +21497,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>323</v>
       </c>
@@ -21480,7 +21537,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="433" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>323</v>
       </c>
@@ -21520,7 +21577,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>330</v>
       </c>
@@ -21560,7 +21617,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>330</v>
       </c>
@@ -21600,7 +21657,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>330</v>
       </c>
@@ -21640,7 +21697,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>330</v>
       </c>
@@ -21680,7 +21737,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>330</v>
       </c>
@@ -21720,7 +21777,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>330</v>
       </c>
@@ -21760,7 +21817,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="440" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>330</v>
       </c>
@@ -21800,7 +21857,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>337</v>
       </c>
@@ -21837,7 +21894,7 @@
       </c>
       <c r="N441" s="5"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>337</v>
       </c>
@@ -21874,7 +21931,7 @@
       </c>
       <c r="N442" s="5"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>337</v>
       </c>
@@ -21911,7 +21968,7 @@
       </c>
       <c r="N443" s="5"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>337</v>
       </c>
@@ -21948,7 +22005,7 @@
       </c>
       <c r="N444" s="5"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>337</v>
       </c>
@@ -21985,7 +22042,7 @@
       </c>
       <c r="N445" s="5"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>337</v>
       </c>
@@ -22022,7 +22079,7 @@
       </c>
       <c r="N446" s="5"/>
     </row>
-    <row r="447" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>337</v>
       </c>
@@ -22060,7 +22117,7 @@
       <c r="N447" s="5"/>
       <c r="S447" s="92"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>341</v>
       </c>
@@ -22094,7 +22151,7 @@
       </c>
       <c r="N448" s="5"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>341</v>
       </c>
@@ -22128,7 +22185,7 @@
       </c>
       <c r="N449" s="5"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>341</v>
       </c>
@@ -22162,7 +22219,7 @@
       </c>
       <c r="N450" s="5"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>341</v>
       </c>
@@ -22196,7 +22253,7 @@
       </c>
       <c r="N451" s="5"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>341</v>
       </c>
@@ -22230,7 +22287,7 @@
       </c>
       <c r="N452" s="5"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="20" t="s">
         <v>341</v>
       </c>
@@ -22267,7 +22324,7 @@
       </c>
       <c r="N453" s="5"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>341</v>
       </c>
@@ -22304,7 +22361,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>341</v>
       </c>
@@ -22341,7 +22398,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>341</v>
       </c>
@@ -22378,7 +22435,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>341</v>
       </c>
@@ -22415,7 +22472,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>341</v>
       </c>
@@ -22452,7 +22509,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>341</v>
       </c>
@@ -22489,7 +22546,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="460" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
         <v>341</v>
       </c>
@@ -22528,7 +22585,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>345</v>
       </c>
@@ -22565,7 +22622,7 @@
       </c>
       <c r="N461" s="5"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>345</v>
       </c>
@@ -22602,7 +22659,7 @@
       </c>
       <c r="N462" s="5"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="20" t="s">
         <v>345</v>
       </c>
@@ -22639,7 +22696,7 @@
       </c>
       <c r="N463" s="5"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>345</v>
       </c>
@@ -22676,7 +22733,7 @@
       </c>
       <c r="N464" s="5"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>345</v>
       </c>
@@ -22713,7 +22770,7 @@
       </c>
       <c r="N465" s="5"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>345</v>
       </c>
@@ -22750,7 +22807,7 @@
       </c>
       <c r="N466" s="5"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>345</v>
       </c>
@@ -22787,7 +22844,7 @@
       </c>
       <c r="N467" s="5"/>
     </row>
-    <row r="468" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>345</v>
       </c>
@@ -22825,7 +22882,7 @@
       <c r="N468" s="9"/>
       <c r="S468" s="92"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>350</v>
       </c>
@@ -22862,7 +22919,7 @@
       </c>
       <c r="N469" s="27"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>350</v>
       </c>
@@ -22899,7 +22956,7 @@
       </c>
       <c r="N470" s="27"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>350</v>
       </c>
@@ -22936,7 +22993,7 @@
       </c>
       <c r="N471" s="27"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>350</v>
       </c>
@@ -22973,7 +23030,7 @@
       </c>
       <c r="N472" s="27"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>350</v>
       </c>
@@ -23010,7 +23067,7 @@
       </c>
       <c r="N473" s="27"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>350</v>
       </c>
@@ -23047,7 +23104,7 @@
       </c>
       <c r="N474" s="27"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>350</v>
       </c>
@@ -23084,7 +23141,7 @@
       </c>
       <c r="N475" s="27"/>
     </row>
-    <row r="476" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
         <v>350</v>
       </c>
@@ -23122,7 +23179,7 @@
       <c r="N476" s="27"/>
       <c r="S476" s="92"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
         <v>359</v>
       </c>
@@ -23162,7 +23219,7 @@
       </c>
       <c r="N477" s="27"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>359</v>
       </c>
@@ -23202,7 +23259,7 @@
       </c>
       <c r="N478" s="27"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>359</v>
       </c>
@@ -23242,7 +23299,7 @@
       </c>
       <c r="N479" s="27"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6" t="s">
         <v>359</v>
       </c>
@@ -23282,7 +23339,7 @@
       </c>
       <c r="N480" s="27"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>359</v>
       </c>
@@ -23322,7 +23379,7 @@
       </c>
       <c r="N481" s="27"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>359</v>
       </c>
@@ -23362,7 +23419,7 @@
       </c>
       <c r="N482" s="27"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>359</v>
       </c>
@@ -23402,7 +23459,7 @@
       </c>
       <c r="N483" s="27"/>
     </row>
-    <row r="484" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>359</v>
       </c>
@@ -23443,7 +23500,7 @@
       <c r="N484" s="27"/>
       <c r="S484" s="92"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>360</v>
       </c>
@@ -23483,7 +23540,7 @@
       </c>
       <c r="N485" s="27"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6" t="s">
         <v>360</v>
       </c>
@@ -23523,7 +23580,7 @@
       </c>
       <c r="N486" s="27"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>360</v>
       </c>
@@ -23563,7 +23620,7 @@
       </c>
       <c r="N487" s="27"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="6" t="s">
         <v>360</v>
       </c>
@@ -23603,7 +23660,7 @@
       </c>
       <c r="N488" s="27"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>360</v>
       </c>
@@ -23643,7 +23700,7 @@
       </c>
       <c r="N489" s="27"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>360</v>
       </c>
@@ -23683,7 +23740,7 @@
       </c>
       <c r="N490" s="27"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>360</v>
       </c>
@@ -23723,7 +23780,7 @@
       </c>
       <c r="N491" s="27"/>
     </row>
-    <row r="492" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>360</v>
       </c>
@@ -23758,7 +23815,7 @@
       <c r="N492" s="27"/>
       <c r="S492" s="92"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>369</v>
       </c>
@@ -23798,7 +23855,7 @@
       </c>
       <c r="N493" s="5"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>369</v>
       </c>
@@ -23838,7 +23895,7 @@
       </c>
       <c r="N494" s="5"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>369</v>
       </c>
@@ -23878,7 +23935,7 @@
       </c>
       <c r="O495" s="5"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>369</v>
       </c>
@@ -23918,7 +23975,7 @@
       </c>
       <c r="N496" s="5"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>369</v>
       </c>
@@ -23958,7 +24015,7 @@
       </c>
       <c r="O497" s="5"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>369</v>
       </c>
@@ -23998,7 +24055,7 @@
       </c>
       <c r="N498" s="5"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>369</v>
       </c>
@@ -24038,7 +24095,7 @@
       </c>
       <c r="N499" s="5"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>369</v>
       </c>
@@ -24078,7 +24135,7 @@
       </c>
       <c r="O500" s="5"/>
     </row>
-    <row r="501" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>369</v>
       </c>
@@ -24118,7 +24175,7 @@
       </c>
       <c r="S501" s="92"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>370</v>
       </c>
@@ -24158,7 +24215,7 @@
       </c>
       <c r="O502" s="5"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>370</v>
       </c>
@@ -24198,7 +24255,7 @@
       </c>
       <c r="N503" s="5"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>370</v>
       </c>
@@ -24238,7 +24295,7 @@
       </c>
       <c r="N504" s="5"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>370</v>
       </c>
@@ -24278,7 +24335,7 @@
       </c>
       <c r="O505" s="5"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>370</v>
       </c>
@@ -24318,7 +24375,7 @@
       </c>
       <c r="N506" s="5"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>370</v>
       </c>
@@ -24358,7 +24415,7 @@
       </c>
       <c r="N507" s="5"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>370</v>
       </c>
@@ -24398,7 +24455,7 @@
       </c>
       <c r="N508" s="5"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>370</v>
       </c>
@@ -24438,7 +24495,7 @@
       </c>
       <c r="N509" s="5"/>
     </row>
-    <row r="510" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>370</v>
       </c>
@@ -24479,7 +24536,7 @@
       <c r="O510" s="5"/>
       <c r="S510" s="92"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>371</v>
       </c>
@@ -24519,7 +24576,7 @@
       </c>
       <c r="N511" s="27"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="6" t="s">
         <v>371</v>
       </c>
@@ -24560,7 +24617,7 @@
       </c>
       <c r="N512" s="27"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>371</v>
       </c>
@@ -24600,7 +24657,7 @@
       </c>
       <c r="N513" s="27"/>
     </row>
-    <row r="514" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6" t="s">
         <v>371</v>
       </c>
@@ -24643,7 +24700,7 @@
       <c r="O514" s="116"/>
       <c r="S514" s="117"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>371</v>
       </c>
@@ -24684,7 +24741,7 @@
       <c r="N515" s="27"/>
       <c r="O515" s="27"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>371</v>
       </c>
@@ -24724,7 +24781,7 @@
       </c>
       <c r="N516" s="27"/>
     </row>
-    <row r="517" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6" t="s">
         <v>371</v>
       </c>
@@ -24766,7 +24823,7 @@
       <c r="O517" s="116"/>
       <c r="S517" s="117"/>
     </row>
-    <row r="518" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>371</v>
       </c>
@@ -24807,7 +24864,7 @@
       </c>
       <c r="S518" s="92"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>376</v>
       </c>
@@ -24847,7 +24904,7 @@
       </c>
       <c r="N519" s="27"/>
     </row>
-    <row r="520" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6" t="s">
         <v>376</v>
       </c>
@@ -24889,7 +24946,7 @@
       <c r="O520" s="116"/>
       <c r="S520" s="117"/>
     </row>
-    <row r="521" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6" t="s">
         <v>376</v>
       </c>
@@ -24931,7 +24988,7 @@
       <c r="O521" s="116"/>
       <c r="S521" s="117"/>
     </row>
-    <row r="522" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6" t="s">
         <v>376</v>
       </c>
@@ -24973,7 +25030,7 @@
       <c r="O522" s="116"/>
       <c r="S522" s="117"/>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>376</v>
       </c>
@@ -25013,7 +25070,7 @@
       </c>
       <c r="O523" s="27"/>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>376</v>
       </c>
@@ -25052,7 +25109,7 @@
         <v>33.000000000000043</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>376</v>
       </c>
@@ -25094,7 +25151,7 @@
       <c r="N525" s="28"/>
       <c r="S525" s="92"/>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>378</v>
       </c>
@@ -25130,7 +25187,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>378</v>
       </c>
@@ -25166,7 +25223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>378</v>
       </c>
@@ -25202,7 +25259,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>378</v>
       </c>
@@ -25238,7 +25295,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="530" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>378</v>
       </c>
@@ -25276,7 +25333,7 @@
       </c>
       <c r="S530" s="92"/>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>384</v>
       </c>
@@ -25305,7 +25362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>384</v>
       </c>
@@ -25334,7 +25391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="533" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>384</v>
       </c>
@@ -25367,7 +25424,7 @@
       </c>
       <c r="S533" s="92"/>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>395</v>
       </c>
@@ -25393,7 +25450,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>395</v>
       </c>
@@ -25419,7 +25476,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>395</v>
       </c>
@@ -25445,7 +25502,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>395</v>
       </c>
@@ -25471,7 +25528,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>395</v>
       </c>
@@ -25497,7 +25554,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>395</v>
       </c>
@@ -25523,7 +25580,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>395</v>
       </c>
@@ -25549,7 +25606,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>395</v>
       </c>
@@ -25575,7 +25632,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>395</v>
       </c>
@@ -25601,7 +25658,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="543" spans="1:19" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:19" s="20" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="20" t="s">
         <v>395</v>
       </c>
@@ -25631,7 +25688,7 @@
       <c r="L543" s="22"/>
       <c r="S543" s="93"/>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>396</v>
       </c>
@@ -25666,7 +25723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>396</v>
       </c>
@@ -25701,7 +25758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="546" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>396</v>
       </c>
@@ -25738,7 +25795,7 @@
       </c>
       <c r="S546" s="92"/>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>397</v>
       </c>
@@ -25774,7 +25831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>397</v>
       </c>
@@ -25810,7 +25867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>397</v>
       </c>
@@ -25846,7 +25903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>397</v>
       </c>
@@ -25882,7 +25939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>397</v>
       </c>
@@ -25918,7 +25975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>397</v>
       </c>
@@ -25954,7 +26011,7 @@
         <v>49.000000000000028</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>397</v>
       </c>
@@ -25990,7 +26047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>397</v>
       </c>
@@ -26026,7 +26083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="555" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>397</v>
       </c>
@@ -26064,8 +26121,8 @@
       </c>
       <c r="S555" s="92"/>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A556" s="124" t="s">
+    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B556" s="4" t="s">
@@ -26100,8 +26157,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A557" s="124" t="s">
+    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B557" s="4" t="s">
@@ -26136,8 +26193,8 @@
         <v>188.00000000000003</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A558" s="124" t="s">
+    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B558" s="4" t="s">
@@ -26172,8 +26229,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A559" s="124" t="s">
+    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B559" s="4" t="s">
@@ -26208,8 +26265,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A560" s="124" t="s">
+    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B560" s="4" t="s">
@@ -26243,8 +26300,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A561" s="124" t="s">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B561" s="4" t="s">
@@ -26279,8 +26336,8 @@
         <v>192.00000000000003</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A562" s="124" t="s">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B562" s="4" t="s">
@@ -26315,8 +26372,8 @@
         <v>189.99999999999997</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A563" s="124" t="s">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="121" t="s">
         <v>400</v>
       </c>
       <c r="B563" s="4" t="s">
@@ -26351,8 +26408,8 @@
         <v>188.99999999999997</v>
       </c>
     </row>
-    <row r="564" spans="1:19" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="125" t="s">
+    <row r="564" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="122" t="s">
         <v>400</v>
       </c>
       <c r="B564" s="8" t="s">
@@ -26389,11 +26446,11 @@
       </c>
       <c r="S564" s="92"/>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B565" s="126" t="s">
+      <c r="B565" s="123" t="s">
         <v>70</v>
       </c>
       <c r="C565" s="58">
@@ -26412,11 +26469,11 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B566" s="126" t="s">
+      <c r="B566" s="123" t="s">
         <v>72</v>
       </c>
       <c r="C566" s="58">
@@ -26435,11 +26492,11 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B567" s="126" t="s">
+      <c r="B567" s="123" t="s">
         <v>92</v>
       </c>
       <c r="C567" s="58">
@@ -26459,6 +26516,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A8:T567" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Lactate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="B1:H1"/>
@@ -26479,7 +26543,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_serum labeling mouse ID.xlsx
+++ b/data_serum labeling mouse ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4211B-CDF4-C344-A88E-1C0EBB35911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796E5D6C-F4BF-D147-AC2C-6F72C3FD227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{2CC30947-3E2C-1F44-B2C3-8FE5D0FDBD56}"/>
   </bookViews>
   <sheets>
     <sheet name="infusion rounds" sheetId="1" r:id="rId1"/>
@@ -3310,11 +3310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D376" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="G375" sqref="G375:G376"/>
@@ -3473,7 +3472,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>158.99999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>151.00000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>64</v>
       </c>
       <c r="E12" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" ref="E12:E38" si="1" xml:space="preserve"> 380.4 * 1.06</f>
         <v>403.22399999999999</v>
       </c>
       <c r="F12" s="1">
@@ -3660,7 +3659,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F13" s="1">
@@ -3706,7 +3705,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F14" s="7">
@@ -3752,7 +3751,7 @@
         <v>64</v>
       </c>
       <c r="E15" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F15" s="1">
@@ -3798,7 +3797,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F16" s="1">
@@ -3844,7 +3843,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F17" s="1">
@@ -3893,7 +3892,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F18" s="14">
@@ -3945,7 +3944,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F19" s="1">
@@ -3994,7 +3993,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F20" s="7">
@@ -4044,7 +4043,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F21" s="1">
@@ -4096,7 +4095,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F22" s="1">
@@ -4151,7 +4150,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F23" s="1">
@@ -4200,7 +4199,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F24" s="1">
@@ -4249,7 +4248,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F25" s="1">
@@ -4301,7 +4300,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F26" s="7">
@@ -4351,7 +4350,7 @@
         <v>64</v>
       </c>
       <c r="E27" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F27" s="1">
@@ -4400,7 +4399,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F28" s="1">
@@ -4449,7 +4448,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F29" s="1">
@@ -4498,7 +4497,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F30" s="1">
@@ -4547,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F31" s="1">
@@ -4599,7 +4598,7 @@
         <v>64</v>
       </c>
       <c r="E32" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F32" s="7">
@@ -4649,7 +4648,7 @@
         <v>64</v>
       </c>
       <c r="E33" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F33" s="1">
@@ -4698,7 +4697,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F34" s="1">
@@ -4750,7 +4749,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F35" s="1">
@@ -4799,7 +4798,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F36" s="1">
@@ -4851,7 +4850,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F37" s="1">
@@ -4903,7 +4902,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="1"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F38" s="7">
@@ -4939,7 +4938,7 @@
       </c>
       <c r="S38" s="92"/>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>54</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>54</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>54</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>54</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>54</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>54</v>
       </c>
@@ -5276,7 +5275,7 @@
       </c>
       <c r="S45" s="92"/>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>56</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>56</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>56</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>56</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>56</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>56</v>
       </c>
@@ -5571,7 +5570,7 @@
       </c>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>57</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>57</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
         <v>57</v>
       </c>
@@ -5716,7 +5715,7 @@
       </c>
       <c r="P54" s="18"/>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
         <v>57</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
         <v>57</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>57</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>57</v>
       </c>
@@ -5918,7 +5917,7 @@
       </c>
       <c r="S58" s="92"/>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
         <v>58</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
         <v>58</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
         <v>58</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
         <v>58</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
         <v>58</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>58</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
         <v>21</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
         <v>21</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
         <v>21</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
         <v>21</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
         <v>21</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
         <v>21</v>
       </c>
@@ -6507,7 +6506,7 @@
       </c>
       <c r="P70" s="18"/>
     </row>
-    <row r="71" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
         <v>21</v>
       </c>
@@ -6556,7 +6555,7 @@
       </c>
       <c r="S71" s="92"/>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>62</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
         <v>62</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
         <v>62</v>
       </c>
@@ -6694,7 +6693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
         <v>62</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
         <v>62</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
         <v>62</v>
       </c>
@@ -6830,7 +6829,7 @@
       </c>
       <c r="S77" s="92"/>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
         <v>68</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
         <v>68</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
         <v>68</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
         <v>68</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
         <v>68</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
         <v>68</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>68</v>
       </c>
@@ -7149,7 +7148,7 @@
       </c>
       <c r="S84" s="92"/>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="41" t="s">
         <v>69</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="41" t="s">
         <v>69</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>159.99999999999991</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="41" t="s">
         <v>69</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>163.99999999999989</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="41" t="s">
         <v>69</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
         <v>69</v>
       </c>
@@ -7369,7 +7368,7 @@
       </c>
       <c r="S89" s="92"/>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="41" t="s">
         <v>90</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="41" t="s">
         <v>90</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="41" t="s">
         <v>90</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="41" t="s">
         <v>90</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="41" t="s">
         <v>90</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="41" t="s">
         <v>90</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
         <v>90</v>
       </c>
@@ -7706,7 +7705,7 @@
       </c>
       <c r="S96" s="92"/>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>95</v>
       </c>
@@ -7898,7 +7897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>95</v>
       </c>
@@ -8095,7 +8094,7 @@
       </c>
       <c r="S104" s="92"/>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="45" t="s">
         <v>50</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="41" t="s">
         <v>50</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="41" t="s">
         <v>50</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="41" t="s">
         <v>50</v>
       </c>
@@ -8290,7 +8289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="41" t="s">
         <v>50</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="41" t="s">
         <v>50</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
         <v>50</v>
       </c>
@@ -8435,7 +8434,7 @@
       </c>
       <c r="S111" s="92"/>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="41" t="s">
         <v>99</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="41" t="s">
         <v>99</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="41" t="s">
         <v>99</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="41" t="s">
         <v>99</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="41" t="s">
         <v>99</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="41" t="s">
         <v>99</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="42" t="s">
         <v>99</v>
       </c>
@@ -8775,7 +8774,7 @@
       </c>
       <c r="S118" s="92"/>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="43" t="s">
         <v>100</v>
       </c>
@@ -8823,7 +8822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="43" t="s">
         <v>100</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="43" t="s">
         <v>100</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="43" t="s">
         <v>100</v>
       </c>
@@ -8957,7 +8956,7 @@
         <v>0.75277777777777777</v>
       </c>
       <c r="M122" s="1">
-        <f t="shared" ref="M122:M219" si="1" xml:space="preserve"> (L122-K122)*24 * 60</f>
+        <f t="shared" ref="M122:M219" si="2" xml:space="preserve"> (L122-K122)*24 * 60</f>
         <v>153.99999999999994</v>
       </c>
       <c r="N122" s="1">
@@ -8967,7 +8966,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="43" t="s">
         <v>100</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147.99999999999994</v>
       </c>
       <c r="N123" s="1">
@@ -9015,7 +9014,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="43" t="s">
         <v>100</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>0.7597222222222223</v>
       </c>
       <c r="M124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150.00000000000011</v>
       </c>
       <c r="N124" s="1">
@@ -9063,7 +9062,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="43" t="s">
         <v>100</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>0.7631944444444444</v>
       </c>
       <c r="M125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152.99999999999994</v>
       </c>
       <c r="N125" s="1">
@@ -9114,7 +9113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="s">
         <v>100</v>
       </c>
@@ -9152,7 +9151,7 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95.000000000000142</v>
       </c>
       <c r="N126" s="7">
@@ -9163,7 +9162,7 @@
       </c>
       <c r="S126" s="92"/>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="43" t="s">
         <v>101</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160.00000000000006</v>
       </c>
       <c r="N127" s="1">
@@ -9211,7 +9210,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="43" t="s">
         <v>101</v>
       </c>
@@ -9249,7 +9248,7 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168.00000000000006</v>
       </c>
       <c r="N128" s="1">
@@ -9259,7 +9258,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="43" t="s">
         <v>101</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>0.7402777777777777</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171.99999999999986</v>
       </c>
       <c r="N129" s="1">
@@ -9307,7 +9306,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="43" t="s">
         <v>101</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>0.74444444444444446</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>173.00000000000003</v>
       </c>
       <c r="N130" s="1">
@@ -9355,7 +9354,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="43" t="s">
         <v>101</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>0.75</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="N131" s="1">
@@ -9403,7 +9402,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="43" t="s">
         <v>101</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N132" s="1">
@@ -9457,7 +9456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="s">
         <v>101</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>0.75902777777777775</v>
       </c>
       <c r="M133" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="N133" s="7">
@@ -9508,7 +9507,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="43" t="s">
         <v>104</v>
       </c>
@@ -9546,7 +9545,7 @@
         <v>0.7402777777777777</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170.99999999999989</v>
       </c>
       <c r="N134" s="1">
@@ -9556,7 +9555,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="43" t="s">
         <v>104</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.99999999999986</v>
       </c>
       <c r="N135" s="1">
@@ -9604,7 +9603,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="43" t="s">
         <v>104</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>0.76874999999999993</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176.99999999999986</v>
       </c>
       <c r="N136" s="1">
@@ -9652,7 +9651,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="43" t="s">
         <v>104</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>0.75</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171.00000000000003</v>
       </c>
       <c r="N137" s="1">
@@ -9700,7 +9699,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="43" t="s">
         <v>104</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.00000000000017</v>
       </c>
       <c r="N138" s="1">
@@ -9748,7 +9747,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="43" t="s">
         <v>104</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178.99999999999983</v>
       </c>
       <c r="N139" s="1">
@@ -9796,7 +9795,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
         <v>104</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="M140" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>179.99999999999983</v>
       </c>
       <c r="N140" s="7">
@@ -9845,7 +9844,7 @@
       </c>
       <c r="S140" s="92"/>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="34" t="s">
         <v>105</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="M141" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>196.99999999999977</v>
       </c>
       <c r="N141" s="1">
@@ -9893,7 +9892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="34" t="s">
         <v>105</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="M142" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>199.00000000000009</v>
       </c>
       <c r="N142" s="1">
@@ -9941,7 +9940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="34" t="s">
         <v>105</v>
       </c>
@@ -9979,14 +9978,14 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>185.99999999999997</v>
       </c>
       <c r="N143" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="34" t="s">
         <v>105</v>
       </c>
@@ -10024,14 +10023,14 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="M144" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192.99999999999994</v>
       </c>
       <c r="N144" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="34" t="s">
         <v>105</v>
       </c>
@@ -10069,14 +10068,14 @@
         <v>0.74930555555555556</v>
       </c>
       <c r="M145" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>199.99999999999994</v>
       </c>
       <c r="N145" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="34" t="s">
         <v>105</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="M146" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>199.00000000000009</v>
       </c>
       <c r="N146" s="1">
@@ -10124,7 +10123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="34" t="s">
         <v>105</v>
       </c>
@@ -10162,14 +10161,14 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="M147" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>197.99999999999994</v>
       </c>
       <c r="N147" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="35" t="s">
         <v>105</v>
       </c>
@@ -10207,12 +10206,12 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="M148" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>203.00000000000009</v>
       </c>
       <c r="S148" s="92"/>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="34" t="s">
         <v>106</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="M149" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184.99999999999983</v>
       </c>
       <c r="N149" s="1">
@@ -10263,7 +10262,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="34" t="s">
         <v>106</v>
       </c>
@@ -10301,7 +10300,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="M150" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187.99999999999997</v>
       </c>
       <c r="N150" s="1">
@@ -10314,7 +10313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="34" t="s">
         <v>106</v>
       </c>
@@ -10352,7 +10351,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="M151" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>188.00000000000014</v>
       </c>
       <c r="N151" s="1">
@@ -10362,7 +10361,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="34" t="s">
         <v>106</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="M152" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.99999999999997</v>
       </c>
       <c r="N152" s="1">
@@ -10410,7 +10409,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="34" t="s">
         <v>106</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="M153" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186.99999999999997</v>
       </c>
       <c r="N153" s="1">
@@ -10458,7 +10457,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="34" t="s">
         <v>106</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>0.76527777777777783</v>
       </c>
       <c r="M154" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.00000000000011</v>
       </c>
       <c r="N154" s="1">
@@ -10506,7 +10505,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="34" t="s">
         <v>106</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>0.76874999999999993</v>
       </c>
       <c r="M155" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190.9999999999998</v>
       </c>
       <c r="N155" s="1">
@@ -10557,7 +10556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35" t="s">
         <v>106</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>0.77361111111111114</v>
       </c>
       <c r="M156" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>193.99999999999994</v>
       </c>
       <c r="N156" s="7">
@@ -10606,7 +10605,7 @@
       </c>
       <c r="S156" s="92"/>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="34" t="s">
         <v>108</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M157" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>185.99999999999997</v>
       </c>
       <c r="N157" s="1">
@@ -10657,7 +10656,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="34" t="s">
         <v>108</v>
       </c>
@@ -10695,7 +10694,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="M158" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>188.9999999999998</v>
       </c>
       <c r="N158" s="1">
@@ -10705,7 +10704,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="34" t="s">
         <v>108</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>0.74930555555555556</v>
       </c>
       <c r="M159" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.99999999999997</v>
       </c>
       <c r="N159" s="1">
@@ -10753,7 +10752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="34" t="s">
         <v>108</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>0.75208333333333333</v>
       </c>
       <c r="M160" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190.99999999999997</v>
       </c>
       <c r="N160" s="1">
@@ -10801,7 +10800,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="34" t="s">
         <v>108</v>
       </c>
@@ -10839,7 +10838,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="M161" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186.99999999999997</v>
       </c>
       <c r="N161" s="1">
@@ -10849,7 +10848,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="162" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="35" t="s">
         <v>108</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>0.75902777777777775</v>
       </c>
       <c r="M162" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191.99999999999994</v>
       </c>
       <c r="N162" s="7">
@@ -10898,7 +10897,7 @@
       </c>
       <c r="S162" s="92"/>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="34" t="s">
         <v>110</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="M163" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191.99999999999994</v>
       </c>
       <c r="N163" s="1">
@@ -10946,7 +10945,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="34" t="s">
         <v>110</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>0.74236111111111114</v>
       </c>
       <c r="M164" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="N164" s="1">
@@ -10994,7 +10993,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="34" t="s">
         <v>110</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="M165" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>193.99999999999994</v>
       </c>
       <c r="N165" s="1">
@@ -11042,7 +11041,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="34" t="s">
         <v>110</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>0.74930555555555556</v>
       </c>
       <c r="M166" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187.99999999999997</v>
       </c>
       <c r="N166" s="1">
@@ -11090,7 +11089,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="34" t="s">
         <v>110</v>
       </c>
@@ -11128,7 +11127,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="M167" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>188.99999999999997</v>
       </c>
       <c r="N167" s="1">
@@ -11138,7 +11137,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="34" t="s">
         <v>110</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="M168" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.00000000000011</v>
       </c>
       <c r="N168" s="1">
@@ -11186,7 +11185,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="35" t="s">
         <v>110</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="M169" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186.99999999999997</v>
       </c>
       <c r="N169" s="7">
@@ -11249,7 +11248,7 @@
         <v>64</v>
       </c>
       <c r="E170" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" ref="E170:E177" si="3" xml:space="preserve"> 380.4 * 1.06</f>
         <v>403.22399999999999</v>
       </c>
       <c r="F170" s="1">
@@ -11274,7 +11273,7 @@
         <v>0.71944444444444444</v>
       </c>
       <c r="M170" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166.00000000000006</v>
       </c>
       <c r="N170" s="1">
@@ -11295,7 +11294,7 @@
         <v>64</v>
       </c>
       <c r="E171" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="3"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F171" s="1">
@@ -11320,7 +11319,7 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="M171" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166.99999999999989</v>
       </c>
       <c r="N171" s="1">
@@ -11344,7 +11343,7 @@
         <v>64</v>
       </c>
       <c r="E172" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="3"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F172" s="1">
@@ -11369,7 +11368,7 @@
         <v>0.7270833333333333</v>
       </c>
       <c r="M172" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>167.99999999999989</v>
       </c>
       <c r="N172" s="1">
@@ -11393,7 +11392,7 @@
         <v>64</v>
       </c>
       <c r="E173" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="3"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F173" s="1">
@@ -11418,7 +11417,7 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="M173" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168.99999999999989</v>
       </c>
       <c r="N173" s="1">
@@ -11442,7 +11441,7 @@
         <v>64</v>
       </c>
       <c r="E174" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="3"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F174" s="1">
@@ -11467,7 +11466,7 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="M174" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171.00000000000003</v>
       </c>
       <c r="N174" s="1">
@@ -11491,7 +11490,7 @@
         <v>64</v>
       </c>
       <c r="E175" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="3"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F175" s="1">
@@ -11516,7 +11515,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M175" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172.00000000000003</v>
       </c>
       <c r="N175" s="1">
@@ -11543,7 +11542,7 @@
         <v>64</v>
       </c>
       <c r="E176" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="3"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F176" s="1">
@@ -11568,7 +11567,7 @@
         <v>0.74375000000000002</v>
       </c>
       <c r="M176" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171.00000000000003</v>
       </c>
       <c r="N176" s="1">
@@ -11595,7 +11594,7 @@
         <v>64</v>
       </c>
       <c r="E177" s="1">
-        <f xml:space="preserve"> 380.4 * 1.06</f>
+        <f t="shared" si="3"/>
         <v>403.22399999999999</v>
       </c>
       <c r="F177" s="7">
@@ -11620,7 +11619,7 @@
         <v>0.74930555555555556</v>
       </c>
       <c r="M177" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.00000000000003</v>
       </c>
       <c r="N177" s="7">
@@ -11631,7 +11630,7 @@
       </c>
       <c r="S177" s="92"/>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>112</v>
       </c>
@@ -11669,7 +11668,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="M178" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154.99999999999994</v>
       </c>
       <c r="N178" s="1">
@@ -11679,7 +11678,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>112</v>
       </c>
@@ -11717,7 +11716,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M179" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150.00000000000011</v>
       </c>
       <c r="N179" s="1">
@@ -11727,7 +11726,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>112</v>
       </c>
@@ -11765,7 +11764,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="M180" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>149.99999999999977</v>
       </c>
       <c r="N180" s="1">
@@ -11775,7 +11774,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>112</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="M181" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150.99999999999994</v>
       </c>
       <c r="N181" s="1">
@@ -11826,7 +11825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>112</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>0.75</v>
       </c>
       <c r="M182" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.99999999999994</v>
       </c>
       <c r="N182" s="1">
@@ -11874,7 +11873,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>112</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>0.75277777777777777</v>
       </c>
       <c r="M183" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.99999999999994</v>
       </c>
       <c r="N183" s="7">
@@ -11962,7 +11961,7 @@
         <v>0.71875</v>
       </c>
       <c r="M184" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165.00000000000006</v>
       </c>
       <c r="N184" s="1">
@@ -12011,7 +12010,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="M185" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>164.00000000000006</v>
       </c>
       <c r="N185" s="1">
@@ -12057,7 +12056,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="M186" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>164.00000000000006</v>
       </c>
       <c r="N186" s="20">
@@ -12104,7 +12103,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="M187" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168.99999999999989</v>
       </c>
       <c r="N187" s="1">
@@ -12150,7 +12149,7 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="M188" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>167.00000000000006</v>
       </c>
       <c r="N188" s="1">
@@ -12223,7 +12222,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M190" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170.00000000000003</v>
       </c>
       <c r="N190" s="1">
@@ -12269,7 +12268,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="M191" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>169.99999999999989</v>
       </c>
       <c r="N191" s="7">
@@ -12277,7 +12276,7 @@
       </c>
       <c r="S191" s="92"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>121</v>
       </c>
@@ -12315,14 +12314,14 @@
         <v>0.76874999999999993</v>
       </c>
       <c r="M192" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>169.99999999999989</v>
       </c>
       <c r="N192" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>121</v>
       </c>
@@ -12360,14 +12359,14 @@
         <v>0.77222222222222225</v>
       </c>
       <c r="M193" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171.00000000000003</v>
       </c>
       <c r="N193" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>121</v>
       </c>
@@ -12405,14 +12404,14 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="M194" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.00000000000003</v>
       </c>
       <c r="N194" s="1">
         <v>376</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>121</v>
       </c>
@@ -12450,14 +12449,14 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="M195" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="N195" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>121</v>
       </c>
@@ -12495,14 +12494,14 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="M196" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.00000000000003</v>
       </c>
       <c r="N196" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>121</v>
       </c>
@@ -12540,14 +12539,14 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="M197" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172.00000000000003</v>
       </c>
       <c r="N197" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>121</v>
       </c>
@@ -12585,14 +12584,14 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="M198" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170.0000000000002</v>
       </c>
       <c r="N198" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="199" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>121</v>
       </c>
@@ -12630,7 +12629,7 @@
         <v>0.7944444444444444</v>
       </c>
       <c r="M199" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172.99999999999986</v>
       </c>
       <c r="N199" s="7">
@@ -12638,7 +12637,7 @@
       </c>
       <c r="S199" s="92"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="43" t="s">
         <v>184</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>0.72777777777777775</v>
       </c>
       <c r="M200" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187.99999999999997</v>
       </c>
       <c r="N200" s="1">
@@ -12680,7 +12679,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="43" t="s">
         <v>184</v>
       </c>
@@ -12712,7 +12711,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="M201" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.99999999999997</v>
       </c>
       <c r="N201" s="1">
@@ -12722,7 +12721,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="43" t="s">
         <v>184</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>0.73055555555555562</v>
       </c>
       <c r="M202" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192.00000000000011</v>
       </c>
       <c r="N202" s="1">
@@ -12764,7 +12763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="43" t="s">
         <v>184</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="M203" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>193.99999999999994</v>
       </c>
       <c r="N203" s="1">
@@ -12806,7 +12805,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="43" t="s">
         <v>184</v>
       </c>
@@ -12838,7 +12837,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="M204" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>194.99999999999994</v>
       </c>
       <c r="N204" s="1">
@@ -12848,7 +12847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="43" t="s">
         <v>184</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="M205" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>197.00000000000011</v>
       </c>
       <c r="N205" s="1">
@@ -12890,7 +12889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="206" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="43" t="s">
         <v>184</v>
       </c>
@@ -12922,7 +12921,7 @@
         <v>0.73541666666666661</v>
       </c>
       <c r="M206" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>198.99999999999994</v>
       </c>
       <c r="N206" s="7">
@@ -12932,7 +12931,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="43" t="s">
         <v>124</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>0.7006944444444444</v>
       </c>
       <c r="M207" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168.99999999999989</v>
       </c>
       <c r="N207" s="1">
@@ -12974,7 +12973,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="43" t="s">
         <v>124</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="M208" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="N208" s="1">
@@ -13016,7 +13015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="43" t="s">
         <v>124</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="M209" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="N209" s="1">
@@ -13058,7 +13057,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="43" t="s">
         <v>124</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="M210" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184.99999999999983</v>
       </c>
       <c r="N210" s="1">
@@ -13100,7 +13099,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="43" t="s">
         <v>124</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="M211" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>185.99999999999997</v>
       </c>
       <c r="N211" s="1">
@@ -13142,7 +13141,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="43" t="s">
         <v>124</v>
       </c>
@@ -13174,7 +13173,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="M212" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187.99999999999997</v>
       </c>
       <c r="N212" s="1">
@@ -13184,7 +13183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="213" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
         <v>124</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>0.71458333333333324</v>
       </c>
       <c r="M213" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>188.9999999999998</v>
       </c>
       <c r="N213" s="7">
@@ -13226,7 +13225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="43" t="s">
         <v>133</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="M214" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184.99999999999997</v>
       </c>
       <c r="N214" s="1">
@@ -13268,7 +13267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="43" t="s">
         <v>133</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="M215" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187.00000000000014</v>
       </c>
       <c r="N215" s="1">
@@ -13310,7 +13309,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="43" t="s">
         <v>133</v>
       </c>
@@ -13342,7 +13341,7 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="M216" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190.00000000000011</v>
       </c>
       <c r="N216" s="1">
@@ -13352,7 +13351,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="43" t="s">
         <v>133</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="M217" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191.99999999999994</v>
       </c>
       <c r="N217" s="1">
@@ -13394,7 +13393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="43" t="s">
         <v>133</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="M218" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>194.00000000000011</v>
       </c>
       <c r="N218" s="1">
@@ -13436,7 +13435,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="43" t="s">
         <v>133</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>0.7402777777777777</v>
       </c>
       <c r="M219" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>195.99999999999994</v>
       </c>
       <c r="N219" s="1">
@@ -13478,7 +13477,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="220" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="s">
         <v>133</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="M220" s="7">
-        <f t="shared" ref="M220:M243" si="2" xml:space="preserve"> (L220-K220)*24 * 60</f>
+        <f t="shared" ref="M220:M243" si="4" xml:space="preserve"> (L220-K220)*24 * 60</f>
         <v>198.00000000000009</v>
       </c>
       <c r="N220" s="7">
@@ -13520,7 +13519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="43" t="s">
         <v>141</v>
       </c>
@@ -13552,7 +13551,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M221" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="N221" s="1">
@@ -13562,7 +13561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="43" t="s">
         <v>141</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>182</v>
       </c>
       <c r="N222" s="1">
@@ -13604,7 +13603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="43" t="s">
         <v>141</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="M223" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>183</v>
       </c>
       <c r="N223" s="1">
@@ -13646,7 +13645,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="43" t="s">
         <v>141</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="M224" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>184.99999999999983</v>
       </c>
       <c r="N224" s="1">
@@ -13688,7 +13687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="43" t="s">
         <v>141</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>0.71319444444444446</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>186.99999999999997</v>
       </c>
       <c r="N225" s="1">
@@ -13730,7 +13729,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="43" t="s">
         <v>141</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="M226" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>187.99999999999997</v>
       </c>
       <c r="N226" s="1">
@@ -13772,7 +13771,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="s">
         <v>141</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="M227" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>189.99999999999997</v>
       </c>
       <c r="N227" s="7">
@@ -13814,7 +13813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="49" t="s">
         <v>148</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="M228" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>184.99999999999983</v>
       </c>
       <c r="N228" s="1">
@@ -13856,7 +13855,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="49" t="s">
         <v>148</v>
       </c>
@@ -13888,7 +13887,7 @@
         <v>0.71319444444444446</v>
       </c>
       <c r="M229" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>186.99999999999997</v>
       </c>
       <c r="N229" s="1">
@@ -13898,7 +13897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="49" t="s">
         <v>148</v>
       </c>
@@ -13930,7 +13929,7 @@
         <v>0.71458333333333324</v>
       </c>
       <c r="M230" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>188.9999999999998</v>
       </c>
       <c r="N230" s="1">
@@ -13940,7 +13939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="49" t="s">
         <v>148</v>
       </c>
@@ -13972,7 +13971,7 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="M231" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>190.99999999999997</v>
       </c>
       <c r="N231" s="1">
@@ -13982,7 +13981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="49" t="s">
         <v>148</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>0.71736111111111101</v>
       </c>
       <c r="M232" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>192.9999999999998</v>
       </c>
       <c r="N232" s="1">
@@ -14024,7 +14023,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="49" t="s">
         <v>148</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>0.71875</v>
       </c>
       <c r="M233" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>194.99999999999994</v>
       </c>
       <c r="N233" s="1">
@@ -14066,7 +14065,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="49" t="s">
         <v>148</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="M234" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>197.00000000000011</v>
       </c>
       <c r="N234" s="1">
@@ -14108,7 +14107,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="50" t="s">
         <v>148</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="M235" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>198.99999999999994</v>
       </c>
       <c r="N235" s="7">
@@ -14150,7 +14149,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="49" t="s">
         <v>150</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="M236" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="N236" s="1">
@@ -14192,7 +14191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="49" t="s">
         <v>150</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>0.71805555555555556</v>
       </c>
       <c r="M237" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="N237" s="1">
@@ -14234,7 +14233,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="49" t="s">
         <v>150</v>
       </c>
@@ -14266,7 +14265,7 @@
         <v>0.71944444444444444</v>
       </c>
       <c r="M238" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>182</v>
       </c>
       <c r="N238" s="1">
@@ -14276,7 +14275,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="49" t="s">
         <v>150</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="M239" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>185.99999999999997</v>
       </c>
       <c r="N239" s="1">
@@ -14318,7 +14317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="49" t="s">
         <v>150</v>
       </c>
@@ -14350,7 +14349,7 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="M240" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>187.99999999999997</v>
       </c>
       <c r="N240" s="1">
@@ -14360,7 +14359,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="49" t="s">
         <v>150</v>
       </c>
@@ -14392,7 +14391,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="M241" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>189.99999999999997</v>
       </c>
       <c r="N241" s="1">
@@ -14402,7 +14401,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="49" t="s">
         <v>150</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>0.72638888888888886</v>
       </c>
       <c r="M242" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>191.99999999999994</v>
       </c>
       <c r="N242" s="1">
@@ -14444,7 +14443,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="243" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="50" t="s">
         <v>150</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>0.72777777777777775</v>
       </c>
       <c r="M243" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>193.99999999999994</v>
       </c>
       <c r="N243" s="7">
@@ -14486,7 +14485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>183</v>
       </c>
@@ -14515,7 +14514,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>183</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>183</v>
       </c>
@@ -14573,7 +14572,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>183</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>183</v>
       </c>
@@ -14631,7 +14630,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>183</v>
       </c>
@@ -14660,7 +14659,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>183</v>
       </c>
@@ -14689,7 +14688,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="251" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>183</v>
       </c>
@@ -14720,7 +14719,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>186</v>
       </c>
@@ -14752,7 +14751,7 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="M252" s="1">
-        <f t="shared" ref="M252:M348" si="3" xml:space="preserve"> (L252-K252)*24 * 60</f>
+        <f t="shared" ref="M252:M348" si="5" xml:space="preserve"> (L252-K252)*24 * 60</f>
         <v>153.00000000000009</v>
       </c>
       <c r="N252" s="1">
@@ -14762,7 +14761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>186</v>
       </c>
@@ -14794,14 +14793,14 @@
         <v>0.73541666666666661</v>
       </c>
       <c r="M253" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>152.99999999999994</v>
       </c>
       <c r="N253" s="1">
         <v>299</v>
       </c>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>186</v>
       </c>
@@ -14833,14 +14832,14 @@
         <v>0.7368055555555556</v>
       </c>
       <c r="M254" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>151.00000000000011</v>
       </c>
       <c r="N254" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>186</v>
       </c>
@@ -14872,14 +14871,14 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="M255" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>152.00000000000011</v>
       </c>
       <c r="N255" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>186</v>
       </c>
@@ -14911,14 +14910,14 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M256" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>151.00000000000011</v>
       </c>
       <c r="N256" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>186</v>
       </c>
@@ -14950,7 +14949,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="M257" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153.00000000000009</v>
       </c>
       <c r="N257" s="1">
@@ -14960,7 +14959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>186</v>
       </c>
@@ -14992,14 +14991,14 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="M258" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153.99999999999977</v>
       </c>
       <c r="N258" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>186</v>
       </c>
@@ -15031,14 +15030,14 @@
         <v>0.74375000000000002</v>
       </c>
       <c r="M259" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>152.00000000000011</v>
       </c>
       <c r="N259" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>186</v>
       </c>
@@ -15070,7 +15069,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="M260" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-240.00000000000011</v>
       </c>
       <c r="N260" s="7">
@@ -15078,7 +15077,7 @@
       </c>
       <c r="S260" s="92"/>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>193</v>
       </c>
@@ -15110,14 +15109,14 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M261" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99.999999999999972</v>
       </c>
       <c r="N261" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>193</v>
       </c>
@@ -15149,14 +15148,14 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="M262" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100.99999999999996</v>
       </c>
       <c r="N262" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>193</v>
       </c>
@@ -15188,14 +15187,14 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="M263" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100.9999999999998</v>
       </c>
       <c r="N263" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>193</v>
       </c>
@@ -15227,14 +15226,14 @@
         <v>0.71319444444444446</v>
       </c>
       <c r="M264" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100.99999999999996</v>
       </c>
       <c r="N264" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>193</v>
       </c>
@@ -15266,14 +15265,14 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="M265" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103.00000000000011</v>
       </c>
       <c r="N265" s="1">
         <v>522</v>
       </c>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>193</v>
       </c>
@@ -15305,14 +15304,14 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="M266" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103.00000000000011</v>
       </c>
       <c r="N266" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="267" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>193</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>0.71805555555555556</v>
       </c>
       <c r="M267" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>102.99999999999996</v>
       </c>
       <c r="N267" s="7">
@@ -15352,7 +15351,7 @@
       </c>
       <c r="S267" s="92"/>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>194</v>
       </c>
@@ -15384,14 +15383,14 @@
         <v>0.71805555555555556</v>
       </c>
       <c r="M268" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96.999999999999972</v>
       </c>
       <c r="N268" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>194</v>
       </c>
@@ -15423,14 +15422,14 @@
         <v>0.71944444444444444</v>
       </c>
       <c r="M269" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96.999999999999972</v>
       </c>
       <c r="N269" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>194</v>
       </c>
@@ -15462,14 +15461,14 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="M270" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98.999999999999972</v>
       </c>
       <c r="N270" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>194</v>
       </c>
@@ -15501,14 +15500,14 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="M271" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98.999999999999972</v>
       </c>
       <c r="N271" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>194</v>
       </c>
@@ -15540,14 +15539,14 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="M272" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97.999999999999972</v>
       </c>
       <c r="N272" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>194</v>
       </c>
@@ -15579,14 +15578,14 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="M273" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100.00000000000013</v>
       </c>
       <c r="N273" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>194</v>
       </c>
@@ -15618,14 +15617,14 @@
         <v>0.7270833333333333</v>
       </c>
       <c r="M274" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99.999999999999972</v>
       </c>
       <c r="N274" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>194</v>
       </c>
@@ -15657,14 +15656,14 @@
         <v>0.7284722222222223</v>
       </c>
       <c r="M275" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000128</v>
       </c>
       <c r="N275" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="276" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>194</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="M276" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98.999999999999972</v>
       </c>
       <c r="N276" s="7">
@@ -15704,7 +15703,7 @@
       </c>
       <c r="S276" s="92"/>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>201</v>
       </c>
@@ -15736,14 +15735,14 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="M277" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.99999999999994</v>
       </c>
       <c r="N277" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>201</v>
       </c>
@@ -15775,14 +15774,14 @@
         <v>0.71875</v>
       </c>
       <c r="M278" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155.00000000000009</v>
       </c>
       <c r="N278" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>201</v>
       </c>
@@ -15814,14 +15813,14 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="M279" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.00000000000009</v>
       </c>
       <c r="N279" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>201</v>
       </c>
@@ -15853,7 +15852,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="M280" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153.99999999999994</v>
       </c>
       <c r="N280" s="1">
@@ -15863,7 +15862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>201</v>
       </c>
@@ -15895,14 +15894,14 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="M281" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153.99999999999994</v>
       </c>
       <c r="N281" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>201</v>
       </c>
@@ -15934,14 +15933,14 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="M282" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.99999999999994</v>
       </c>
       <c r="N282" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>201</v>
       </c>
@@ -15973,14 +15972,14 @@
         <v>0.72638888888888886</v>
       </c>
       <c r="M283" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.99999999999994</v>
       </c>
       <c r="N283" s="1">
         <v>551</v>
       </c>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>201</v>
       </c>
@@ -16012,14 +16011,14 @@
         <v>0.7270833333333333</v>
       </c>
       <c r="M284" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.99999999999994</v>
       </c>
       <c r="N284" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>201</v>
       </c>
@@ -16051,14 +16050,14 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="M285" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155.99999999999991</v>
       </c>
       <c r="N285" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>201</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>0.73125000000000007</v>
       </c>
       <c r="M286" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>157.00000000000009</v>
       </c>
       <c r="N286" s="7">
@@ -16098,7 +16097,7 @@
       </c>
       <c r="S286" s="92"/>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>213</v>
       </c>
@@ -16130,11 +16129,11 @@
         <v>0.72291666666666665</v>
       </c>
       <c r="M287" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155.99999999999991</v>
       </c>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>213</v>
       </c>
@@ -16166,14 +16165,14 @@
         <v>0.72638888888888886</v>
       </c>
       <c r="M288" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>156.99999999999991</v>
       </c>
       <c r="N288" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>213</v>
       </c>
@@ -16205,11 +16204,11 @@
         <v>0.72847222222222219</v>
       </c>
       <c r="M289" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>158.99999999999991</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>213</v>
       </c>
@@ -16241,11 +16240,11 @@
         <v>0.73055555555555551</v>
       </c>
       <c r="M290" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>159.99999999999991</v>
       </c>
     </row>
-    <row r="291" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>213</v>
       </c>
@@ -16277,12 +16276,12 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="M291" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>158.99999999999991</v>
       </c>
       <c r="S291" s="92"/>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>219</v>
       </c>
@@ -16314,14 +16313,14 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="M292" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>162.00000000000006</v>
       </c>
       <c r="N292" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>219</v>
       </c>
@@ -16353,14 +16352,14 @@
         <v>0.70694444444444449</v>
       </c>
       <c r="M293" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>162.00000000000006</v>
       </c>
       <c r="R293" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>219</v>
       </c>
@@ -16392,14 +16391,14 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="M294" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>162.00000000000006</v>
       </c>
       <c r="R294" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>219</v>
       </c>
@@ -16431,11 +16430,11 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="M295" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>160.00000000000006</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>219</v>
       </c>
@@ -16467,14 +16466,14 @@
         <v>0.71180555555555558</v>
       </c>
       <c r="M296" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>160.00000000000006</v>
       </c>
       <c r="N296" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="297" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>219</v>
       </c>
@@ -16506,12 +16505,12 @@
         <v>0.71319444444444446</v>
       </c>
       <c r="M297" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>160.00000000000006</v>
       </c>
       <c r="S297" s="92"/>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>226</v>
       </c>
@@ -16543,11 +16542,11 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="M298" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>226</v>
       </c>
@@ -16579,14 +16578,14 @@
         <v>0.73402777777777772</v>
       </c>
       <c r="M299" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>142.99999999999997</v>
       </c>
       <c r="N299" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>226</v>
       </c>
@@ -16618,11 +16617,11 @@
         <v>0.73541666666666672</v>
       </c>
       <c r="M300" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>143.00000000000014</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>226</v>
       </c>
@@ -16654,11 +16653,11 @@
         <v>0.7368055555555556</v>
       </c>
       <c r="M301" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>142.00000000000014</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>226</v>
       </c>
@@ -16690,14 +16689,14 @@
         <v>0.73819444444444449</v>
       </c>
       <c r="M302" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>142.00000000000014</v>
       </c>
       <c r="N302" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="303" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>226</v>
       </c>
@@ -16729,12 +16728,12 @@
         <v>0.74027777777777781</v>
       </c>
       <c r="M303" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="S303" s="92"/>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>231</v>
       </c>
@@ -16766,11 +16765,11 @@
         <v>0.69166666666666665</v>
       </c>
       <c r="M304" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>231</v>
       </c>
@@ -16802,14 +16801,14 @@
         <v>0.69305555555555554</v>
       </c>
       <c r="M305" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92.999999999999986</v>
       </c>
       <c r="N305" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>231</v>
       </c>
@@ -16841,11 +16840,11 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M306" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92.999999999999986</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>231</v>
       </c>
@@ -16877,11 +16876,11 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="M307" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92.999999999999986</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>231</v>
       </c>
@@ -16913,14 +16912,14 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="M308" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93.999999999999986</v>
       </c>
       <c r="N308" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="309" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>231</v>
       </c>
@@ -16952,12 +16951,12 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="M309" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="S309" s="92"/>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="14" t="s">
         <v>235</v>
       </c>
@@ -16989,11 +16988,11 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="M310" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="14" t="s">
         <v>235</v>
       </c>
@@ -17025,11 +17024,11 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="M311" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="14" t="s">
         <v>235</v>
       </c>
@@ -17061,14 +17060,14 @@
         <v>0.71180555555555558</v>
       </c>
       <c r="M312" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="N312" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="14" t="s">
         <v>235</v>
       </c>
@@ -17100,11 +17099,11 @@
         <v>0.71319444444444446</v>
       </c>
       <c r="M313" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.000000000000014</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="14" t="s">
         <v>235</v>
       </c>
@@ -17136,11 +17135,11 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="M314" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
     </row>
-    <row r="315" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="66" t="s">
         <v>235</v>
       </c>
@@ -17172,12 +17171,12 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="M315" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="S315" s="92"/>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>237</v>
       </c>
@@ -17209,11 +17208,11 @@
         <v>0.68888888888888888</v>
       </c>
       <c r="M316" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>237</v>
       </c>
@@ -17245,11 +17244,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="M317" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>237</v>
       </c>
@@ -17281,11 +17280,11 @@
         <v>0.69166666666666665</v>
       </c>
       <c r="M318" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>237</v>
       </c>
@@ -17317,11 +17316,11 @@
         <v>0.69305555555555554</v>
       </c>
       <c r="M319" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>237</v>
       </c>
@@ -17353,11 +17352,11 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M320" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
     </row>
-    <row r="321" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>237</v>
       </c>
@@ -17389,12 +17388,12 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="M321" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="S321" s="92"/>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>241</v>
       </c>
@@ -17426,11 +17425,11 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="M322" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94.999999999999986</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>241</v>
       </c>
@@ -17462,11 +17461,11 @@
         <v>0.71180555555555558</v>
       </c>
       <c r="M323" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.999999999999972</v>
       </c>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>241</v>
       </c>
@@ -17498,11 +17497,11 @@
         <v>0.71319444444444446</v>
       </c>
       <c r="M324" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.999999999999972</v>
       </c>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>241</v>
       </c>
@@ -17534,11 +17533,11 @@
         <v>0.71458333333333335</v>
       </c>
       <c r="M325" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94.999999999999986</v>
       </c>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>241</v>
       </c>
@@ -17570,11 +17569,11 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="M326" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.999999999999972</v>
       </c>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>241</v>
       </c>
@@ -17606,11 +17605,11 @@
         <v>0.71805555555555556</v>
       </c>
       <c r="M327" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96.999999999999972</v>
       </c>
     </row>
-    <row r="328" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>241</v>
       </c>
@@ -17642,12 +17641,12 @@
         <v>0.71875</v>
       </c>
       <c r="M328" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94.999999999999986</v>
       </c>
       <c r="S328" s="92"/>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>242</v>
       </c>
@@ -17679,11 +17678,11 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="M329" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>242</v>
       </c>
@@ -17715,7 +17714,7 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="M330" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="N330" s="1">
@@ -17725,7 +17724,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>242</v>
       </c>
@@ -17757,7 +17756,7 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="M331" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="N331" s="1">
@@ -17767,7 +17766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>242</v>
       </c>
@@ -17799,7 +17798,7 @@
         <v>0.7270833333333333</v>
       </c>
       <c r="M332" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="N332" s="1">
@@ -17809,7 +17808,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>242</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>0.72986111111111107</v>
       </c>
       <c r="M333" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="N333" s="1">
@@ -17851,7 +17850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>242</v>
       </c>
@@ -17883,11 +17882,11 @@
         <v>0.73124999999999996</v>
       </c>
       <c r="M334" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
     </row>
-    <row r="335" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>242</v>
       </c>
@@ -17919,7 +17918,7 @@
         <v>0.73333333333333328</v>
       </c>
       <c r="M335" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="N335" s="7">
@@ -17930,7 +17929,7 @@
       </c>
       <c r="S335" s="92"/>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>248</v>
       </c>
@@ -17962,11 +17961,11 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="M336" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120.00000000000006</v>
       </c>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>248</v>
       </c>
@@ -17998,11 +17997,11 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="M337" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120.00000000000006</v>
       </c>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>248</v>
       </c>
@@ -18034,11 +18033,11 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="M338" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000006</v>
       </c>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>248</v>
       </c>
@@ -18070,11 +18069,11 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="M339" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>123.00000000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>248</v>
       </c>
@@ -18106,11 +18105,11 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="M340" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000006</v>
       </c>
     </row>
-    <row r="341" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>248</v>
       </c>
@@ -18142,12 +18141,12 @@
         <v>0.71805555555555556</v>
       </c>
       <c r="M341" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>123.00000000000004</v>
       </c>
       <c r="S341" s="92"/>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>253</v>
       </c>
@@ -18179,7 +18178,7 @@
         <v>0.7368055555555556</v>
       </c>
       <c r="M342" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>151.00000000000011</v>
       </c>
       <c r="N342" s="1">
@@ -18189,7 +18188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>253</v>
       </c>
@@ -18221,14 +18220,14 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M343" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153.00000000000009</v>
       </c>
       <c r="N343" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>253</v>
       </c>
@@ -18260,14 +18259,14 @@
         <v>0.74097222222222225</v>
       </c>
       <c r="M344" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>152.00000000000011</v>
       </c>
       <c r="N344" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>253</v>
       </c>
@@ -18299,14 +18298,14 @@
         <v>0.74305555555555558</v>
       </c>
       <c r="M345" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153.00000000000009</v>
       </c>
       <c r="N345" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>253</v>
       </c>
@@ -18338,14 +18337,14 @@
         <v>0.74583333333333335</v>
       </c>
       <c r="M346" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155.00000000000009</v>
       </c>
       <c r="N346" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>253</v>
       </c>
@@ -18377,7 +18376,7 @@
         <v>0.74722222222222223</v>
       </c>
       <c r="M347" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>156.00000000000009</v>
       </c>
       <c r="N347" s="1">
@@ -18387,7 +18386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="348" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>253</v>
       </c>
@@ -18419,7 +18418,7 @@
         <v>0.74930555555555556</v>
       </c>
       <c r="M348" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.99999999999994</v>
       </c>
       <c r="N348" s="7">
@@ -18427,7 +18426,7 @@
       </c>
       <c r="S348" s="92"/>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>249</v>
       </c>
@@ -18459,11 +18458,11 @@
         <v>0.73402777777777772</v>
       </c>
       <c r="M349" s="1">
-        <f t="shared" ref="M349:M358" si="4" xml:space="preserve"> (L349-K349)*24 * 60</f>
+        <f t="shared" ref="M349:M358" si="6" xml:space="preserve"> (L349-K349)*24 * 60</f>
         <v>94.999999999999986</v>
       </c>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>249</v>
       </c>
@@ -18495,11 +18494,11 @@
         <v>0.7368055555555556</v>
       </c>
       <c r="M350" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>94.000000000000142</v>
       </c>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>249</v>
       </c>
@@ -18531,11 +18530,11 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="M351" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>93.999999999999986</v>
       </c>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>249</v>
       </c>
@@ -18567,11 +18566,11 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M352" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>93.999999999999986</v>
       </c>
     </row>
-    <row r="353" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>249</v>
       </c>
@@ -18603,12 +18602,12 @@
         <v>0.73541666666666672</v>
       </c>
       <c r="M353" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>85.000000000000014</v>
       </c>
       <c r="S353" s="92"/>
     </row>
-    <row r="354" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>256</v>
       </c>
@@ -18640,11 +18639,11 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="M354" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>199.99999999999994</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>256</v>
       </c>
@@ -18676,11 +18675,11 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="M355" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195.99999999999994</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>256</v>
       </c>
@@ -18712,11 +18711,11 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="M356" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>187.99999999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>256</v>
       </c>
@@ -18748,12 +18747,12 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="M357" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>184.99999999999997</v>
       </c>
       <c r="S357" s="92"/>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>258</v>
       </c>
@@ -18785,11 +18784,11 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M358" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>258</v>
       </c>
@@ -18821,11 +18820,11 @@
         <v>0.69722222222222219</v>
       </c>
       <c r="M359" s="1">
-        <f t="shared" ref="M359:M386" si="5" xml:space="preserve"> (L359-K359)*24 * 60</f>
+        <f t="shared" ref="M359:M386" si="7" xml:space="preserve"> (L359-K359)*24 * 60</f>
         <v>147.99999999999994</v>
       </c>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>258</v>
       </c>
@@ -18857,11 +18856,11 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="M360" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>145.99999999999997</v>
       </c>
     </row>
-    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>258</v>
       </c>
@@ -18893,11 +18892,11 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="M361" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>258</v>
       </c>
@@ -18929,11 +18928,11 @@
         <v>0.7006944444444444</v>
       </c>
       <c r="M362" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>145.99999999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>258</v>
       </c>
@@ -18965,11 +18964,11 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="M363" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>258</v>
       </c>
@@ -19001,11 +19000,11 @@
         <v>0.70277777777777772</v>
       </c>
       <c r="M364" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>144.99999999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>258</v>
       </c>
@@ -19037,12 +19036,12 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="M365" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>145.00000000000011</v>
       </c>
       <c r="S365" s="92"/>
     </row>
-    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>261</v>
       </c>
@@ -19074,11 +19073,11 @@
         <v>0.7270833333333333</v>
       </c>
       <c r="M366" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>151.99999999999994</v>
       </c>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>261</v>
       </c>
@@ -19110,11 +19109,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="M367" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>152.99999999999994</v>
       </c>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>261</v>
       </c>
@@ -19146,11 +19145,11 @@
         <v>0.72986111111111107</v>
       </c>
       <c r="M368" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150.99999999999994</v>
       </c>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>261</v>
       </c>
@@ -19182,11 +19181,11 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="M369" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>151.99999999999994</v>
       </c>
     </row>
-    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>261</v>
       </c>
@@ -19218,11 +19217,11 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="M370" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>261</v>
       </c>
@@ -19254,11 +19253,11 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="M371" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
     </row>
-    <row r="372" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>261</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M372" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="S372" s="92"/>
@@ -19309,7 +19308,7 @@
         <v>64</v>
       </c>
       <c r="E373" s="1">
-        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <f t="shared" ref="E373:E379" si="8" xml:space="preserve"> 325.5 * 1.06</f>
         <v>345.03000000000003</v>
       </c>
       <c r="F373" s="1">
@@ -19328,7 +19327,7 @@
         <v>0.74305555555555558</v>
       </c>
       <c r="M373" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>155.00000000000009</v>
       </c>
     </row>
@@ -19346,7 +19345,7 @@
         <v>64</v>
       </c>
       <c r="E374" s="1">
-        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <f t="shared" si="8"/>
         <v>345.03000000000003</v>
       </c>
       <c r="F374" s="1">
@@ -19365,7 +19364,7 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="M374" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>154.00000000000009</v>
       </c>
     </row>
@@ -19383,7 +19382,7 @@
         <v>64</v>
       </c>
       <c r="E375" s="1">
-        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <f t="shared" si="8"/>
         <v>345.03000000000003</v>
       </c>
       <c r="F375" s="1">
@@ -19402,7 +19401,7 @@
         <v>0.75</v>
       </c>
       <c r="M375" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153.99999999999994</v>
       </c>
     </row>
@@ -19420,7 +19419,7 @@
         <v>64</v>
       </c>
       <c r="E376" s="1">
-        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <f t="shared" si="8"/>
         <v>345.03000000000003</v>
       </c>
       <c r="F376" s="1">
@@ -19439,7 +19438,7 @@
         <v>0.75277777777777777</v>
       </c>
       <c r="M376" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>154.99999999999994</v>
       </c>
     </row>
@@ -19457,7 +19456,7 @@
         <v>64</v>
       </c>
       <c r="E377" s="1">
-        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <f t="shared" si="8"/>
         <v>345.03000000000003</v>
       </c>
       <c r="F377" s="1">
@@ -19482,7 +19481,7 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="M377" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153.99999999999994</v>
       </c>
       <c r="S377" s="90" t="s">
@@ -19503,7 +19502,7 @@
         <v>64</v>
       </c>
       <c r="E378" s="1">
-        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <f t="shared" si="8"/>
         <v>345.03000000000003</v>
       </c>
       <c r="F378" s="1">
@@ -19528,7 +19527,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="M378" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>154.99999999999994</v>
       </c>
       <c r="S378" s="90" t="s">
@@ -19549,7 +19548,7 @@
         <v>64</v>
       </c>
       <c r="E379" s="1">
-        <f xml:space="preserve"> 325.5 * 1.06</f>
+        <f t="shared" si="8"/>
         <v>345.03000000000003</v>
       </c>
       <c r="F379" s="7">
@@ -19574,14 +19573,14 @@
         <v>0.76249999999999996</v>
       </c>
       <c r="M379" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>152.99999999999994</v>
       </c>
       <c r="S379" s="92" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>280</v>
       </c>
@@ -19613,14 +19612,14 @@
         <v>0.73055555555555551</v>
       </c>
       <c r="M380" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>156.99999999999991</v>
       </c>
       <c r="R380" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>280</v>
       </c>
@@ -19652,11 +19651,11 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="M381" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>156.99999999999991</v>
       </c>
     </row>
-    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>280</v>
       </c>
@@ -19688,11 +19687,11 @@
         <v>0.73402777777777772</v>
       </c>
       <c r="M382" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>156.99999999999991</v>
       </c>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>280</v>
       </c>
@@ -19724,7 +19723,7 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="M383" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>158.00000000000009</v>
       </c>
     </row>
@@ -19767,7 +19766,7 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="M384" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>156.00000000000009</v>
       </c>
     </row>
@@ -19810,7 +19809,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M385" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>155.00000000000009</v>
       </c>
       <c r="S385" s="90" t="s">
@@ -19856,12 +19855,12 @@
         <v>0.74305555555555558</v>
       </c>
       <c r="M386" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>155.00000000000009</v>
       </c>
       <c r="S386" s="92"/>
     </row>
-    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>286</v>
       </c>
@@ -19890,7 +19889,7 @@
         <v>0.62638888888888888</v>
       </c>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>286</v>
       </c>
@@ -19919,7 +19918,7 @@
         <v>0.62777777777777777</v>
       </c>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>286</v>
       </c>
@@ -19948,7 +19947,7 @@
         <v>0.63055555555555554</v>
       </c>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>286</v>
       </c>
@@ -19977,7 +19976,7 @@
         <v>0.63263888888888886</v>
       </c>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>286</v>
       </c>
@@ -20006,7 +20005,7 @@
         <v>0.63472222222222219</v>
       </c>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>286</v>
       </c>
@@ -20035,7 +20034,7 @@
         <v>0.63680555555555551</v>
       </c>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>286</v>
       </c>
@@ -20064,7 +20063,7 @@
         <v>0.63888888888888884</v>
       </c>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>286</v>
       </c>
@@ -20093,7 +20092,7 @@
         <v>0.64027777777777772</v>
       </c>
     </row>
-    <row r="395" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>286</v>
       </c>
@@ -20125,7 +20124,7 @@
       <c r="L395" s="13"/>
       <c r="S395" s="92"/>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>294</v>
       </c>
@@ -20157,11 +20156,11 @@
         <v>0.6875</v>
       </c>
       <c r="M396" s="1">
-        <f t="shared" ref="M396:M494" si="6" xml:space="preserve"> (L396-K396)*24 * 60</f>
+        <f t="shared" ref="M396:M494" si="9" xml:space="preserve"> (L396-K396)*24 * 60</f>
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>294</v>
       </c>
@@ -20193,11 +20192,11 @@
         <v>0.68888888888888888</v>
       </c>
       <c r="M397" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>294</v>
       </c>
@@ -20229,11 +20228,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="M398" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100.99999999999996</v>
       </c>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>294</v>
       </c>
@@ -20265,11 +20264,11 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="M399" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>294</v>
       </c>
@@ -20301,11 +20300,11 @@
         <v>0.69513888888888886</v>
       </c>
       <c r="M400" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>101.99999999999996</v>
       </c>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>294</v>
       </c>
@@ -20337,11 +20336,11 @@
         <v>0.69722222222222219</v>
       </c>
       <c r="M401" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>102.99999999999996</v>
       </c>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>294</v>
       </c>
@@ -20373,11 +20372,11 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="M402" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100.99999999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>294</v>
       </c>
@@ -20409,11 +20408,11 @@
         <v>0.73402777777777772</v>
       </c>
       <c r="M403" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>148.99999999999994</v>
       </c>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>294</v>
       </c>
@@ -20445,11 +20444,11 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="M404" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>149.00000000000011</v>
       </c>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>294</v>
       </c>
@@ -20481,11 +20480,11 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="M405" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>148.00000000000011</v>
       </c>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>294</v>
       </c>
@@ -20517,11 +20516,11 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="M406" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>149.00000000000011</v>
       </c>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>294</v>
       </c>
@@ -20553,11 +20552,11 @@
         <v>0.74236111111111114</v>
       </c>
       <c r="M407" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>148.00000000000011</v>
       </c>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>294</v>
       </c>
@@ -20589,11 +20588,11 @@
         <v>0.74375000000000002</v>
       </c>
       <c r="M408" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>146.99999999999994</v>
       </c>
     </row>
-    <row r="409" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>294</v>
       </c>
@@ -20625,12 +20624,12 @@
         <v>0.74513888888888891</v>
       </c>
       <c r="M409" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>145.99999999999997</v>
       </c>
       <c r="S409" s="92"/>
     </row>
-    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>295</v>
       </c>
@@ -20662,14 +20661,14 @@
         <v>0.64652777777777781</v>
       </c>
       <c r="M410" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.000000000000057</v>
       </c>
       <c r="S410" s="90" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>295</v>
       </c>
@@ -20701,14 +20700,14 @@
         <v>0.64652777777777781</v>
       </c>
       <c r="M411" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.000000000000057</v>
       </c>
       <c r="S411" s="90" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="412" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>295</v>
       </c>
@@ -20740,14 +20739,14 @@
         <v>0.64652777777777781</v>
       </c>
       <c r="M412" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.000000000000057</v>
       </c>
       <c r="S412" s="90" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>295</v>
       </c>
@@ -20779,14 +20778,14 @@
         <v>0.70277777777777772</v>
       </c>
       <c r="M413" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.999999999999897</v>
       </c>
       <c r="S413" s="90" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>295</v>
       </c>
@@ -20818,14 +20817,14 @@
         <v>0.70416666666666672</v>
       </c>
       <c r="M414" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.00000000000005</v>
       </c>
       <c r="S414" s="90" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>295</v>
       </c>
@@ -20857,14 +20856,14 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="M415" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.00000000000006</v>
       </c>
       <c r="S415" s="90" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="416" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>295</v>
       </c>
@@ -20896,14 +20895,14 @@
         <v>0.7055555555555556</v>
       </c>
       <c r="M416" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.000000000000057</v>
       </c>
       <c r="S416" s="92" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>304</v>
       </c>
@@ -20935,14 +20934,14 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="M417" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.000000000000043</v>
       </c>
       <c r="S417" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>304</v>
       </c>
@@ -20974,14 +20973,14 @@
         <v>0.69166666666666665</v>
       </c>
       <c r="M418" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="S418" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>304</v>
       </c>
@@ -21013,14 +21012,14 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="M419" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.000000000000043</v>
       </c>
       <c r="S419" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>304</v>
       </c>
@@ -21052,14 +21051,14 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="M420" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="S420" s="12" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>304</v>
       </c>
@@ -21091,14 +21090,14 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M421" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="S421" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="422" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>304</v>
       </c>
@@ -21130,14 +21129,14 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="M422" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.999999999999879</v>
       </c>
       <c r="S422" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>313</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>0.68819444444444444</v>
       </c>
       <c r="M423" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N423" s="5"/>
@@ -21177,7 +21176,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>313</v>
       </c>
@@ -21209,7 +21208,7 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="M424" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37.000000000000028</v>
       </c>
       <c r="N424" s="5"/>
@@ -21217,7 +21216,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>313</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="M425" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N425" s="5"/>
@@ -21257,7 +21256,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>313</v>
       </c>
@@ -21289,7 +21288,7 @@
         <v>0.69166666666666665</v>
       </c>
       <c r="M426" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N426" s="5"/>
@@ -21297,7 +21296,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>313</v>
       </c>
@@ -21329,7 +21328,7 @@
         <v>0.69305555555555554</v>
       </c>
       <c r="M427" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37.000000000000028</v>
       </c>
       <c r="N427" s="5"/>
@@ -21337,7 +21336,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>313</v>
       </c>
@@ -21369,7 +21368,7 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="M428" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N428" s="5"/>
@@ -21377,7 +21376,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="429" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>313</v>
       </c>
@@ -21409,7 +21408,7 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M429" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N429" s="5"/>
@@ -21417,7 +21416,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>323</v>
       </c>
@@ -21449,7 +21448,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="M430" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30.99999999999989</v>
       </c>
       <c r="N430" s="5"/>
@@ -21457,7 +21456,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>323</v>
       </c>
@@ -21489,7 +21488,7 @@
         <v>0.66736111111111107</v>
       </c>
       <c r="M431" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30.99999999999989</v>
       </c>
       <c r="N431" s="5"/>
@@ -21497,7 +21496,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>323</v>
       </c>
@@ -21529,7 +21528,7 @@
         <v>0.6694444444444444</v>
       </c>
       <c r="M432" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.999999999999886</v>
       </c>
       <c r="N432" s="5"/>
@@ -21537,7 +21536,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="433" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>323</v>
       </c>
@@ -21569,7 +21568,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="M433" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.999999999999886</v>
       </c>
       <c r="N433" s="5"/>
@@ -21577,7 +21576,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>330</v>
       </c>
@@ -21609,7 +21608,7 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="M434" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26.999999999999904</v>
       </c>
       <c r="N434" s="5"/>
@@ -21617,7 +21616,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>330</v>
       </c>
@@ -21649,7 +21648,7 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="M435" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.999999999999901</v>
       </c>
       <c r="N435" s="5"/>
@@ -21657,7 +21656,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>330</v>
       </c>
@@ -21689,7 +21688,7 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M436" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26.999999999999904</v>
       </c>
       <c r="N436" s="5"/>
@@ -21697,7 +21696,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>330</v>
       </c>
@@ -21729,7 +21728,7 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="M437" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.999999999999901</v>
       </c>
       <c r="N437" s="5"/>
@@ -21737,7 +21736,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>330</v>
       </c>
@@ -21769,7 +21768,7 @@
         <v>0.69722222222222219</v>
       </c>
       <c r="M438" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.999999999999897</v>
       </c>
       <c r="N438" s="5"/>
@@ -21777,7 +21776,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>330</v>
       </c>
@@ -21809,7 +21808,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="M439" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.999999999999897</v>
       </c>
       <c r="N439" s="5"/>
@@ -21817,7 +21816,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="440" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>330</v>
       </c>
@@ -21849,7 +21848,7 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="M440" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.999999999999901</v>
       </c>
       <c r="N440" s="5"/>
@@ -21857,7 +21856,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>337</v>
       </c>
@@ -21889,12 +21888,12 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="M441" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.000000000000103</v>
       </c>
       <c r="N441" s="5"/>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>337</v>
       </c>
@@ -21926,12 +21925,12 @@
         <v>0.7055555555555556</v>
       </c>
       <c r="M442" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.000000000000103</v>
       </c>
       <c r="N442" s="5"/>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>337</v>
       </c>
@@ -21963,12 +21962,12 @@
         <v>0.70694444444444449</v>
       </c>
       <c r="M443" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.000000000000103</v>
       </c>
       <c r="N443" s="5"/>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>337</v>
       </c>
@@ -22000,12 +21999,12 @@
         <v>0.70763888888888893</v>
       </c>
       <c r="M444" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.000000000000107</v>
       </c>
       <c r="N444" s="5"/>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>337</v>
       </c>
@@ -22037,12 +22036,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M445" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.000000000000107</v>
       </c>
       <c r="N445" s="5"/>
     </row>
-    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>337</v>
       </c>
@@ -22074,12 +22073,12 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="M446" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.000000000000103</v>
       </c>
       <c r="N446" s="5"/>
     </row>
-    <row r="447" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>337</v>
       </c>
@@ -22111,13 +22110,13 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="M447" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.000000000000103</v>
       </c>
       <c r="N447" s="5"/>
       <c r="S447" s="92"/>
     </row>
-    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>341</v>
       </c>
@@ -22146,12 +22145,12 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="M448" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.000000000000107</v>
       </c>
       <c r="N448" s="5"/>
     </row>
-    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>341</v>
       </c>
@@ -22180,12 +22179,12 @@
         <v>0.71180555555555558</v>
       </c>
       <c r="M449" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.000000000000107</v>
       </c>
       <c r="N449" s="5"/>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>341</v>
       </c>
@@ -22214,12 +22213,12 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="M450" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.000000000000103</v>
       </c>
       <c r="N450" s="5"/>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>341</v>
       </c>
@@ -22248,12 +22247,12 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="M451" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.999999999999947</v>
       </c>
       <c r="N451" s="5"/>
     </row>
-    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>341</v>
       </c>
@@ -22282,12 +22281,12 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="M452" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.999999999999947</v>
       </c>
       <c r="N452" s="5"/>
     </row>
-    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A453" s="20" t="s">
         <v>341</v>
       </c>
@@ -22319,12 +22318,12 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="M453" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.999999999999947</v>
       </c>
       <c r="N453" s="5"/>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>341</v>
       </c>
@@ -22353,7 +22352,7 @@
         <v>0.68541666666666667</v>
       </c>
       <c r="M454" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.999999999999957</v>
       </c>
       <c r="N454" s="5"/>
@@ -22361,7 +22360,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>341</v>
       </c>
@@ -22390,7 +22389,7 @@
         <v>0.68680555555555556</v>
       </c>
       <c r="M455" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.999999999999957</v>
       </c>
       <c r="N455" s="5"/>
@@ -22398,7 +22397,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>341</v>
       </c>
@@ -22427,7 +22426,7 @@
         <v>0.6875</v>
       </c>
       <c r="M456" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.999999999999961</v>
       </c>
       <c r="N456" s="5"/>
@@ -22435,7 +22434,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>341</v>
       </c>
@@ -22464,7 +22463,7 @@
         <v>0.68888888888888888</v>
       </c>
       <c r="M457" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.999999999999957</v>
       </c>
       <c r="N457" s="5"/>
@@ -22472,7 +22471,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>341</v>
       </c>
@@ -22501,7 +22500,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="M458" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13.99999999999995</v>
       </c>
       <c r="N458" s="5"/>
@@ -22509,7 +22508,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>341</v>
       </c>
@@ -22538,7 +22537,7 @@
         <v>0.69166666666666665</v>
       </c>
       <c r="M459" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.999999999999954</v>
       </c>
       <c r="N459" s="5"/>
@@ -22546,7 +22545,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="460" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
         <v>341</v>
       </c>
@@ -22577,7 +22576,7 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="M460" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.999999999999954</v>
       </c>
       <c r="N460" s="5"/>
@@ -22585,7 +22584,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>345</v>
       </c>
@@ -22617,12 +22616,12 @@
         <v>0.68541666666666667</v>
       </c>
       <c r="M461" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.000000000000089</v>
       </c>
       <c r="N461" s="5"/>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>345</v>
       </c>
@@ -22654,12 +22653,12 @@
         <v>0.68680555555555556</v>
       </c>
       <c r="M462" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.999999999999929</v>
       </c>
       <c r="N462" s="5"/>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A463" s="20" t="s">
         <v>345</v>
       </c>
@@ -22691,12 +22690,12 @@
         <v>0.6875</v>
       </c>
       <c r="M463" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.999999999999929</v>
       </c>
       <c r="N463" s="5"/>
     </row>
-    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>345</v>
       </c>
@@ -22728,12 +22727,12 @@
         <v>0.68888888888888888</v>
       </c>
       <c r="M464" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.999999999999925</v>
       </c>
       <c r="N464" s="5"/>
     </row>
-    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>345</v>
       </c>
@@ -22765,12 +22764,12 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="M465" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.999999999999922</v>
       </c>
       <c r="N465" s="5"/>
     </row>
-    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>345</v>
       </c>
@@ -22802,12 +22801,12 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="M466" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.999999999999922</v>
       </c>
       <c r="N466" s="5"/>
     </row>
-    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>345</v>
       </c>
@@ -22839,12 +22838,12 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="M467" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.999999999999922</v>
       </c>
       <c r="N467" s="5"/>
     </row>
-    <row r="468" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>345</v>
       </c>
@@ -22876,13 +22875,13 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="M468" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.999999999999922</v>
       </c>
       <c r="N468" s="9"/>
       <c r="S468" s="92"/>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>350</v>
       </c>
@@ -22914,12 +22913,12 @@
         <v>0.63472222222222219</v>
       </c>
       <c r="M469" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.999999999999886</v>
       </c>
       <c r="N469" s="27"/>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>350</v>
       </c>
@@ -22951,12 +22950,12 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="M470" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.999999999999893</v>
       </c>
       <c r="N470" s="27"/>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>350</v>
       </c>
@@ -22988,12 +22987,12 @@
         <v>0.63749999999999996</v>
       </c>
       <c r="M471" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.999999999999897</v>
       </c>
       <c r="N471" s="27"/>
     </row>
-    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>350</v>
       </c>
@@ -23025,12 +23024,12 @@
         <v>0.64375000000000004</v>
       </c>
       <c r="M472" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N472" s="27"/>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>350</v>
       </c>
@@ -23062,12 +23061,12 @@
         <v>0.64444444444444449</v>
       </c>
       <c r="M473" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="N473" s="27"/>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>350</v>
       </c>
@@ -23099,12 +23098,12 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="M474" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N474" s="27"/>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>350</v>
       </c>
@@ -23136,12 +23135,12 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="M475" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N475" s="27"/>
     </row>
-    <row r="476" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
         <v>350</v>
       </c>
@@ -23173,13 +23172,13 @@
         <v>0.65069444444444446</v>
       </c>
       <c r="M476" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N476" s="27"/>
       <c r="S476" s="92"/>
     </row>
-    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
         <v>359</v>
       </c>
@@ -23214,12 +23213,12 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="M477" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.000000000000036</v>
       </c>
       <c r="N477" s="27"/>
     </row>
-    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>359</v>
       </c>
@@ -23254,12 +23253,12 @@
         <v>0.65</v>
       </c>
       <c r="M478" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.000000000000036</v>
       </c>
       <c r="N478" s="27"/>
     </row>
-    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>359</v>
       </c>
@@ -23294,12 +23293,12 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="M479" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.000000000000036</v>
       </c>
       <c r="N479" s="27"/>
     </row>
-    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480" s="6" t="s">
         <v>359</v>
       </c>
@@ -23334,12 +23333,12 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="M480" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="N480" s="27"/>
     </row>
-    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>359</v>
       </c>
@@ -23374,12 +23373,12 @@
         <v>0.65486111111111112</v>
       </c>
       <c r="M481" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="N481" s="27"/>
     </row>
-    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>359</v>
       </c>
@@ -23414,12 +23413,12 @@
         <v>0.65625</v>
       </c>
       <c r="M482" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.000000000000043</v>
       </c>
       <c r="N482" s="27"/>
     </row>
-    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>359</v>
       </c>
@@ -23454,12 +23453,12 @@
         <v>0.65902777777777777</v>
       </c>
       <c r="M483" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="N483" s="27"/>
     </row>
-    <row r="484" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>359</v>
       </c>
@@ -23494,13 +23493,13 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="M484" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N484" s="27"/>
       <c r="S484" s="92"/>
     </row>
-    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>360</v>
       </c>
@@ -23535,12 +23534,12 @@
         <v>0.6430555555555556</v>
       </c>
       <c r="M485" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37.000000000000028</v>
       </c>
       <c r="N485" s="27"/>
     </row>
-    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A486" s="6" t="s">
         <v>360</v>
       </c>
@@ -23575,12 +23574,12 @@
         <v>0.64375000000000004</v>
       </c>
       <c r="M486" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N486" s="27"/>
     </row>
-    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>360</v>
       </c>
@@ -23615,12 +23614,12 @@
         <v>0.64513888888888893</v>
       </c>
       <c r="M487" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.000000000000036</v>
       </c>
       <c r="N487" s="27"/>
     </row>
-    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A488" s="6" t="s">
         <v>360</v>
       </c>
@@ -23655,12 +23654,12 @@
         <v>0.64652777777777781</v>
       </c>
       <c r="M488" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.000000000000043</v>
       </c>
       <c r="N488" s="27"/>
     </row>
-    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>360</v>
       </c>
@@ -23695,12 +23694,12 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="M489" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.000000000000043</v>
       </c>
       <c r="N489" s="27"/>
     </row>
-    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>360</v>
       </c>
@@ -23735,12 +23734,12 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="M490" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.000000000000043</v>
       </c>
       <c r="N490" s="27"/>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>360</v>
       </c>
@@ -23775,12 +23774,12 @@
         <v>0.65069444444444446</v>
       </c>
       <c r="M491" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30.000000000000053</v>
       </c>
       <c r="N491" s="27"/>
     </row>
-    <row r="492" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>360</v>
       </c>
@@ -23815,7 +23814,7 @@
       <c r="N492" s="27"/>
       <c r="S492" s="92"/>
     </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>369</v>
       </c>
@@ -23850,12 +23849,12 @@
         <v>0.68958333333333333</v>
       </c>
       <c r="M493" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>120.00000000000006</v>
       </c>
       <c r="N493" s="5"/>
     </row>
-    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>369</v>
       </c>
@@ -23890,12 +23889,12 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="M494" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>121.00000000000006</v>
       </c>
       <c r="N494" s="5"/>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>369</v>
       </c>
@@ -23930,12 +23929,12 @@
         <v>0.69513888888888886</v>
       </c>
       <c r="M495" s="1">
-        <f t="shared" ref="M495:M530" si="7" xml:space="preserve"> (L495-K495)*24 * 60</f>
+        <f t="shared" ref="M495:M530" si="10" xml:space="preserve"> (L495-K495)*24 * 60</f>
         <v>121.99999999999989</v>
       </c>
       <c r="O495" s="5"/>
     </row>
-    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>369</v>
       </c>
@@ -23970,12 +23969,12 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="M496" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>123.99999999999989</v>
       </c>
       <c r="N496" s="5"/>
     </row>
-    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>369</v>
       </c>
@@ -24010,12 +24009,12 @@
         <v>0.7</v>
       </c>
       <c r="M497" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.99999999999989</v>
       </c>
       <c r="O497" s="5"/>
     </row>
-    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>369</v>
       </c>
@@ -24050,12 +24049,12 @@
         <v>0.7006944444444444</v>
       </c>
       <c r="M498" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>120.99999999999989</v>
       </c>
       <c r="N498" s="5"/>
     </row>
-    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>369</v>
       </c>
@@ -24090,12 +24089,12 @@
         <v>0.70416666666666672</v>
       </c>
       <c r="M499" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>123.00000000000004</v>
       </c>
       <c r="N499" s="5"/>
     </row>
-    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>369</v>
       </c>
@@ -24130,12 +24129,12 @@
         <v>0.70625000000000004</v>
       </c>
       <c r="M500" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.00000000000004</v>
       </c>
       <c r="O500" s="5"/>
     </row>
-    <row r="501" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>369</v>
       </c>
@@ -24170,12 +24169,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M501" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>121.00000000000006</v>
       </c>
       <c r="S501" s="92"/>
     </row>
-    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>370</v>
       </c>
@@ -24210,12 +24209,12 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="M502" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>127.00000000000003</v>
       </c>
       <c r="O502" s="5"/>
     </row>
-    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>370</v>
       </c>
@@ -24250,12 +24249,12 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="M503" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>119.99999999999989</v>
       </c>
       <c r="N503" s="5"/>
     </row>
-    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>370</v>
       </c>
@@ -24290,12 +24289,12 @@
         <v>0.69930555555555551</v>
       </c>
       <c r="M504" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.99999999999989</v>
       </c>
       <c r="N504" s="5"/>
     </row>
-    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>370</v>
       </c>
@@ -24330,12 +24329,12 @@
         <v>0.70208333333333328</v>
       </c>
       <c r="M505" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.99999999999989</v>
       </c>
       <c r="O505" s="5"/>
     </row>
-    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>370</v>
       </c>
@@ -24370,12 +24369,12 @@
         <v>0.70347222222222228</v>
       </c>
       <c r="M506" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.00000000000004</v>
       </c>
       <c r="N506" s="5"/>
     </row>
-    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>370</v>
       </c>
@@ -24410,12 +24409,12 @@
         <v>0.70625000000000004</v>
       </c>
       <c r="M507" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>123.00000000000004</v>
       </c>
       <c r="N507" s="5"/>
     </row>
-    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>370</v>
       </c>
@@ -24450,12 +24449,12 @@
         <v>0.70763888888888893</v>
       </c>
       <c r="M508" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.00000000000004</v>
       </c>
       <c r="N508" s="5"/>
     </row>
-    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>370</v>
       </c>
@@ -24490,12 +24489,12 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="M509" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.00000000000004</v>
       </c>
       <c r="N509" s="5"/>
     </row>
-    <row r="510" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>370</v>
       </c>
@@ -24530,13 +24529,13 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="M510" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.00000000000004</v>
       </c>
       <c r="O510" s="5"/>
       <c r="S510" s="92"/>
     </row>
-    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>371</v>
       </c>
@@ -24571,12 +24570,12 @@
         <v>0.6430555555555556</v>
       </c>
       <c r="M511" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35.000000000000036</v>
       </c>
       <c r="N511" s="27"/>
     </row>
-    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="6" t="s">
         <v>371</v>
       </c>
@@ -24612,12 +24611,12 @@
         <v>0.64375000000000004</v>
       </c>
       <c r="M512" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N512" s="27"/>
     </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>371</v>
       </c>
@@ -24652,12 +24651,12 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="M513" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36.000000000000028</v>
       </c>
       <c r="N513" s="27"/>
     </row>
-    <row r="514" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6" t="s">
         <v>371</v>
       </c>
@@ -24693,14 +24692,14 @@
         <v>0.65</v>
       </c>
       <c r="M514" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.000000000000043</v>
       </c>
       <c r="N514" s="116"/>
       <c r="O514" s="116"/>
       <c r="S514" s="117"/>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>371</v>
       </c>
@@ -24735,13 +24734,13 @@
         <v>0.65208333333333335</v>
       </c>
       <c r="M515" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.000000000000043</v>
       </c>
       <c r="N515" s="27"/>
       <c r="O515" s="27"/>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>371</v>
       </c>
@@ -24776,12 +24775,12 @@
         <v>0.65416666666666667</v>
       </c>
       <c r="M516" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.000000000000043</v>
       </c>
       <c r="N516" s="27"/>
     </row>
-    <row r="517" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6" t="s">
         <v>371</v>
       </c>
@@ -24817,13 +24816,13 @@
         <v>0.66041666666666665</v>
       </c>
       <c r="M517" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36.000000000000028</v>
       </c>
       <c r="O517" s="116"/>
       <c r="S517" s="117"/>
     </row>
-    <row r="518" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>371</v>
       </c>
@@ -24859,12 +24858,12 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="M518" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.000000000000043</v>
       </c>
       <c r="S518" s="92"/>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>376</v>
       </c>
@@ -24899,12 +24898,12 @@
         <v>0.63124999999999998</v>
       </c>
       <c r="M519" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>34.000000000000043</v>
       </c>
       <c r="N519" s="27"/>
     </row>
-    <row r="520" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6" t="s">
         <v>376</v>
       </c>
@@ -24940,13 +24939,13 @@
         <v>0.63263888888888886</v>
       </c>
       <c r="M520" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32.999999999999886</v>
       </c>
       <c r="O520" s="116"/>
       <c r="S520" s="117"/>
     </row>
-    <row r="521" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6" t="s">
         <v>376</v>
       </c>
@@ -24982,13 +24981,13 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="M521" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.999999999999879</v>
       </c>
       <c r="O521" s="116"/>
       <c r="S521" s="117"/>
     </row>
-    <row r="522" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6" t="s">
         <v>376</v>
       </c>
@@ -25024,13 +25023,13 @@
         <v>0.6381944444444444</v>
       </c>
       <c r="M522" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32.999999999999886</v>
       </c>
       <c r="O522" s="116"/>
       <c r="S522" s="117"/>
     </row>
-    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>376</v>
       </c>
@@ -25065,12 +25064,12 @@
         <v>0.64027777777777772</v>
       </c>
       <c r="M523" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32.999999999999886</v>
       </c>
       <c r="O523" s="27"/>
     </row>
-    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>376</v>
       </c>
@@ -25105,11 +25104,11 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="M524" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.000000000000043</v>
       </c>
     </row>
-    <row r="525" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>376</v>
       </c>
@@ -25145,13 +25144,13 @@
         <v>0.64375000000000004</v>
       </c>
       <c r="M525" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.000000000000043</v>
       </c>
       <c r="N525" s="28"/>
       <c r="S525" s="92"/>
     </row>
-    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>378</v>
       </c>
@@ -25183,11 +25182,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M526" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
-    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>378</v>
       </c>
@@ -25219,11 +25218,11 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="M527" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
-    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>378</v>
       </c>
@@ -25255,11 +25254,11 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="M528" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
     </row>
-    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>378</v>
       </c>
@@ -25291,11 +25290,11 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="M529" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
     </row>
-    <row r="530" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>378</v>
       </c>
@@ -25328,12 +25327,12 @@
         <v>0.71875</v>
       </c>
       <c r="M530" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="S530" s="92"/>
     </row>
-    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>384</v>
       </c>
@@ -25362,7 +25361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>384</v>
       </c>
@@ -25391,7 +25390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="533" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>384</v>
       </c>
@@ -25424,7 +25423,7 @@
       </c>
       <c r="S533" s="92"/>
     </row>
-    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>395</v>
       </c>
@@ -25450,7 +25449,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>395</v>
       </c>
@@ -25476,7 +25475,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>395</v>
       </c>
@@ -25502,7 +25501,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>395</v>
       </c>
@@ -25528,7 +25527,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>395</v>
       </c>
@@ -25554,7 +25553,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>395</v>
       </c>
@@ -25580,7 +25579,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>395</v>
       </c>
@@ -25606,7 +25605,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>395</v>
       </c>
@@ -25632,7 +25631,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>395</v>
       </c>
@@ -25658,7 +25657,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="543" spans="1:19" s="20" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:19" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="20" t="s">
         <v>395</v>
       </c>
@@ -25688,7 +25687,7 @@
       <c r="L543" s="22"/>
       <c r="S543" s="93"/>
     </row>
-    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>396</v>
       </c>
@@ -25723,7 +25722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>396</v>
       </c>
@@ -25758,7 +25757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="546" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>396</v>
       </c>
@@ -25795,7 +25794,7 @@
       </c>
       <c r="S546" s="92"/>
     </row>
-    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>397</v>
       </c>
@@ -25827,11 +25826,11 @@
         <v>0.15972222222222221</v>
       </c>
       <c r="M547" s="1">
-        <f t="shared" ref="M547:M555" si="8" xml:space="preserve"> (L547-K547)*24 * 60</f>
+        <f t="shared" ref="M547:M555" si="11" xml:space="preserve"> (L547-K547)*24 * 60</f>
         <v>45</v>
       </c>
     </row>
-    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>397</v>
       </c>
@@ -25863,11 +25862,11 @@
         <v>0.16319444444444445</v>
       </c>
       <c r="M548" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
     </row>
-    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>397</v>
       </c>
@@ -25899,11 +25898,11 @@
         <v>0.1701388888888889</v>
       </c>
       <c r="M549" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>397</v>
       </c>
@@ -25935,11 +25934,11 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="M550" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
     </row>
-    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>397</v>
       </c>
@@ -25971,11 +25970,11 @@
         <v>0.15625</v>
       </c>
       <c r="M551" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>397</v>
       </c>
@@ -26007,11 +26006,11 @@
         <v>0.1763888888888889</v>
       </c>
       <c r="M552" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>49.000000000000028</v>
       </c>
     </row>
-    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>397</v>
       </c>
@@ -26043,11 +26042,11 @@
         <v>0.16180555555555556</v>
       </c>
       <c r="M553" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>397</v>
       </c>
@@ -26079,11 +26078,11 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="M554" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="555" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>397</v>
       </c>
@@ -26116,12 +26115,12 @@
         <v>0.17222222222222222</v>
       </c>
       <c r="M555" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="S555" s="92"/>
     </row>
-    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" s="121" t="s">
         <v>400</v>
       </c>
@@ -26153,11 +26152,11 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="M556" s="1">
-        <f t="shared" ref="M556:M564" si="9" xml:space="preserve"> (L556-K556)*24 * 60</f>
+        <f t="shared" ref="M556:M564" si="12" xml:space="preserve"> (L556-K556)*24 * 60</f>
         <v>195</v>
       </c>
     </row>
-    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" s="121" t="s">
         <v>400</v>
       </c>
@@ -26189,11 +26188,11 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="M557" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>188.00000000000003</v>
       </c>
     </row>
-    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A558" s="121" t="s">
         <v>400</v>
       </c>
@@ -26225,11 +26224,11 @@
         <v>0.20347222222222222</v>
       </c>
       <c r="M558" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>191</v>
       </c>
     </row>
-    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A559" s="121" t="s">
         <v>400</v>
       </c>
@@ -26261,11 +26260,11 @@
         <v>0.20208333333333334</v>
       </c>
       <c r="M559" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>191</v>
       </c>
     </row>
-    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A560" s="121" t="s">
         <v>400</v>
       </c>
@@ -26300,7 +26299,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" s="121" t="s">
         <v>400</v>
       </c>
@@ -26332,11 +26331,11 @@
         <v>0.20069444444444445</v>
       </c>
       <c r="M561" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>192.00000000000003</v>
       </c>
     </row>
-    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562" s="121" t="s">
         <v>400</v>
       </c>
@@ -26368,11 +26367,11 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="M562" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>189.99999999999997</v>
       </c>
     </row>
-    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563" s="121" t="s">
         <v>400</v>
       </c>
@@ -26404,11 +26403,11 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="M563" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>188.99999999999997</v>
       </c>
     </row>
-    <row r="564" spans="1:19" s="7" customFormat="1" ht="17" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A564" s="122" t="s">
         <v>400</v>
       </c>
@@ -26441,12 +26440,12 @@
         <v>0.19930555555555557</v>
       </c>
       <c r="M564" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>192.00000000000003</v>
       </c>
       <c r="S564" s="92"/>
     </row>
-    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>402</v>
       </c>
@@ -26469,7 +26468,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>402</v>
       </c>
@@ -26492,7 +26491,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>402</v>
       </c>
@@ -26516,13 +26515,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:T567" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Lactate"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A8:T567" xr:uid="{0B097A58-4F5D-EF45-AB03-1D5403C76C4A}"/>
   <mergeCells count="6">
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="B1:H1"/>
